--- a/Prototypes/TropicalPasture/Observed.xlsx
+++ b/Prototypes/TropicalPasture/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -62,21 +62,6 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Bambatsi.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Bambatsi.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Bambatsi.AboveGroundLive.Wt</t>
-  </si>
-  <si>
-    <t>Bambatsi.AboveGroundDead.Wt</t>
-  </si>
-  <si>
-    <t>Bambatsi.Leaf.Live.Wt</t>
-  </si>
-  <si>
     <t>SW0_10cm</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>SW0_100cm</t>
   </si>
   <si>
-    <t>Bambatsi.Stem.Live.Wt</t>
-  </si>
-  <si>
     <t>SW0_60cm</t>
   </si>
   <si>
@@ -131,12 +113,6 @@
     <t>SaoCarlosIrrRainfed</t>
   </si>
   <si>
-    <t>Bambatsi.Leaf.SpecificLeafArea</t>
-  </si>
-  <si>
-    <t>Bambatsi.Crown.Live.Wt</t>
-  </si>
-  <si>
     <t>Hudson</t>
   </si>
   <si>
@@ -144,33 +120,6 @@
   </si>
   <si>
     <t>DalbyIrrDry</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.Live.Wt</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(1)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(2)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(3)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(4)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(5)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(6)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(7)</t>
-  </si>
-  <si>
-    <t>Bambatsi.Root.LengthDensity(8)</t>
   </si>
   <si>
     <t>SW10_50cm</t>
@@ -204,6 +153,57 @@
   </si>
   <si>
     <t>SW0_190cm</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>TropicalPasture.AboveGroundLive.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.AboveGroundDead.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Stem.Live.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Crown.Live.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Leaf.SpecificLeafArea</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.Live.Wt</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(1)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(2)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(3)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(4)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(5)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(6)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(7)</t>
+  </si>
+  <si>
+    <t>TropicalPasture.Root.LengthDensity(8)</t>
   </si>
 </sst>
 </file>
@@ -722,9 +722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="528" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="528" topLeftCell="A65"/>
+      <selection sqref="A1:S1"/>
       <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -750,60 +750,60 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>40680</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>40687</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>40701</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>40715</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>40737</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>40744</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>40757</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>40771</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5">
         <v>40785</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>40799</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>40813</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5">
         <v>40827</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>40841</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>40848</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>40855</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>40869</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>40883</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>40890</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5">
         <v>40897</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>40911</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>40918</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>40925</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5">
         <v>40939</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" s="5">
         <v>40953</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5">
         <v>40967</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B27" s="5">
         <v>40981</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B28" s="5">
         <v>40988</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5">
         <v>40995</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5">
         <v>41009</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5">
         <v>41023</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5">
         <v>41037</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" s="5">
         <v>41051</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3">
         <v>41065</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>41079</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3">
         <v>41093</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3">
         <v>41107</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3">
         <v>40680</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3">
         <v>40687</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3">
         <v>40701</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3">
         <v>40715</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B42" s="4">
         <v>40737</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B43" s="5">
         <v>40744</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5">
         <v>40757</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B45" s="5">
         <v>40771</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B46" s="5">
         <v>40785</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B47" s="5">
         <v>40799</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B48" s="5">
         <v>40813</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B49" s="5">
         <v>40827</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B50" s="5">
         <v>40841</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B51" s="5">
         <v>40848</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B52" s="5">
         <v>40855</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B53" s="5">
         <v>40869</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="54" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B54" s="5">
         <v>40883</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="55" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B55" s="5">
         <v>40890</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="56" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B56" s="5">
         <v>40897</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="57" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B57" s="5">
         <v>40911</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="58" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B58" s="5">
         <v>40918</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B59" s="5">
         <v>40925</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B60" s="5">
         <v>40939</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B61" s="5">
         <v>40953</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B62" s="5">
         <v>40967</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="63" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B63" s="5">
         <v>40981</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B64" s="5">
         <v>40988</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B65" s="5">
         <v>40995</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B66" s="5">
         <v>41009</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B67" s="5">
         <v>41023</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B68" s="5">
         <v>41037</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B69" s="5">
         <v>41051</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B70" s="3">
         <v>41065</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B71" s="3">
         <v>41079</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3">
         <v>41093</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B73" s="3">
         <v>41107</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B74" s="25">
         <v>34981</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B75" s="26">
         <v>35034</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B76" s="26">
         <v>35094</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B77" s="26">
         <v>35123</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B78" s="26">
         <v>35185</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B79" s="26">
         <v>35255</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B80" s="26">
         <v>35396</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B81" s="26">
         <v>35444</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B82" s="26">
         <v>35493</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B83" s="26">
         <v>35556</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B84" s="26">
         <v>35663</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B85" s="26">
         <v>35716</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B86" s="26">
         <v>35731</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B87" s="26">
         <v>35751</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B88" s="26">
         <v>35857</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B89" s="26">
         <v>35892</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B90" s="26">
         <v>36010</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B91" s="26">
         <v>36130</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B92" s="26">
         <v>36146</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B93" s="26">
         <v>36207</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B94" s="26">
         <v>36313</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B95" s="26">
         <v>36432</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B96" s="26">
         <v>36517</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B97" s="26">
         <v>36558</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B98" s="27">
         <v>36677</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B99" s="28">
         <v>30026</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B100" s="29">
         <v>30074</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B101" s="29">
         <v>30297</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B102" s="29">
         <v>30340</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B103" s="29">
         <v>30381</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B104" s="29">
         <v>30699</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B105" s="29">
         <v>30747</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B106" s="30">
         <v>30801</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B107" s="28">
         <v>30026</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B108" s="29">
         <v>30074</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B109" s="29">
         <v>30297</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B110" s="29">
         <v>30340</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B111" s="29">
         <v>30381</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B112" s="29">
         <v>30699</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B113" s="29">
         <v>30747</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B114" s="30">
         <v>30801</v>
@@ -4434,7 +4434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="528" topLeftCell="A286" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="R300" sqref="R300:AB408"/>
@@ -4462,82 +4462,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9">
         <v>40662</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9">
         <v>40665</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9">
         <v>40667</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9">
         <v>40669</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>40672</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>40674</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9">
         <v>40676</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9">
         <v>40679</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
         <v>40681</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9">
         <v>40683</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9">
         <v>40686.36078703704</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9">
         <v>40688.37159722222</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9">
         <v>40690.364722222221</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>40693.366562499999</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9">
         <v>40695.379513888889</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9">
         <v>40697.366076388891</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9">
         <v>40700.377627314818</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9">
         <v>40702.381458333337</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="20" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9">
         <v>40707.386145833334</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="21" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9">
         <v>40709.394733796296</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="22" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9">
         <v>40711.384768518517</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9">
         <v>40714.378703703704</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="24" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="9">
         <v>40716.494189814817</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="25" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9">
         <v>40721.383194444446</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="26" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B26" s="9">
         <v>40723.38181712963</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="27" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9">
         <v>40725.396944444445</v>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="28" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B28" s="9">
         <v>40728.39340277778</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="29" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B29" s="9">
         <v>40730.377187500002</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="30" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B30" s="9">
         <v>40732.380104166667</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="31" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B31" s="9">
         <v>40735.374166666668</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="32" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B32" s="9">
         <v>40737.380277777775</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" s="9">
         <v>40739.446203703701</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34" s="9">
         <v>40742.384155092594</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" s="9">
         <v>40746.377557870372</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B36" s="9">
         <v>40749.384629629632</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B37" s="9">
         <v>40751.38559027778</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B38" s="9">
         <v>40753.381168981483</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B39" s="9">
         <v>40756.379074074073</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="40" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B40" s="9">
         <v>40758.393263888887</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="41" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B41" s="9">
         <v>40760.398321759261</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B42" s="9">
         <v>40763.390057870369</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B43" s="9">
         <v>40765.400312500002</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B44" s="9">
         <v>40767.397222222222</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B45" s="9">
         <v>40774.405069444445</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B46" s="10">
         <v>40777</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B47" s="10">
         <v>40779</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B48" s="10">
         <v>40781</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B49" s="10">
         <v>40784</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B50" s="10">
         <v>40788</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B51" s="10">
         <v>40791</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B52" s="10">
         <v>40795</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B53" s="10">
         <v>40798</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B54" s="10">
         <v>40800</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B55" s="10">
         <v>40802</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B56" s="10">
         <v>40805</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B57" s="10">
         <v>40807</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B58" s="10">
         <v>40809</v>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B59" s="10">
         <v>40812</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B60" s="10">
         <v>40814</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B61" s="10">
         <v>40816</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B62" s="10">
         <v>40819</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B63" s="10">
         <v>40821</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B64" s="10">
         <v>40823</v>
@@ -8452,7 +8452,7 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B65" s="10">
         <v>40826</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B66" s="10">
         <v>40835</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B67" s="10">
         <v>40837</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B68" s="10">
         <v>40840</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B69" s="10">
         <v>40842</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B70" s="10">
         <v>40844</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B71" s="10">
         <v>40847</v>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B72" s="10">
         <v>40850</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B73" s="10">
         <v>40854</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B74" s="10">
         <v>40856</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B75" s="10">
         <v>40858</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B76" s="10">
         <v>40863</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B77" s="10">
         <v>40865</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B78" s="10">
         <v>40868</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="79" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B79" s="11">
         <v>40872</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="80" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B80" s="11">
         <v>40875</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="81" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B81" s="11">
         <v>40877</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="82" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B82" s="11">
         <v>40879</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="83" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B83" s="11">
         <v>40882</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="84" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B84" s="11">
         <v>40883</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="85" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B85" s="11">
         <v>40889</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="86" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B86" s="11">
         <v>40891</v>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="87" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B87" s="11">
         <v>40893</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="88" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B88" s="11">
         <v>40896</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="89" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B89" s="11">
         <v>40900</v>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="90" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B90" s="11">
         <v>40903</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="91" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B91" s="11">
         <v>40905</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="92" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B92" s="11">
         <v>40907</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="93" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B93" s="11">
         <v>40914</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="94" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B94" s="11">
         <v>40917</v>
@@ -10312,7 +10312,7 @@
     </row>
     <row r="95" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B95" s="11">
         <v>40921</v>
@@ -10374,7 +10374,7 @@
     </row>
     <row r="96" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B96" s="11">
         <v>40927</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="97" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B97" s="11">
         <v>40931</v>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B98" s="10">
         <v>40938</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B99" s="10">
         <v>40940</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B100" s="10">
         <v>40942</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B101" s="10">
         <v>40945</v>
@@ -10746,7 +10746,7 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B102" s="10">
         <v>40947</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B103" s="10">
         <v>40948</v>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B104" s="10">
         <v>40956</v>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B105" s="10">
         <v>40963</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B106" s="10">
         <v>40966</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B107" s="10">
         <v>40968</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B108" s="10">
         <v>40970</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B109" s="10">
         <v>40973</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B110" s="10">
         <v>40975</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B111" s="10">
         <v>40977</v>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B112" s="10">
         <v>40980</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B113" s="10">
         <v>40983</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B114" s="10">
         <v>40984</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B115" s="10">
         <v>40987</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B116" s="10">
         <v>40989</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B117" s="10">
         <v>40994</v>
@@ -11738,7 +11738,7 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B118" s="10">
         <v>41001</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B119" s="10">
         <v>41003</v>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B120" s="10">
         <v>41010</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B121" s="10">
         <v>41012</v>
@@ -11986,7 +11986,7 @@
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B122" s="10">
         <v>41017</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B123" s="10">
         <v>41019</v>
@@ -12110,7 +12110,7 @@
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B124" s="10">
         <v>41022</v>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B125" s="10">
         <v>41024</v>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B126" s="10">
         <v>41031</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B127" s="10">
         <v>41033</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B128" s="10">
         <v>41036</v>
@@ -12420,7 +12420,7 @@
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B129" s="10">
         <v>41038</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B130" s="10">
         <v>41040</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B131" s="10">
         <v>41044</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B132" s="10">
         <v>41045</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B133" s="10">
         <v>41047</v>
@@ -12730,7 +12730,7 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B134" s="10">
         <v>41050</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B135" s="10">
         <v>41054</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B136" s="10">
         <v>41057</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B137" s="10">
         <v>41058</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B138" s="10">
         <v>41061</v>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B139" s="10">
         <v>41064</v>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B140" s="10">
         <v>41071</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B141" s="10">
         <v>41073</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B142" s="10">
         <v>41075</v>
@@ -13288,7 +13288,7 @@
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B143" s="10">
         <v>41078</v>
@@ -13350,7 +13350,7 @@
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B144" s="10">
         <v>41085</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B145" s="10">
         <v>41087</v>
@@ -13474,7 +13474,7 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B146" s="10">
         <v>41092</v>
@@ -13536,7 +13536,7 @@
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B147" s="10">
         <v>41094</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B148" s="10">
         <v>41096</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B149" s="10">
         <v>41101</v>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B150" s="10">
         <v>41106</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="151" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B151" s="9">
         <v>40662</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="152" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B152" s="9">
         <v>40665</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="153" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B153" s="9">
         <v>40667</v>
@@ -13970,7 +13970,7 @@
     </row>
     <row r="154" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B154" s="9">
         <v>40669</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="155" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B155" s="9">
         <v>40672</v>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="156" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B156" s="9">
         <v>40674</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="157" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B157" s="9">
         <v>40676</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="158" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B158" s="9">
         <v>40679</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="159" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B159" s="9">
         <v>40681</v>
@@ -14342,7 +14342,7 @@
     </row>
     <row r="160" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B160" s="9">
         <v>40683</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="161" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B161" s="9">
         <v>40686.36078703704</v>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="162" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B162" s="9">
         <v>40688.37159722222</v>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="163" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B163" s="9">
         <v>40690.364722222221</v>
@@ -14590,7 +14590,7 @@
     </row>
     <row r="164" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B164" s="9">
         <v>40693.366562499999</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="165" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B165" s="9">
         <v>40695.379513888889</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="166" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B166" s="9">
         <v>40697.366076388891</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="167" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B167" s="9">
         <v>40700.377627314818</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="168" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B168" s="9">
         <v>40702.381458333337</v>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="169" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B169" s="9">
         <v>40707.386145833334</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="170" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B170" s="9">
         <v>40709.394733796296</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="171" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B171" s="9">
         <v>40711.384768518517</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="172" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B172" s="9">
         <v>40714.378703703704</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="173" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B173" s="9">
         <v>40716.494189814817</v>
@@ -15210,7 +15210,7 @@
     </row>
     <row r="174" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B174" s="9">
         <v>40721.383194444446</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="175" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B175" s="9">
         <v>40723.38181712963</v>
@@ -15334,7 +15334,7 @@
     </row>
     <row r="176" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B176" s="9">
         <v>40725.396944444445</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="177" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B177" s="9">
         <v>40728.39340277778</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="178" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B178" s="9">
         <v>40730.377187500002</v>
@@ -15520,7 +15520,7 @@
     </row>
     <row r="179" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B179" s="9">
         <v>40732.380104166667</v>
@@ -15582,7 +15582,7 @@
     </row>
     <row r="180" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B180" s="9">
         <v>40735.374166666668</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="181" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B181" s="9">
         <v>40737.380277777775</v>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="182" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B182" s="9">
         <v>40739.446203703701</v>
@@ -15768,7 +15768,7 @@
     </row>
     <row r="183" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B183" s="9">
         <v>40742.384155092594</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="184" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B184" s="9">
         <v>40746.377557870372</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="185" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B185" s="9">
         <v>40749.384629629632</v>
@@ -15954,7 +15954,7 @@
     </row>
     <row r="186" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B186" s="9">
         <v>40751.38559027778</v>
@@ -16016,7 +16016,7 @@
     </row>
     <row r="187" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B187" s="9">
         <v>40753.381168981483</v>
@@ -16078,7 +16078,7 @@
     </row>
     <row r="188" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B188" s="9">
         <v>40756.379074074073</v>
@@ -16140,7 +16140,7 @@
     </row>
     <row r="189" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B189" s="9">
         <v>40758.393263888887</v>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="190" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B190" s="9">
         <v>40760.398321759261</v>
@@ -16264,7 +16264,7 @@
     </row>
     <row r="191" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B191" s="9">
         <v>40763.390057870369</v>
@@ -16326,7 +16326,7 @@
     </row>
     <row r="192" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B192" s="9">
         <v>40765.400312500002</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="193" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B193" s="9">
         <v>40767.397222222222</v>
@@ -16450,7 +16450,7 @@
     </row>
     <row r="194" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B194" s="9">
         <v>40774.405069444445</v>
@@ -16512,7 +16512,7 @@
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B195" s="10">
         <v>40777</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B196" s="10">
         <v>40779</v>
@@ -16636,7 +16636,7 @@
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B197" s="10">
         <v>40781</v>
@@ -16698,7 +16698,7 @@
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B198" s="10">
         <v>40784</v>
@@ -16760,7 +16760,7 @@
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B199" s="10">
         <v>40788</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B200" s="10">
         <v>40791</v>
@@ -16884,7 +16884,7 @@
     </row>
     <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B201" s="10">
         <v>40795</v>
@@ -16946,7 +16946,7 @@
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B202" s="10">
         <v>40798</v>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B203" s="10">
         <v>40800</v>
@@ -17070,7 +17070,7 @@
     </row>
     <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B204" s="10">
         <v>40802</v>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B205" s="10">
         <v>40805</v>
@@ -17194,7 +17194,7 @@
     </row>
     <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B206" s="10">
         <v>40807</v>
@@ -17256,7 +17256,7 @@
     </row>
     <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B207" s="10">
         <v>40809</v>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B208" s="10">
         <v>40812</v>
@@ -17380,7 +17380,7 @@
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B209" s="10">
         <v>40814</v>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B210" s="10">
         <v>40816</v>
@@ -17504,7 +17504,7 @@
     </row>
     <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B211" s="10">
         <v>40819</v>
@@ -17566,7 +17566,7 @@
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B212" s="10">
         <v>40821</v>
@@ -17628,7 +17628,7 @@
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B213" s="10">
         <v>40823</v>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B214" s="10">
         <v>40826</v>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B215" s="10">
         <v>40835</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B216" s="10">
         <v>40837</v>
@@ -17876,7 +17876,7 @@
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B217" s="10">
         <v>40840</v>
@@ -17938,7 +17938,7 @@
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B218" s="10">
         <v>40842</v>
@@ -18000,7 +18000,7 @@
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B219" s="10">
         <v>40844</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B220" s="10">
         <v>40847</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B221" s="10">
         <v>40850</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B222" s="10">
         <v>40854</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B223" s="10">
         <v>40856</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B224" s="10">
         <v>40858</v>
@@ -18372,7 +18372,7 @@
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B225" s="10">
         <v>40863</v>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B226" s="10">
         <v>40865</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B227" s="10">
         <v>40868</v>
@@ -18558,7 +18558,7 @@
     </row>
     <row r="228" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B228" s="11">
         <v>40872</v>
@@ -18620,7 +18620,7 @@
     </row>
     <row r="229" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B229" s="11">
         <v>40875</v>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="230" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B230" s="11">
         <v>40877</v>
@@ -18744,7 +18744,7 @@
     </row>
     <row r="231" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B231" s="11">
         <v>40879</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="232" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B232" s="11">
         <v>40882</v>
@@ -18868,7 +18868,7 @@
     </row>
     <row r="233" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B233" s="11">
         <v>40883</v>
@@ -18930,7 +18930,7 @@
     </row>
     <row r="234" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B234" s="11">
         <v>40889</v>
@@ -18992,7 +18992,7 @@
     </row>
     <row r="235" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B235" s="11">
         <v>40891</v>
@@ -19054,7 +19054,7 @@
     </row>
     <row r="236" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B236" s="11">
         <v>40893</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="237" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B237" s="11">
         <v>40896</v>
@@ -19178,7 +19178,7 @@
     </row>
     <row r="238" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B238" s="11">
         <v>40900</v>
@@ -19240,7 +19240,7 @@
     </row>
     <row r="239" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B239" s="11">
         <v>40903</v>
@@ -19302,7 +19302,7 @@
     </row>
     <row r="240" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B240" s="11">
         <v>40905</v>
@@ -19364,7 +19364,7 @@
     </row>
     <row r="241" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B241" s="11">
         <v>40907</v>
@@ -19426,7 +19426,7 @@
     </row>
     <row r="242" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B242" s="11">
         <v>40914</v>
@@ -19488,7 +19488,7 @@
     </row>
     <row r="243" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B243" s="11">
         <v>40917</v>
@@ -19550,7 +19550,7 @@
     </row>
     <row r="244" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B244" s="11">
         <v>40921</v>
@@ -19612,7 +19612,7 @@
     </row>
     <row r="245" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B245" s="11">
         <v>40927</v>
@@ -19674,7 +19674,7 @@
     </row>
     <row r="246" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B246" s="11">
         <v>40931</v>
@@ -19736,7 +19736,7 @@
     </row>
     <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B247" s="10">
         <v>40938</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B248" s="10">
         <v>40940</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B249" s="10">
         <v>40942</v>
@@ -19922,7 +19922,7 @@
     </row>
     <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B250" s="10">
         <v>40945</v>
@@ -19984,7 +19984,7 @@
     </row>
     <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B251" s="10">
         <v>40947</v>
@@ -20046,7 +20046,7 @@
     </row>
     <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B252" s="10">
         <v>40948</v>
@@ -20108,7 +20108,7 @@
     </row>
     <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B253" s="10">
         <v>40956</v>
@@ -20170,7 +20170,7 @@
     </row>
     <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B254" s="10">
         <v>40963</v>
@@ -20232,7 +20232,7 @@
     </row>
     <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B255" s="10">
         <v>40966</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B256" s="10">
         <v>40968</v>
@@ -20356,7 +20356,7 @@
     </row>
     <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B257" s="10">
         <v>40970</v>
@@ -20418,7 +20418,7 @@
     </row>
     <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B258" s="10">
         <v>40973</v>
@@ -20480,7 +20480,7 @@
     </row>
     <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B259" s="10">
         <v>40975</v>
@@ -20542,7 +20542,7 @@
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B260" s="10">
         <v>40977</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B261" s="10">
         <v>40980</v>
@@ -20666,7 +20666,7 @@
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B262" s="10">
         <v>40983</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B263" s="10">
         <v>40984</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B264" s="10">
         <v>40987</v>
@@ -20852,7 +20852,7 @@
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B265" s="10">
         <v>40989</v>
@@ -20914,7 +20914,7 @@
     </row>
     <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B266" s="10">
         <v>40994</v>
@@ -20976,7 +20976,7 @@
     </row>
     <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B267" s="10">
         <v>41001</v>
@@ -21038,7 +21038,7 @@
     </row>
     <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B268" s="10">
         <v>41003</v>
@@ -21100,7 +21100,7 @@
     </row>
     <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B269" s="10">
         <v>41010</v>
@@ -21162,7 +21162,7 @@
     </row>
     <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B270" s="10">
         <v>41012</v>
@@ -21224,7 +21224,7 @@
     </row>
     <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B271" s="10">
         <v>41017</v>
@@ -21286,7 +21286,7 @@
     </row>
     <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B272" s="10">
         <v>41019</v>
@@ -21348,7 +21348,7 @@
     </row>
     <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B273" s="10">
         <v>41022</v>
@@ -21410,7 +21410,7 @@
     </row>
     <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B274" s="10">
         <v>41024</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B275" s="10">
         <v>41031</v>
@@ -21534,7 +21534,7 @@
     </row>
     <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B276" s="10">
         <v>41033</v>
@@ -21596,7 +21596,7 @@
     </row>
     <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B277" s="10">
         <v>41036</v>
@@ -21658,7 +21658,7 @@
     </row>
     <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B278" s="10">
         <v>41038</v>
@@ -21720,7 +21720,7 @@
     </row>
     <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B279" s="10">
         <v>41040</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B280" s="10">
         <v>41044</v>
@@ -21844,7 +21844,7 @@
     </row>
     <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B281" s="10">
         <v>41045</v>
@@ -21906,7 +21906,7 @@
     </row>
     <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B282" s="10">
         <v>41047</v>
@@ -21968,7 +21968,7 @@
     </row>
     <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B283" s="10">
         <v>41050</v>
@@ -22030,7 +22030,7 @@
     </row>
     <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B284" s="10">
         <v>41054</v>
@@ -22092,7 +22092,7 @@
     </row>
     <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B285" s="10">
         <v>41057</v>
@@ -22154,7 +22154,7 @@
     </row>
     <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B286" s="10">
         <v>41058</v>
@@ -22216,7 +22216,7 @@
     </row>
     <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B287" s="10">
         <v>41061</v>
@@ -22278,7 +22278,7 @@
     </row>
     <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B288" s="10">
         <v>41064</v>
@@ -22340,7 +22340,7 @@
     </row>
     <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B289" s="10">
         <v>41071</v>
@@ -22402,7 +22402,7 @@
     </row>
     <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B290" s="10">
         <v>41073</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B291" s="10">
         <v>41075</v>
@@ -22526,7 +22526,7 @@
     </row>
     <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B292" s="10">
         <v>41078</v>
@@ -22588,7 +22588,7 @@
     </row>
     <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B293" s="10">
         <v>41085</v>
@@ -22650,7 +22650,7 @@
     </row>
     <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B294" s="10">
         <v>41087</v>
@@ -22712,7 +22712,7 @@
     </row>
     <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B295" s="10">
         <v>41092</v>
@@ -22774,7 +22774,7 @@
     </row>
     <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B296" s="10">
         <v>41094</v>
@@ -22836,7 +22836,7 @@
     </row>
     <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B297" s="10">
         <v>41096</v>
@@ -22898,7 +22898,7 @@
     </row>
     <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B298" s="10">
         <v>41101</v>
@@ -22960,7 +22960,7 @@
     </row>
     <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B299" s="10">
         <v>41106</v>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B300" s="37">
         <v>34690</v>
@@ -23052,7 +23052,7 @@
     </row>
     <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B301" s="37">
         <v>34712</v>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B302" s="37">
         <v>34732</v>
@@ -23112,7 +23112,7 @@
     </row>
     <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B303" s="37">
         <v>34746</v>
@@ -23142,7 +23142,7 @@
     </row>
     <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B304" s="37">
         <v>34760</v>
@@ -23172,7 +23172,7 @@
     </row>
     <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B305" s="37">
         <v>34774</v>
@@ -23202,7 +23202,7 @@
     </row>
     <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B306" s="37">
         <v>34788</v>
@@ -23232,7 +23232,7 @@
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B307" s="37">
         <v>34802</v>
@@ -23262,7 +23262,7 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B308" s="37">
         <v>34830</v>
@@ -23292,7 +23292,7 @@
     </row>
     <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B309" s="37">
         <v>34848</v>
@@ -23322,7 +23322,7 @@
     </row>
     <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B310" s="37">
         <v>34876</v>
@@ -23352,7 +23352,7 @@
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B311" s="37">
         <v>34905</v>
@@ -23382,7 +23382,7 @@
     </row>
     <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B312" s="37">
         <v>34941</v>
@@ -23412,7 +23412,7 @@
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B313" s="37">
         <v>34969</v>
@@ -23442,7 +23442,7 @@
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B314" s="37">
         <v>35004</v>
@@ -23472,7 +23472,7 @@
     </row>
     <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B315" s="37">
         <v>35033</v>
@@ -23502,7 +23502,7 @@
     </row>
     <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B316" s="37">
         <v>35074</v>
@@ -23532,7 +23532,7 @@
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B317" s="37">
         <v>35104</v>
@@ -23562,7 +23562,7 @@
     </row>
     <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B318" s="37">
         <v>35131</v>
@@ -23592,7 +23592,7 @@
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B319" s="37">
         <v>35153</v>
@@ -23622,7 +23622,7 @@
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B320" s="37">
         <v>35200</v>
@@ -23652,7 +23652,7 @@
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B321" s="37">
         <v>35224</v>
@@ -23682,7 +23682,7 @@
     </row>
     <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B322" s="37">
         <v>35257</v>
@@ -23712,7 +23712,7 @@
     </row>
     <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B323" s="37">
         <v>35298</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B324" s="37">
         <v>35328</v>
@@ -23772,7 +23772,7 @@
     </row>
     <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B325" s="37">
         <v>35362</v>
@@ -23802,7 +23802,7 @@
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B326" s="37">
         <v>35404</v>
@@ -23832,7 +23832,7 @@
     </row>
     <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B327" s="37">
         <v>35443</v>
@@ -23862,7 +23862,7 @@
     </row>
     <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B328" s="37">
         <v>35467</v>
@@ -23892,7 +23892,7 @@
     </row>
     <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B329" s="37">
         <v>35482</v>
@@ -23922,7 +23922,7 @@
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B330" s="37">
         <v>35503</v>
@@ -23952,7 +23952,7 @@
     </row>
     <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B331" s="37">
         <v>35542</v>
@@ -23982,7 +23982,7 @@
     </row>
     <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B332" s="37">
         <v>35579</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B333" s="37">
         <v>35605</v>
@@ -24042,7 +24042,7 @@
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B334" s="37">
         <v>35634</v>
@@ -24072,7 +24072,7 @@
     </row>
     <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B335" s="37">
         <v>35669</v>
@@ -24102,7 +24102,7 @@
     </row>
     <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B336" s="37">
         <v>35702</v>
@@ -24132,7 +24132,7 @@
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B337" s="37">
         <v>35726</v>
@@ -24162,7 +24162,7 @@
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B338" s="37">
         <v>35768</v>
@@ -24192,7 +24192,7 @@
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B339" s="37">
         <v>35786</v>
@@ -24222,7 +24222,7 @@
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B340" s="37">
         <v>35815</v>
@@ -24252,7 +24252,7 @@
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B341" s="37">
         <v>35850</v>
@@ -24282,7 +24282,7 @@
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B342" s="37">
         <v>35879</v>
@@ -24312,7 +24312,7 @@
     </row>
     <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B343" s="37">
         <v>35913</v>
@@ -24342,7 +24342,7 @@
     </row>
     <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B344" s="37">
         <v>35940</v>
@@ -24372,7 +24372,7 @@
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B345" s="37">
         <v>35956</v>
@@ -24402,7 +24402,7 @@
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B346" s="37">
         <v>35979</v>
@@ -24432,7 +24432,7 @@
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B347" s="37">
         <v>36007</v>
@@ -24462,7 +24462,7 @@
     </row>
     <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B348" s="37">
         <v>36039</v>
@@ -24492,7 +24492,7 @@
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B349" s="37">
         <v>36061</v>
@@ -24522,7 +24522,7 @@
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B350" s="37">
         <v>36089</v>
@@ -24552,7 +24552,7 @@
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B351" s="37">
         <v>36137</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B352" s="37">
         <v>36151</v>
@@ -24612,7 +24612,7 @@
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B353" s="37">
         <v>36185</v>
@@ -24642,7 +24642,7 @@
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B354" s="37">
         <v>36216</v>
@@ -24672,7 +24672,7 @@
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B355" s="37">
         <v>36237</v>
@@ -24702,7 +24702,7 @@
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B356" s="37">
         <v>36273</v>
@@ -24732,7 +24732,7 @@
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B357" s="37">
         <v>36305</v>
@@ -24762,7 +24762,7 @@
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B358" s="37">
         <v>36341</v>
@@ -24792,7 +24792,7 @@
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B359" s="37">
         <v>36369</v>
@@ -24822,7 +24822,7 @@
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B360" s="37">
         <v>36398</v>
@@ -24852,7 +24852,7 @@
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B361" s="37">
         <v>36405</v>
@@ -24882,7 +24882,7 @@
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B362" s="37">
         <v>36426</v>
@@ -24912,7 +24912,7 @@
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B363" s="37">
         <v>36454</v>
@@ -24942,7 +24942,7 @@
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B364" s="37">
         <v>36482</v>
@@ -24972,7 +24972,7 @@
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B365" s="37">
         <v>36507</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B366" s="37">
         <v>36545</v>
@@ -25032,7 +25032,7 @@
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B367" s="38">
         <v>30105</v>
@@ -25053,7 +25053,7 @@
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B368" s="39">
         <v>30153</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B369" s="39">
         <v>30210</v>
@@ -25095,7 +25095,7 @@
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B370" s="39">
         <v>30229</v>
@@ -25106,7 +25106,7 @@
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B371" s="39">
         <v>30258</v>
@@ -25127,7 +25127,7 @@
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B372" s="39">
         <v>30280</v>
@@ -25148,7 +25148,7 @@
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B373" s="39">
         <v>30298</v>
@@ -25169,7 +25169,7 @@
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B374" s="39">
         <v>30323</v>
@@ -25190,7 +25190,7 @@
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B375" s="39">
         <v>30343</v>
@@ -25211,7 +25211,7 @@
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B376" s="39">
         <v>30364</v>
@@ -25232,7 +25232,7 @@
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B377" s="39">
         <v>30382</v>
@@ -25253,7 +25253,7 @@
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B378" s="39">
         <v>30405</v>
@@ -25274,7 +25274,7 @@
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B379" s="39">
         <v>30477</v>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B380" s="39">
         <v>30511</v>
@@ -25316,7 +25316,7 @@
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B381" s="39">
         <v>30560</v>
@@ -25337,7 +25337,7 @@
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B382" s="39">
         <v>30594</v>
@@ -25358,7 +25358,7 @@
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B383" s="39">
         <v>30630</v>
@@ -25379,7 +25379,7 @@
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B384" s="39">
         <v>30679</v>
@@ -25400,7 +25400,7 @@
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B385" s="39">
         <v>30722</v>
@@ -25421,7 +25421,7 @@
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B386" s="39">
         <v>30746</v>
@@ -25442,7 +25442,7 @@
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B387" s="40">
         <v>30770</v>
@@ -25463,7 +25463,7 @@
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B388" s="38">
         <v>30105</v>
@@ -25484,7 +25484,7 @@
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B389" s="39">
         <v>30153</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B390" s="39">
         <v>30210</v>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B391" s="39">
         <v>30229</v>
@@ -25547,7 +25547,7 @@
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B392" s="39">
         <v>30258</v>
@@ -25568,7 +25568,7 @@
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B393" s="39">
         <v>30280</v>
@@ -25589,7 +25589,7 @@
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B394" s="39">
         <v>30298</v>
@@ -25610,7 +25610,7 @@
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B395" s="39">
         <v>30323</v>
@@ -25631,7 +25631,7 @@
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B396" s="39">
         <v>30343</v>
@@ -25652,7 +25652,7 @@
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B397" s="39">
         <v>30364</v>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B398" s="39">
         <v>30382</v>
@@ -25694,7 +25694,7 @@
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B399" s="39">
         <v>30405</v>
@@ -25715,7 +25715,7 @@
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B400" s="39">
         <v>30477</v>
@@ -25736,7 +25736,7 @@
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B401" s="39">
         <v>30511</v>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B402" s="39">
         <v>30560</v>
@@ -25778,7 +25778,7 @@
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B403" s="39">
         <v>30594</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B404" s="39">
         <v>30630</v>
@@ -25820,7 +25820,7 @@
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B405" s="39">
         <v>30679</v>
@@ -25841,7 +25841,7 @@
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B406" s="39">
         <v>30722</v>
@@ -25862,7 +25862,7 @@
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B407" s="39">
         <v>30746</v>
@@ -25883,7 +25883,7 @@
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B408" s="40">
         <v>30770</v>

--- a/Prototypes/TropicalPasture/Observed.xlsx
+++ b/Prototypes/TropicalPasture/Observed.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
-    <sheet name="ObservedSoilWater" sheetId="2" r:id="rId2"/>
+    <sheet name="Lansdown" sheetId="3" r:id="rId2"/>
+    <sheet name="ObservedSoilWater" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="55">
   <si>
     <t>SimulationName</t>
   </si>
@@ -205,16 +206,32 @@
   <si>
     <t>TropicalPasture.Root.LengthDensity(8)</t>
   </si>
+  <si>
+    <t>Lansdown</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>CumBiomass</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -270,12 +287,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -372,7 +395,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,6 +461,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,12 +746,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="528" topLeftCell="A65"/>
-      <selection sqref="A1:S1"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="528" topLeftCell="A97" activePane="bottomLeft"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4421,6 +4447,336 @@
         <v>816.90446117708314</v>
       </c>
     </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="37">
+        <v>23406.861783035809</v>
+      </c>
+      <c r="F115">
+        <v>242.05322247204501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="37">
+        <v>23433.405302630188</v>
+      </c>
+      <c r="F116">
+        <v>404.01809292429391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="37">
+        <v>23463.046424421675</v>
+      </c>
+      <c r="F117">
+        <v>103.97961339389406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="37">
+        <v>23490.90899968311</v>
+      </c>
+      <c r="F118">
+        <v>247.47996800917497</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="37">
+        <v>23520.083500580964</v>
+      </c>
+      <c r="F119">
+        <v>67.463670796291922</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" s="37">
+        <v>23547.427960283087</v>
+      </c>
+      <c r="F120">
+        <v>41.399447705570083</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="37">
+        <v>23700.508450406676</v>
+      </c>
+      <c r="F121">
+        <v>578.57935082768699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" s="37">
+        <v>23726.941058413435</v>
+      </c>
+      <c r="F122">
+        <v>38.802079403641983</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="37">
+        <v>23756.225678673287</v>
+      </c>
+      <c r="F123">
+        <v>430.07099850608097</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" s="37">
+        <v>23784.116774057253</v>
+      </c>
+      <c r="F124">
+        <v>341.39265720020012</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125" s="37">
+        <v>23814.203126650471</v>
+      </c>
+      <c r="F125">
+        <v>70.061039098219908</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" s="37">
+        <v>23841.14434350903</v>
+      </c>
+      <c r="F126">
+        <v>213.57836997691993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" s="37">
+        <v>24117.871289743318</v>
+      </c>
+      <c r="F127">
+        <v>273.35745220238698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" s="37">
+        <v>24145.229217281081</v>
+      </c>
+      <c r="F128">
+        <v>85.747106490214037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" s="37">
+        <v>24174.491655223406</v>
+      </c>
+      <c r="F129">
+        <v>357.02779580195897</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="37">
+        <v>24201.388507446922</v>
+      </c>
+      <c r="F130">
+        <v>67.491964568651042</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="37">
+        <v>24231.908207457484</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="37">
+        <v>24258.328932079858</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="37">
+        <v>24447.452413647407</v>
+      </c>
+      <c r="F133">
+        <v>101.20116494892</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="37">
+        <v>24475.696841660505</v>
+      </c>
+      <c r="F134">
+        <v>4.8665288445580046</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="37">
+        <v>24503.520597866271</v>
+      </c>
+      <c r="F135">
+        <v>119.654363276947</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" s="37">
+        <v>24530.52915390303</v>
+      </c>
+      <c r="F136">
+        <v>435.31666390016403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="37">
+        <v>24561.586775113552</v>
+      </c>
+      <c r="F137">
+        <v>268.30984321477695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="37">
+        <v>24798.795236083235</v>
+      </c>
+      <c r="F138">
+        <v>22.923614359654898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="37">
+        <v>24827.573624168162</v>
+      </c>
+      <c r="F139">
+        <v>263.12076536540513</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="37">
+        <v>24854.99017640224</v>
+      </c>
+      <c r="F140">
+        <v>278.78985649398601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="37">
+        <v>24882.375831836907</v>
+      </c>
+      <c r="F141">
+        <v>177.05110987037699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" s="37">
+        <v>24912.477236717015</v>
+      </c>
+      <c r="F142">
+        <v>119.62606950459497</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" s="37">
+        <v>24939.378842294285</v>
+      </c>
+      <c r="F143">
+        <v>83.144079433822981</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" s="37">
+        <v>24968.541459807751</v>
+      </c>
+      <c r="F144">
+        <v>28.333383633373046</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4431,6 +4787,607 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B3" s="52">
+        <f>A3+C3*7</f>
+        <v>23406.861783035809</v>
+      </c>
+      <c r="C3" s="51">
+        <v>3.9802547194012199</v>
+      </c>
+      <c r="D3" s="51">
+        <v>242.05322247204501</v>
+      </c>
+      <c r="E3" s="51">
+        <f>D3</f>
+        <v>242.05322247204501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B4" s="52">
+        <f t="shared" ref="B4:B32" si="0">A4+C4*7</f>
+        <v>23433.405302630188</v>
+      </c>
+      <c r="C4" s="51">
+        <v>7.7721860900270103</v>
+      </c>
+      <c r="D4" s="51">
+        <v>646.07131539633895</v>
+      </c>
+      <c r="E4" s="51">
+        <f>D4-D3</f>
+        <v>404.01809292429391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B5" s="52">
+        <f t="shared" si="0"/>
+        <v>23463.046424421675</v>
+      </c>
+      <c r="C5" s="51">
+        <v>12.0066320602393</v>
+      </c>
+      <c r="D5" s="51">
+        <v>750.050928790233</v>
+      </c>
+      <c r="E5" s="51">
+        <f t="shared" ref="E5:E32" si="1">D5-D4</f>
+        <v>103.97961339389406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B6" s="52">
+        <f t="shared" si="0"/>
+        <v>23490.90899968311</v>
+      </c>
+      <c r="C6" s="51">
+        <v>15.9869999547299</v>
+      </c>
+      <c r="D6" s="51">
+        <v>997.53089679940797</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" si="1"/>
+        <v>247.47996800917497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B7" s="52">
+        <f t="shared" si="0"/>
+        <v>23520.083500580964</v>
+      </c>
+      <c r="C7" s="51">
+        <v>20.154785797280699</v>
+      </c>
+      <c r="D7" s="51">
+        <v>1064.9945675956999</v>
+      </c>
+      <c r="E7" s="51">
+        <f t="shared" si="1"/>
+        <v>67.463670796291922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
+        <v>23379</v>
+      </c>
+      <c r="B8" s="52">
+        <f t="shared" si="0"/>
+        <v>23547.427960283087</v>
+      </c>
+      <c r="C8" s="51">
+        <v>24.0611371832983</v>
+      </c>
+      <c r="D8" s="51">
+        <v>1106.39401530127</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="1"/>
+        <v>41.399447705570083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B9" s="53">
+        <f t="shared" si="0"/>
+        <v>23700.508450406676</v>
+      </c>
+      <c r="C9">
+        <v>3.92977862952511</v>
+      </c>
+      <c r="D9">
+        <v>578.57935082768699</v>
+      </c>
+      <c r="E9">
+        <f>D9</f>
+        <v>578.57935082768699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B10" s="53">
+        <f t="shared" si="0"/>
+        <v>23726.941058413435</v>
+      </c>
+      <c r="C10">
+        <v>7.70586548763373</v>
+      </c>
+      <c r="D10">
+        <v>617.38143023132898</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>38.802079403641983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B11" s="53">
+        <f t="shared" si="0"/>
+        <v>23756.225678673287</v>
+      </c>
+      <c r="C11">
+        <v>11.889382667612299</v>
+      </c>
+      <c r="D11">
+        <v>1047.4524287374099</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>430.07099850608097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B12" s="53">
+        <f t="shared" si="0"/>
+        <v>23784.116774057253</v>
+      </c>
+      <c r="C12">
+        <v>15.8738248653216</v>
+      </c>
+      <c r="D12">
+        <v>1388.8450859376101</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>341.39265720020012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B13" s="53">
+        <f t="shared" si="0"/>
+        <v>23814.203126650471</v>
+      </c>
+      <c r="C13">
+        <v>20.1718752357814</v>
+      </c>
+      <c r="D13">
+        <v>1458.90612503583</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>70.061039098219908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>23673</v>
+      </c>
+      <c r="B14" s="53">
+        <f t="shared" si="0"/>
+        <v>23841.14434350903</v>
+      </c>
+      <c r="C14">
+        <v>24.0206205012901</v>
+      </c>
+      <c r="D14">
+        <v>1672.4844950127499</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>213.57836997691993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B15" s="52">
+        <f t="shared" si="0"/>
+        <v>24117.871289743318</v>
+      </c>
+      <c r="C15" s="51">
+        <v>3.9816128204741199</v>
+      </c>
+      <c r="D15" s="51">
+        <v>273.35745220238698</v>
+      </c>
+      <c r="E15" s="51">
+        <f>D15</f>
+        <v>273.35745220238698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B16" s="52">
+        <f t="shared" si="0"/>
+        <v>24145.229217281081</v>
+      </c>
+      <c r="C16" s="51">
+        <v>7.8898881830116601</v>
+      </c>
+      <c r="D16" s="51">
+        <v>359.10455869260102</v>
+      </c>
+      <c r="E16" s="51">
+        <f t="shared" si="1"/>
+        <v>85.747106490214037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B17" s="52">
+        <f t="shared" si="0"/>
+        <v>24174.491655223406</v>
+      </c>
+      <c r="C17" s="51">
+        <v>12.0702364604868</v>
+      </c>
+      <c r="D17" s="51">
+        <v>716.13235449455999</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="1"/>
+        <v>357.02779580195897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B18" s="52">
+        <f t="shared" si="0"/>
+        <v>24201.388507446922</v>
+      </c>
+      <c r="C18" s="51">
+        <v>15.9126439209886</v>
+      </c>
+      <c r="D18" s="51">
+        <v>783.62431906321103</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>67.491964568651042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B19" s="52">
+        <f t="shared" si="0"/>
+        <v>24231.908207457484</v>
+      </c>
+      <c r="C19" s="51">
+        <v>20.272601065354799</v>
+      </c>
+      <c r="D19" s="51">
+        <v>780.63649670283201</v>
+      </c>
+      <c r="E19" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>24090</v>
+      </c>
+      <c r="B20" s="52">
+        <f t="shared" si="0"/>
+        <v>24258.328932079858</v>
+      </c>
+      <c r="C20" s="51">
+        <v>24.046990297122299</v>
+      </c>
+      <c r="D20" s="51">
+        <v>780.30828894354795</v>
+      </c>
+      <c r="E20" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>24421</v>
+      </c>
+      <c r="B21" s="53">
+        <f t="shared" si="0"/>
+        <v>24447.452413647407</v>
+      </c>
+      <c r="C21">
+        <v>3.7789162353438299</v>
+      </c>
+      <c r="D21">
+        <v>101.20116494892</v>
+      </c>
+      <c r="E21">
+        <f>D21</f>
+        <v>101.20116494892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>24421</v>
+      </c>
+      <c r="B22" s="53">
+        <f t="shared" si="0"/>
+        <v>24475.696841660505</v>
+      </c>
+      <c r="C22">
+        <v>7.8138345229292696</v>
+      </c>
+      <c r="D22">
+        <v>106.067693793478</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4.8665288445580046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>24421</v>
+      </c>
+      <c r="B23" s="53">
+        <f t="shared" si="0"/>
+        <v>24503.520597866271</v>
+      </c>
+      <c r="C23">
+        <v>11.7886568380389</v>
+      </c>
+      <c r="D23">
+        <v>225.722057070425</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>119.654363276947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>24421</v>
+      </c>
+      <c r="B24" s="53">
+        <f t="shared" si="0"/>
+        <v>24530.52915390303</v>
+      </c>
+      <c r="C24">
+        <v>15.647021986147299</v>
+      </c>
+      <c r="D24">
+        <v>661.038720970589</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>435.31666390016403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>24421</v>
+      </c>
+      <c r="B25" s="53">
+        <f t="shared" si="0"/>
+        <v>24561.586775113552</v>
+      </c>
+      <c r="C25">
+        <v>20.083825016221699</v>
+      </c>
+      <c r="D25">
+        <v>929.34856418536594</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>268.30984321477695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B26" s="52">
+        <f t="shared" si="0"/>
+        <v>24798.795236083235</v>
+      </c>
+      <c r="C26" s="51">
+        <v>3.97074801189093</v>
+      </c>
+      <c r="D26" s="51">
+        <v>22.923614359654898</v>
+      </c>
+      <c r="E26" s="51">
+        <f>D26</f>
+        <v>22.923614359654898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B27" s="52">
+        <f t="shared" si="0"/>
+        <v>24827.573624168162</v>
+      </c>
+      <c r="C27" s="51">
+        <v>8.0819463097375799</v>
+      </c>
+      <c r="D27" s="51">
+        <v>286.04437972506003</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>263.12076536540513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B28" s="52">
+        <f t="shared" si="0"/>
+        <v>24854.99017640224</v>
+      </c>
+      <c r="C28" s="51">
+        <v>11.998596628891301</v>
+      </c>
+      <c r="D28" s="51">
+        <v>564.83423621904603</v>
+      </c>
+      <c r="E28" s="51">
+        <f t="shared" si="1"/>
+        <v>278.78985649398601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B29" s="52">
+        <f t="shared" si="0"/>
+        <v>24882.375831836907</v>
+      </c>
+      <c r="C29" s="51">
+        <v>15.910833119558101</v>
+      </c>
+      <c r="D29" s="51">
+        <v>741.88534608942302</v>
+      </c>
+      <c r="E29" s="51">
+        <f t="shared" si="1"/>
+        <v>177.05110987037699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B30" s="52">
+        <f t="shared" si="0"/>
+        <v>24912.477236717015</v>
+      </c>
+      <c r="C30" s="51">
+        <v>20.2110338167167</v>
+      </c>
+      <c r="D30" s="51">
+        <v>861.51141559401799</v>
+      </c>
+      <c r="E30" s="51">
+        <f t="shared" si="1"/>
+        <v>119.62606950459497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B31" s="52">
+        <f t="shared" si="0"/>
+        <v>24939.378842294285</v>
+      </c>
+      <c r="C31" s="51">
+        <v>24.054120327755001</v>
+      </c>
+      <c r="D31" s="51">
+        <v>944.65549502784097</v>
+      </c>
+      <c r="E31" s="51">
+        <f t="shared" si="1"/>
+        <v>83.144079433822981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="52">
+        <v>24771</v>
+      </c>
+      <c r="B32" s="52">
+        <f t="shared" si="0"/>
+        <v>24968.541459807751</v>
+      </c>
+      <c r="C32" s="51">
+        <v>28.220208543964699</v>
+      </c>
+      <c r="D32" s="51">
+        <v>972.98887866121402</v>
+      </c>
+      <c r="E32" s="51">
+        <f t="shared" si="1"/>
+        <v>28.333383633373046</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF408"/>
   <sheetViews>

--- a/Prototypes/TropicalPasture/Observed.xlsx
+++ b/Prototypes/TropicalPasture/Observed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="62">
   <si>
     <t>SimulationName</t>
   </si>
@@ -221,6 +221,27 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>ToowoombaN0</t>
+  </si>
+  <si>
+    <t>AnnualProduction</t>
+  </si>
+  <si>
+    <t>ToowoombaN50</t>
+  </si>
+  <si>
+    <t>ToowoombaN100</t>
+  </si>
+  <si>
+    <t>ToowoombaN200</t>
+  </si>
+  <si>
+    <t>ToowoombaN400</t>
+  </si>
+  <si>
+    <t>ForageRemoval</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +252,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -395,7 +416,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,8 +483,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,29 +771,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="528" topLeftCell="A97" activePane="bottomLeft"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115:B144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="528" topLeftCell="A125" activePane="bottomLeft"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,4005 +801,4747 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>40680</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
         <v>1.1627452700682317</v>
       </c>
-      <c r="D2" s="17">
-        <f>G2+H2+I2</f>
+      <c r="F2" s="17">
+        <f>I2+J2+K2</f>
         <v>115.59568987995223</v>
       </c>
-      <c r="E2" s="19">
+      <c r="G2" s="19">
         <v>16.541713240407468</v>
       </c>
-      <c r="F2" s="7">
-        <f>E2+G2+H2+I2</f>
+      <c r="H2" s="7">
+        <f>G2+I2+J2+K2</f>
         <v>132.13740312035969</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>22.658315540738414</v>
       </c>
-      <c r="H2" s="8">
+      <c r="J2" s="8">
         <v>70.792532233950652</v>
       </c>
-      <c r="I2" s="8">
+      <c r="K2" s="8">
         <v>22.144842105263159</v>
       </c>
-      <c r="J2" s="18">
+      <c r="L2" s="18">
         <v>1.6424688217475614E-2</v>
       </c>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>40687</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
         <v>1.5364602997788863</v>
       </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D66" si="0">G3+H3+I3</f>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F66" si="0">I3+J3+K3</f>
         <v>141.14109560586013</v>
       </c>
-      <c r="E3" s="17">
+      <c r="G3" s="17">
         <v>19.358541010033999</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F66" si="1">E3+G3+H3+I3</f>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H66" si="1">G3+I3+J3+K3</f>
         <v>160.49963661589413</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>26.570985664399711</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="8">
         <v>90.910320467776216</v>
       </c>
-      <c r="I3" s="8">
+      <c r="K3" s="8">
         <v>23.659789473684214</v>
       </c>
-      <c r="J3" s="18">
+      <c r="L3" s="18">
         <v>1.690083471131856E-2</v>
       </c>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>40701</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
         <v>2.9722509834421227</v>
       </c>
-      <c r="D4" s="17">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>218.54215217478955</v>
       </c>
-      <c r="E4" s="17">
+      <c r="G4" s="17">
         <v>23.433844920761867</v>
       </c>
-      <c r="F4" s="7">
+      <c r="H4" s="7">
         <f t="shared" si="1"/>
         <v>241.97599709555141</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>29.886670020468614</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="8">
         <v>161.96579794379463</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="8">
         <v>26.68968421052632</v>
       </c>
-      <c r="J4" s="18">
+      <c r="L4" s="18">
         <v>1.8351102647446303E-2</v>
       </c>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>40715</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
         <v>4.1953809744252428</v>
       </c>
-      <c r="D5" s="17">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>294.50629113571944</v>
       </c>
-      <c r="E5" s="17">
+      <c r="G5" s="17">
         <v>31.700529983099194</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>326.20682111881865</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="8">
         <v>38.687406414014518</v>
       </c>
-      <c r="H5" s="8">
+      <c r="J5" s="8">
         <v>226.09930577433653</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>29.719578947368426</v>
       </c>
-      <c r="J5" s="18">
+      <c r="L5" s="18">
         <v>1.8555479239783852E-2</v>
       </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>40737</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6">
         <v>2.2713681238171484</v>
       </c>
-      <c r="D6" s="17">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>190.33130731241826</v>
       </c>
-      <c r="E6" s="17">
+      <c r="G6" s="17">
         <v>41.042890250573009</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>231.37419756299127</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>33.617531445506323</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="8">
         <v>123.49811961691194</v>
       </c>
-      <c r="I6" s="8">
+      <c r="K6" s="8">
         <v>33.215656250000002</v>
       </c>
-      <c r="J6" s="18">
+      <c r="L6" s="18">
         <v>1.8391924758554015E-2</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>40744</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
         <v>2.3136982508515511</v>
       </c>
-      <c r="D7" s="17">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>226.17487314460681</v>
       </c>
-      <c r="E7" s="17">
+      <c r="G7" s="17">
         <v>44.249108766495375</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>270.42398191110215</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <v>35.318900426856914</v>
       </c>
-      <c r="H7" s="8">
+      <c r="J7" s="8">
         <v>156.56207271774988</v>
       </c>
-      <c r="I7" s="8">
+      <c r="K7" s="8">
         <v>34.293900000000001</v>
       </c>
-      <c r="J7" s="18">
+      <c r="L7" s="18">
         <v>1.4778152912057356E-2</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>40757</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>3.7657057193080954</v>
       </c>
-      <c r="D8" s="17">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>299.77086112026819</v>
       </c>
-      <c r="E8" s="17">
+      <c r="G8" s="17">
         <v>50.814559150480022</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>350.58542027074822</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <v>52.566966375035875</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="8">
         <v>210.92740686257926</v>
       </c>
-      <c r="I8" s="8">
+      <c r="K8" s="8">
         <v>36.276487882653058</v>
       </c>
-      <c r="J8" s="18">
+      <c r="L8" s="18">
         <v>1.7853088772676565E-2</v>
       </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>40771</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>4.0107868022480995</v>
       </c>
-      <c r="D9" s="17">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>384.38116636198583</v>
       </c>
-      <c r="E9" s="20">
+      <c r="G9" s="20">
         <v>60.643617767807669</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>445.02478412979349</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>62.690593702757795</v>
       </c>
-      <c r="H9" s="8">
+      <c r="J9" s="8">
         <v>283.30787049086069</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="8">
         <v>38.382702168367352</v>
       </c>
-      <c r="J9" s="18">
+      <c r="L9" s="18">
         <v>1.4156990398109975E-2</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5">
         <v>40785</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
         <v>1.7153619250894492</v>
       </c>
-      <c r="D10" s="17">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>218.60929467419101</v>
       </c>
-      <c r="E10" s="21">
+      <c r="G10" s="21">
         <v>72.072382975997556</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>290.68167765018859</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <v>58.292408385428757</v>
       </c>
-      <c r="H10" s="8">
+      <c r="J10" s="8">
         <v>119.01265319823156</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="8">
         <v>41.304233090530701</v>
       </c>
-      <c r="J10" s="18">
+      <c r="L10" s="18">
         <v>1.441327353850589E-2</v>
       </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>40799</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
         <v>2.3756037035194133</v>
       </c>
-      <c r="D11" s="17">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>261.93328194753809</v>
       </c>
-      <c r="E11" s="21">
+      <c r="G11" s="21">
         <v>74.366725669914146</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>336.3000076174522</v>
       </c>
-      <c r="G11" s="8">
+      <c r="I11" s="8">
         <v>56.592957718965579</v>
       </c>
-      <c r="H11" s="8">
+      <c r="J11" s="8">
         <v>161.01992880713649</v>
       </c>
-      <c r="I11" s="8">
+      <c r="K11" s="8">
         <v>44.320395421436004</v>
       </c>
-      <c r="J11" s="18">
+      <c r="L11" s="18">
         <v>1.4753476300221325E-2</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>40813</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
         <v>2.9422360931405427</v>
       </c>
-      <c r="D12" s="17">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>334.92139987761828</v>
       </c>
-      <c r="E12" s="21">
+      <c r="G12" s="21">
         <v>81.499315413244076</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>416.4207152908624</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>71.632508805523315</v>
       </c>
-      <c r="H12" s="8">
+      <c r="J12" s="8">
         <v>215.92051646231351</v>
       </c>
-      <c r="I12" s="8">
+      <c r="K12" s="8">
         <v>47.368374609781483</v>
       </c>
-      <c r="J12" s="18">
+      <c r="L12" s="18">
         <v>1.3626477656439272E-2</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5">
         <v>40827</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
         <v>4.1741277432368804</v>
       </c>
-      <c r="D13" s="17">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>490.11068810823514</v>
       </c>
-      <c r="E13" s="21">
+      <c r="G13" s="21">
         <v>89.095560550244926</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>579.20624865848004</v>
       </c>
-      <c r="G13" s="8">
+      <c r="I13" s="8">
         <v>120.82791879477227</v>
       </c>
-      <c r="H13" s="8">
+      <c r="J13" s="8">
         <v>318.8345986578957</v>
       </c>
-      <c r="I13" s="8">
+      <c r="K13" s="8">
         <v>50.448170655567125</v>
       </c>
-      <c r="J13" s="18">
+      <c r="L13" s="18">
         <v>1.3091828053816866E-2</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>40841</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
         <v>1.0158140665615429</v>
       </c>
-      <c r="D14" s="17">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>207.0263219734334</v>
       </c>
-      <c r="E14" s="21">
+      <c r="G14" s="21">
         <v>108.76123133208191</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>315.78755330551525</v>
       </c>
-      <c r="G14" s="8">
+      <c r="I14" s="8">
         <v>64.127868024728031</v>
       </c>
-      <c r="H14" s="8">
+      <c r="J14" s="8">
         <v>82.222768180844596</v>
       </c>
-      <c r="I14" s="8">
+      <c r="K14" s="8">
         <v>60.675685767860749</v>
       </c>
-      <c r="J14" s="18">
+      <c r="L14" s="18">
         <v>1.2354413370361278E-2</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N14" s="8"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>40848</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
         <v>1.9294352215430886</v>
       </c>
-      <c r="D15" s="17">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>268.44045919348298</v>
       </c>
-      <c r="E15" s="21">
+      <c r="G15" s="21">
         <v>131.02690175991313</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>399.46736095339611</v>
       </c>
-      <c r="G15" s="8">
+      <c r="I15" s="8">
         <v>78.137341365200129</v>
       </c>
-      <c r="H15" s="8">
+      <c r="J15" s="8">
         <v>120.6</v>
       </c>
-      <c r="I15" s="8">
+      <c r="K15" s="8">
         <v>69.703117828282871</v>
       </c>
-      <c r="J15" s="18">
+      <c r="L15" s="18">
         <v>1.5994258510749513E-2</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N15" s="8"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>40855</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6">
         <v>2.5781379249700831</v>
       </c>
-      <c r="D16" s="17">
+      <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>322.90822127042827</v>
       </c>
-      <c r="E16" s="21">
+      <c r="G16" s="21">
         <v>146.62131215407294</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>469.52953342450121</v>
       </c>
-      <c r="G16" s="8">
+      <c r="I16" s="8">
         <v>99.625925089161896</v>
       </c>
-      <c r="H16" s="8">
+      <c r="J16" s="8">
         <v>144.19999999999999</v>
       </c>
-      <c r="I16" s="8">
+      <c r="K16" s="8">
         <v>79.082296181266344</v>
       </c>
-      <c r="J16" s="18">
+      <c r="L16" s="18">
         <v>1.7875208766302744E-2</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N16" s="8"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>40869</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
         <v>4.9685559487575954</v>
       </c>
-      <c r="D17" s="17">
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>489.21057834538328</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="21">
         <v>178.16499787384464</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>667.37557621922792</v>
       </c>
-      <c r="G17" s="8">
+      <c r="I17" s="8">
         <v>136.71468658046578</v>
       </c>
-      <c r="H17" s="8">
+      <c r="J17" s="8">
         <v>253.6</v>
       </c>
-      <c r="I17" s="8">
+      <c r="K17" s="8">
         <v>98.895891764917479</v>
       </c>
-      <c r="J17" s="18">
+      <c r="L17" s="18">
         <v>1.9593940124732721E-2</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N17" s="8"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>40883</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
         <v>1.9688180266778259</v>
       </c>
-      <c r="D18" s="17">
+      <c r="F18" s="17">
         <f t="shared" si="0"/>
         <v>370.30061441220795</v>
       </c>
-      <c r="E18" s="21">
+      <c r="G18" s="21">
         <v>224.04245389884014</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>594.343068311048</v>
       </c>
-      <c r="G18" s="8">
+      <c r="I18" s="8">
         <v>124.46588531643863</v>
       </c>
-      <c r="H18" s="8">
+      <c r="J18" s="8">
         <v>124.05781505380665</v>
       </c>
-      <c r="I18" s="8">
+      <c r="K18" s="8">
         <v>121.77691404196267</v>
       </c>
-      <c r="J18" s="18">
+      <c r="L18" s="18">
         <v>1.5870165259833938E-2</v>
       </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>40890</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6">
         <v>3.9775398514548348</v>
       </c>
-      <c r="D19" s="17">
+      <c r="F19" s="17">
         <f t="shared" si="0"/>
         <v>442.83304674573395</v>
       </c>
-      <c r="E19" s="21">
+      <c r="G19" s="21">
         <v>248.68497084518157</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>691.51801759091541</v>
       </c>
-      <c r="G19" s="8">
+      <c r="I19" s="8">
         <v>142.44403702579163</v>
       </c>
-      <c r="H19" s="8">
+      <c r="J19" s="8">
         <v>166.96533154176905</v>
       </c>
-      <c r="I19" s="8">
+      <c r="K19" s="8">
         <v>133.42367817817325</v>
       </c>
-      <c r="J19" s="18">
+      <c r="L19" s="18">
         <v>2.3822549356360186E-2</v>
       </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="5">
         <v>40897</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6">
         <v>3.8370021673895156</v>
       </c>
-      <c r="D20" s="17">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>513.81949582612629</v>
       </c>
-      <c r="E20" s="21">
+      <c r="G20" s="21">
         <v>274.85846441779802</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>788.67796024392442</v>
       </c>
-      <c r="G20" s="8">
+      <c r="I20" s="8">
         <v>154.93249581127822</v>
       </c>
-      <c r="H20" s="8">
+      <c r="J20" s="8">
         <v>213.73447211156471</v>
       </c>
-      <c r="I20" s="8">
+      <c r="K20" s="8">
         <v>145.15252790328344</v>
       </c>
-      <c r="J20" s="18">
+      <c r="L20" s="18">
         <v>1.7952191471419191E-2</v>
       </c>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>40911</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6">
         <v>6.3134857200135484</v>
       </c>
-      <c r="D21" s="17">
+      <c r="F21" s="17">
         <f t="shared" si="0"/>
         <v>854.18447363946154</v>
       </c>
-      <c r="E21" s="21">
+      <c r="G21" s="21">
         <v>329.66801923001685</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>1183.8524928694785</v>
       </c>
-      <c r="G21" s="8">
+      <c r="I21" s="8">
         <v>318.02851329297647</v>
       </c>
-      <c r="H21" s="8">
+      <c r="J21" s="8">
         <v>367.29947622628282</v>
       </c>
-      <c r="I21" s="8">
+      <c r="K21" s="8">
         <v>168.85648412020228</v>
       </c>
-      <c r="J21" s="18">
+      <c r="L21" s="18">
         <v>1.7188931998705026E-2</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>40918</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6">
         <v>1.6265667264279706</v>
       </c>
-      <c r="D22" s="17">
+      <c r="F22" s="17">
         <f t="shared" si="0"/>
         <v>440.55367038265581</v>
       </c>
-      <c r="E22" s="21">
+      <c r="G22" s="21">
         <v>333.24371521034976</v>
       </c>
-      <c r="F22" s="7">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>773.79738559300563</v>
       </c>
-      <c r="G22" s="8">
+      <c r="I22" s="8">
         <v>179.70081827899847</v>
       </c>
-      <c r="H22" s="8">
+      <c r="J22" s="8">
         <v>85.631339731183061</v>
       </c>
-      <c r="I22" s="8">
+      <c r="K22" s="8">
         <v>175.22151237247434</v>
       </c>
-      <c r="J22" s="18">
+      <c r="L22" s="18">
         <v>1.8994993322936981E-2</v>
       </c>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>40925</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6">
         <v>2.1841161131224629</v>
       </c>
-      <c r="D23" s="17">
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>477.7838468129836</v>
       </c>
-      <c r="E23" s="21">
+      <c r="G23" s="21">
         <v>328.75996665612973</v>
       </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>806.54381346911339</v>
       </c>
-      <c r="G23" s="8">
+      <c r="I23" s="8">
         <v>187.88576031491482</v>
       </c>
-      <c r="H23" s="8">
+      <c r="J23" s="8">
         <v>109.17220766109308</v>
       </c>
-      <c r="I23" s="8">
+      <c r="K23" s="8">
         <v>180.72587883697574</v>
       </c>
-      <c r="J23" s="18">
+      <c r="L23" s="18">
         <v>2.0006155045455224E-2</v>
       </c>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="5">
         <v>40939</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6">
         <v>3.3844655203474279</v>
       </c>
-      <c r="D24" s="17">
+      <c r="F24" s="17">
         <f t="shared" si="0"/>
         <v>629.93031116691168</v>
       </c>
-      <c r="E24" s="21">
+      <c r="G24" s="21">
         <v>321.75985729273208</v>
       </c>
-      <c r="F24" s="7">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>951.6901684596437</v>
       </c>
-      <c r="G24" s="8">
+      <c r="I24" s="8">
         <v>221.15182003450499</v>
       </c>
-      <c r="H24" s="8">
+      <c r="J24" s="8">
         <v>216.82261045691362</v>
       </c>
-      <c r="I24" s="8">
+      <c r="K24" s="8">
         <v>191.95588067549312</v>
       </c>
-      <c r="J24" s="18">
+      <c r="L24" s="18">
         <v>1.5609375393162605E-2</v>
       </c>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="5">
         <v>40953</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6">
         <v>4.6213064699052584</v>
       </c>
-      <c r="D25" s="17">
+      <c r="F25" s="17">
         <f t="shared" si="0"/>
         <v>752.63506132500879</v>
       </c>
-      <c r="E25" s="21">
+      <c r="G25" s="21">
         <v>314.84419606931488</v>
       </c>
-      <c r="F25" s="7">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>1067.4792573943237</v>
       </c>
-      <c r="G25" s="8">
+      <c r="I25" s="8">
         <v>266.46552628464951</v>
       </c>
-      <c r="H25" s="8">
+      <c r="J25" s="8">
         <v>282.68862731366266</v>
       </c>
-      <c r="I25" s="8">
+      <c r="K25" s="8">
         <v>203.48090772669667</v>
       </c>
-      <c r="J25" s="18">
+      <c r="L25" s="18">
         <v>1.6347691500081456E-2</v>
       </c>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="5">
         <v>40967</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6">
         <v>1.6164953874831245</v>
       </c>
-      <c r="D26" s="17">
+      <c r="F26" s="17">
         <f t="shared" si="0"/>
         <v>509.11691744938508</v>
       </c>
-      <c r="E26" s="21">
+      <c r="G26" s="21">
         <v>317.61049143401834</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>826.72740888340331</v>
       </c>
-      <c r="G26" s="8">
+      <c r="I26" s="8">
         <v>202.99622600821004</v>
       </c>
-      <c r="H26" s="8">
+      <c r="J26" s="8">
         <v>108.30083316214068</v>
       </c>
-      <c r="I26" s="8">
+      <c r="K26" s="8">
         <v>197.81985827903435</v>
       </c>
-      <c r="J26" s="18">
+      <c r="L26" s="18">
         <v>1.4925973700156277E-2</v>
       </c>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="5">
         <v>40981</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6">
         <v>4.6206402408410963</v>
       </c>
-      <c r="D27" s="17">
+      <c r="F27" s="17">
         <f t="shared" si="0"/>
         <v>694.94925051230859</v>
       </c>
-      <c r="E27" s="21">
+      <c r="G27" s="21">
         <v>315.64366754168566</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>1010.5929180539943</v>
       </c>
-      <c r="G27" s="8">
+      <c r="I27" s="8">
         <v>203.69035078173943</v>
       </c>
-      <c r="H27" s="8">
+      <c r="J27" s="8">
         <v>300.32475841616736</v>
       </c>
-      <c r="I27" s="8">
+      <c r="K27" s="8">
         <v>190.93414131440178</v>
       </c>
-      <c r="J27" s="18">
+      <c r="L27" s="18">
         <v>1.538547892357966E-2</v>
       </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="5">
         <v>40988</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6">
         <v>5.1736769186997265</v>
       </c>
-      <c r="D28" s="17">
+      <c r="F28" s="17">
         <f t="shared" si="0"/>
         <v>903.45008547654709</v>
       </c>
-      <c r="E28" s="21">
+      <c r="G28" s="21">
         <v>338.86266150138283</v>
       </c>
-      <c r="F28" s="7">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>1242.3127469779301</v>
       </c>
-      <c r="G28" s="8">
+      <c r="I28" s="8">
         <v>322.63178893799505</v>
       </c>
-      <c r="H28" s="8">
+      <c r="J28" s="8">
         <v>393.28443192870873</v>
       </c>
-      <c r="I28" s="8">
+      <c r="K28" s="8">
         <v>187.53386460984339</v>
       </c>
-      <c r="J28" s="18">
+      <c r="L28" s="18">
         <v>1.315505140472371E-2</v>
       </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="5">
         <v>40995</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6">
         <v>4.8660778494127257</v>
       </c>
-      <c r="D29" s="17">
+      <c r="F29" s="17">
         <f t="shared" si="0"/>
         <v>954.00712181951258</v>
       </c>
-      <c r="E29" s="21">
+      <c r="G29" s="21">
         <v>314.53638193855289</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>1268.5435037580655</v>
       </c>
-      <c r="G29" s="8">
+      <c r="I29" s="8">
         <v>341.96503554417831</v>
       </c>
-      <c r="H29" s="8">
+      <c r="J29" s="8">
         <v>427.88011051821076</v>
       </c>
-      <c r="I29" s="8">
+      <c r="K29" s="8">
         <v>184.16197575712354</v>
       </c>
-      <c r="J29" s="18">
+      <c r="L29" s="18">
         <v>1.1372526391842238E-2</v>
       </c>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="5">
         <v>41009</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6">
         <v>1.5269045829939558</v>
       </c>
-      <c r="D30" s="17">
+      <c r="F30" s="17">
         <f t="shared" si="0"/>
         <v>432.99552052935121</v>
       </c>
-      <c r="E30" s="21">
+      <c r="G30" s="21">
         <v>305.77046749911631</v>
       </c>
-      <c r="F30" s="7">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>738.76598802846752</v>
       </c>
-      <c r="G30" s="8">
+      <c r="I30" s="8">
         <v>176.35294711064623</v>
       </c>
-      <c r="H30" s="8">
+      <c r="J30" s="8">
         <v>83.672917754676547</v>
       </c>
-      <c r="I30" s="8">
+      <c r="K30" s="8">
         <v>172.96965566402847</v>
       </c>
-      <c r="J30" s="18">
+      <c r="L30" s="18">
         <v>1.8248492152152969E-2</v>
       </c>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="5">
         <v>41023</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6">
         <v>2.3541959632505227</v>
       </c>
-      <c r="D31" s="17">
+      <c r="F31" s="17">
         <f t="shared" si="0"/>
         <v>522.07147332135185</v>
       </c>
-      <c r="E31" s="21">
+      <c r="G31" s="21">
         <v>304.81182757100231</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>826.88330089235421</v>
       </c>
-      <c r="G31" s="8">
+      <c r="I31" s="8">
         <v>186.38726446003045</v>
       </c>
-      <c r="H31" s="8">
+      <c r="J31" s="8">
         <v>173.90876092256715</v>
       </c>
-      <c r="I31" s="8">
+      <c r="K31" s="8">
         <v>161.7754479387543</v>
       </c>
-      <c r="J31" s="18">
+      <c r="L31" s="18">
         <v>1.3536960132208222E-2</v>
       </c>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="5">
         <v>41037</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6">
         <v>3.2806938722467627</v>
       </c>
-      <c r="D32" s="17">
+      <c r="F32" s="17">
         <f t="shared" si="0"/>
         <v>574.66387638742617</v>
       </c>
-      <c r="E32" s="21">
+      <c r="G32" s="21">
         <v>287.91401312397937</v>
       </c>
-      <c r="F32" s="7">
+      <c r="H32" s="7">
         <f t="shared" si="1"/>
         <v>862.5778895114056</v>
       </c>
-      <c r="G32" s="8">
+      <c r="I32" s="8">
         <v>187.04453869966989</v>
       </c>
-      <c r="H32" s="8">
+      <c r="J32" s="8">
         <v>236.68259747427618</v>
       </c>
-      <c r="I32" s="8">
+      <c r="K32" s="8">
         <v>150.93674021348014</v>
       </c>
-      <c r="J32" s="18">
+      <c r="L32" s="18">
         <v>1.3861153744534701E-2</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="5">
         <v>41051</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6">
         <v>5.6753507578708451</v>
       </c>
-      <c r="D33" s="17">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>602.95650647257639</v>
       </c>
-      <c r="E33" s="21">
+      <c r="G33" s="21">
         <v>280.01706239430843</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <f t="shared" si="1"/>
         <v>882.97356886688476</v>
       </c>
-      <c r="G33" s="8">
+      <c r="I33" s="8">
         <v>190.28145342214151</v>
       </c>
-      <c r="H33" s="8">
+      <c r="J33" s="8">
         <v>272.22152056222887</v>
       </c>
-      <c r="I33" s="8">
+      <c r="K33" s="8">
         <v>140.45353248820595</v>
       </c>
-      <c r="J33" s="18">
+      <c r="L33" s="18">
         <v>2.084828101080818E-2</v>
       </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3">
         <v>41065</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6">
         <v>1.6221081161985409</v>
       </c>
-      <c r="D34" s="17">
+      <c r="F34" s="17">
         <f t="shared" si="0"/>
         <v>359.37086797838663</v>
       </c>
-      <c r="E34" s="21">
+      <c r="G34" s="21">
         <v>274.43909907688294</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>633.80996705526957</v>
       </c>
-      <c r="G34" s="8">
+      <c r="I34" s="8">
         <v>137.30272107976216</v>
       </c>
-      <c r="H34" s="8">
+      <c r="J34" s="8">
         <v>85.556475988754272</v>
       </c>
-      <c r="I34" s="8">
+      <c r="K34" s="8">
         <v>136.51167090987016</v>
       </c>
-      <c r="J34" s="18">
+      <c r="L34" s="18">
         <v>1.8959501282074246E-2</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>41079</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6">
         <v>2.4650546855418862</v>
       </c>
-      <c r="D35" s="17">
+      <c r="F35" s="17">
         <f t="shared" si="0"/>
         <v>478.20865729074592</v>
       </c>
-      <c r="E35" s="21">
+      <c r="G35" s="21">
         <v>272.03205068351315</v>
       </c>
-      <c r="F35" s="7">
+      <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>750.24070797425907</v>
       </c>
-      <c r="G35" s="8">
+      <c r="I35" s="8">
         <v>137.98972739031973</v>
       </c>
-      <c r="H35" s="8">
+      <c r="J35" s="8">
         <v>207.13175767846798</v>
       </c>
-      <c r="I35" s="8">
+      <c r="K35" s="8">
         <v>133.08717222195818</v>
       </c>
-      <c r="J35" s="18">
+      <c r="L35" s="18">
         <v>1.1900901692575832E-2</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3">
         <v>41093</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="17">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="17">
         <f t="shared" si="0"/>
         <v>445.30601702717439</v>
       </c>
-      <c r="E36" s="21">
+      <c r="G36" s="21">
         <v>276.16697801802286</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <f t="shared" si="1"/>
         <v>721.47299504519719</v>
       </c>
-      <c r="G36" s="8">
+      <c r="I36" s="8">
         <v>145.26464180313843</v>
       </c>
-      <c r="H36" s="8">
+      <c r="J36" s="8">
         <v>170.34880168998976</v>
       </c>
-      <c r="I36" s="8">
+      <c r="K36" s="8">
         <v>129.69257353404618</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="18"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3">
         <v>41107</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="6">
         <v>4.1349515993871195</v>
       </c>
-      <c r="D37" s="17">
+      <c r="F37" s="17">
         <f t="shared" si="0"/>
         <v>539.39382604528066</v>
       </c>
-      <c r="E37" s="21">
+      <c r="G37" s="21">
         <v>260.78141416136225</v>
       </c>
-      <c r="F37" s="7">
+      <c r="H37" s="7">
         <f t="shared" si="1"/>
         <v>800.17524020664291</v>
       </c>
-      <c r="G37" s="8">
+      <c r="I37" s="8">
         <v>166.8961992406133</v>
       </c>
-      <c r="H37" s="8">
+      <c r="J37" s="8">
         <v>246.16975195853311</v>
       </c>
-      <c r="I37" s="8">
+      <c r="K37" s="8">
         <v>126.32787484613422</v>
       </c>
-      <c r="J37" s="18">
+      <c r="L37" s="18">
         <v>1.6797155485145245E-2</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="3">
         <v>40680</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="6">
         <v>1.0255086747934585</v>
       </c>
-      <c r="D38" s="17">
+      <c r="F38" s="17">
         <f t="shared" si="0"/>
         <v>103.74158340469441</v>
       </c>
-      <c r="E38" s="22">
+      <c r="G38" s="22">
         <v>9.3326650017171833</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H38" s="7">
         <f t="shared" si="1"/>
         <v>113.07424840641158</v>
       </c>
-      <c r="G38" s="8">
+      <c r="I38" s="8">
         <v>19.01248599103544</v>
       </c>
-      <c r="H38" s="16">
+      <c r="J38" s="16">
         <v>65.584255308395768</v>
       </c>
-      <c r="I38" s="8">
+      <c r="K38" s="8">
         <v>19.144842105263201</v>
       </c>
-      <c r="J38" s="18">
+      <c r="L38" s="18">
         <v>1.5636507115484134E-2</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="3">
         <v>40687</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6">
         <v>1.0900231626160473</v>
       </c>
-      <c r="D39" s="17">
+      <c r="F39" s="17">
         <f t="shared" si="0"/>
         <v>107.1778487268371</v>
       </c>
-      <c r="E39" s="23">
+      <c r="G39" s="23">
         <v>10.708837621900109</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H39" s="7">
         <f t="shared" si="1"/>
         <v>117.88668634873721</v>
       </c>
-      <c r="G39" s="8">
+      <c r="I39" s="8">
         <v>20.036082575114854</v>
       </c>
-      <c r="H39" s="16">
+      <c r="J39" s="16">
         <v>66.481976678038052</v>
       </c>
-      <c r="I39" s="8">
+      <c r="K39" s="8">
         <v>20.659789473684199</v>
       </c>
-      <c r="J39" s="18">
+      <c r="L39" s="18">
         <v>1.6395769456357491E-2</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="3">
         <v>40701</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="6">
         <v>1.9654968524484016</v>
       </c>
-      <c r="D40" s="17">
+      <c r="F40" s="17">
         <f t="shared" si="0"/>
         <v>168.43109521541061</v>
       </c>
-      <c r="E40" s="23">
+      <c r="G40" s="23">
         <v>10.947297591283128</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H40" s="7">
         <f t="shared" si="1"/>
         <v>179.37839280669374</v>
       </c>
-      <c r="G40" s="8">
+      <c r="I40" s="8">
         <v>21.959779954729875</v>
       </c>
-      <c r="H40" s="16">
+      <c r="J40" s="16">
         <v>122.78163105015442</v>
       </c>
-      <c r="I40" s="8">
+      <c r="K40" s="8">
         <v>23.689684210526298</v>
       </c>
-      <c r="J40" s="18">
+      <c r="L40" s="18">
         <v>1.6008069249752239E-2</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
         <v>40715</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="6">
         <v>2.9203287185509645</v>
       </c>
-      <c r="D41" s="17">
+      <c r="F41" s="17">
         <f t="shared" si="0"/>
         <v>217.92712753108589</v>
       </c>
-      <c r="E41" s="23">
+      <c r="G41" s="23">
         <v>14.675593893635476</v>
       </c>
-      <c r="F41" s="7">
+      <c r="H41" s="7">
         <f t="shared" si="1"/>
         <v>232.60272142472135</v>
       </c>
-      <c r="G41" s="8">
+      <c r="I41" s="8">
         <v>23.678586525135007</v>
       </c>
-      <c r="H41" s="16">
+      <c r="J41" s="16">
         <v>167.52896205858247</v>
       </c>
-      <c r="I41" s="8">
+      <c r="K41" s="8">
         <v>26.719578947368401</v>
       </c>
-      <c r="J41" s="18">
+      <c r="L41" s="18">
         <v>1.7431784228029584E-2</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="4">
         <v>40737</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6">
         <v>1.4700151669209438</v>
       </c>
-      <c r="D42" s="17">
+      <c r="F42" s="17">
         <f t="shared" si="0"/>
         <v>159.28831617038344</v>
       </c>
-      <c r="E42" s="23">
+      <c r="G42" s="23">
         <v>27.989645148379658</v>
       </c>
-      <c r="F42" s="7">
+      <c r="H42" s="7">
         <f t="shared" si="1"/>
         <v>187.27796131876309</v>
       </c>
-      <c r="G42" s="8">
+      <c r="I42" s="8">
         <v>22.344630757410716</v>
       </c>
-      <c r="H42" s="16">
+      <c r="J42" s="16">
         <v>106.72802916297272</v>
       </c>
-      <c r="I42" s="8">
+      <c r="K42" s="8">
         <v>30.215656249999999</v>
       </c>
-      <c r="J42" s="18">
+      <c r="L42" s="18">
         <v>1.3773468679687173E-2</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="5">
         <v>40744</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6">
         <v>1.5165829869043563</v>
       </c>
-      <c r="D43" s="17">
+      <c r="F43" s="17">
         <f t="shared" si="0"/>
         <v>170.31866030311608</v>
       </c>
-      <c r="E43" s="23">
+      <c r="G43" s="23">
         <v>29.222613669577264</v>
       </c>
-      <c r="F43" s="7">
+      <c r="H43" s="7">
         <f t="shared" si="1"/>
         <v>199.54127397269332</v>
       </c>
-      <c r="G43" s="8">
+      <c r="I43" s="8">
         <v>21.611842105263158</v>
       </c>
-      <c r="H43" s="16">
+      <c r="J43" s="16">
         <v>115.49497609258974</v>
       </c>
-      <c r="I43" s="16">
+      <c r="K43" s="16">
         <v>33.211842105263159</v>
       </c>
-      <c r="J43" s="18">
+      <c r="L43" s="18">
         <v>1.3131159797708828E-2</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="5">
         <v>40757</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6">
         <v>2.3225324703238881</v>
       </c>
-      <c r="D44" s="17">
+      <c r="F44" s="17">
         <f t="shared" si="0"/>
         <v>200.3931537339281</v>
       </c>
-      <c r="E44" s="23">
+      <c r="G44" s="23">
         <v>27.419220055841702</v>
       </c>
-      <c r="F44" s="7">
+      <c r="H44" s="7">
         <f t="shared" si="1"/>
         <v>227.81237378976982</v>
       </c>
-      <c r="G44" s="8">
+      <c r="I44" s="8">
         <v>23.255054067909519</v>
       </c>
-      <c r="H44" s="16">
+      <c r="J44" s="16">
         <v>143.94491189749013</v>
       </c>
-      <c r="I44" s="16">
+      <c r="K44" s="16">
         <v>33.19318776852846</v>
       </c>
-      <c r="J44" s="18">
+      <c r="L44" s="18">
         <v>1.6134870206304143E-2</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="5">
         <v>40771</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6">
         <v>1.5086009932166378</v>
       </c>
-      <c r="D45" s="17">
+      <c r="F45" s="17">
         <f t="shared" si="0"/>
         <v>196.07556747147555</v>
       </c>
-      <c r="E45" s="24">
+      <c r="G45" s="24">
         <v>28.851443438476242</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>224.92701090995178</v>
       </c>
-      <c r="G45" s="8">
+      <c r="I45" s="8">
         <v>25.857525125588921</v>
       </c>
-      <c r="H45" s="16">
+      <c r="J45" s="16">
         <v>137.06207262247094</v>
       </c>
-      <c r="I45" s="16">
+      <c r="K45" s="16">
         <v>33.15596972341568</v>
       </c>
-      <c r="J45" s="18">
+      <c r="L45" s="18">
         <v>1.100669911341547E-2</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="5">
         <v>40785</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6">
         <v>0.95522759005326863</v>
       </c>
-      <c r="D46" s="17">
+      <c r="F46" s="17">
         <f t="shared" si="0"/>
         <v>166.49970621336197</v>
       </c>
-      <c r="E46" s="17">
+      <c r="G46" s="17">
         <v>43.771512250889103</v>
       </c>
-      <c r="F46" s="7">
+      <c r="H46" s="7">
         <f t="shared" si="1"/>
         <v>210.27121846425106</v>
       </c>
-      <c r="G46" s="8">
+      <c r="I46" s="8">
         <v>33.50983946094798</v>
       </c>
-      <c r="H46" s="16">
+      <c r="J46" s="16">
         <v>100.81529023298346</v>
       </c>
-      <c r="I46" s="16">
+      <c r="K46" s="16">
         <v>32.174576519430524</v>
       </c>
-      <c r="J46" s="18">
+      <c r="L46" s="18">
         <v>9.4750269313885246E-3</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="5">
         <v>40799</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6">
         <v>1.1416792162434337</v>
       </c>
-      <c r="D47" s="17">
+      <c r="F47" s="17">
         <f t="shared" si="0"/>
         <v>154.93930756292406</v>
       </c>
-      <c r="E47" s="17">
+      <c r="G47" s="17">
         <v>46.989373423226809</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <f t="shared" si="1"/>
         <v>201.92868098615088</v>
       </c>
-      <c r="G47" s="8">
+      <c r="I47" s="8">
         <v>21.339083473741976</v>
       </c>
-      <c r="H47" s="16">
+      <c r="J47" s="16">
         <v>102.59589544977203</v>
       </c>
-      <c r="I47" s="16">
+      <c r="K47" s="16">
         <v>31.004328639410062</v>
       </c>
-      <c r="J47" s="18">
+      <c r="L47" s="18">
         <v>1.1127922917758116E-2</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="5">
         <v>40813</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6">
         <v>0.6800982795639734</v>
       </c>
-      <c r="D48" s="17">
+      <c r="F48" s="17">
         <f t="shared" si="0"/>
         <v>167.00076922899595</v>
       </c>
-      <c r="E48" s="17">
+      <c r="G48" s="17">
         <v>55.305786912370039</v>
       </c>
-      <c r="F48" s="7">
+      <c r="H48" s="7">
         <f t="shared" si="1"/>
         <v>222.306556141366</v>
       </c>
-      <c r="G48" s="8">
+      <c r="I48" s="8">
         <v>29.341317216388017</v>
       </c>
-      <c r="H48" s="16">
+      <c r="J48" s="16">
         <v>107.94666084010393</v>
       </c>
-      <c r="I48" s="16">
+      <c r="K48" s="16">
         <v>29.712791172504012</v>
       </c>
-      <c r="J48" s="18">
+      <c r="L48" s="18">
         <v>6.3003179002578827E-3</v>
       </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="5">
         <v>40827</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6">
         <v>1.1575579496061055</v>
       </c>
-      <c r="D49" s="17">
+      <c r="F49" s="17">
         <f t="shared" si="0"/>
         <v>180.27527183114259</v>
       </c>
-      <c r="E49" s="17">
+      <c r="G49" s="17">
         <v>51.517829008800547</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <f t="shared" si="1"/>
         <v>231.79310083994315</v>
       </c>
-      <c r="G49" s="8">
+      <c r="I49" s="8">
         <v>19.747910871328411</v>
       </c>
-      <c r="H49" s="16">
+      <c r="J49" s="16">
         <v>132.22739684110184</v>
       </c>
-      <c r="I49" s="16">
+      <c r="K49" s="16">
         <v>28.29996411871236</v>
       </c>
-      <c r="J49" s="18">
+      <c r="L49" s="18">
         <v>8.7542973488100011E-3</v>
       </c>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="5">
         <v>40841</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6">
         <v>1.8281296751027236</v>
       </c>
-      <c r="D50" s="17">
+      <c r="F50" s="17">
         <f t="shared" si="0"/>
         <v>150.88297021811445</v>
       </c>
-      <c r="E50" s="17">
+      <c r="G50" s="17">
         <v>51.211665678381735</v>
       </c>
-      <c r="F50" s="7">
+      <c r="H50" s="7">
         <f t="shared" si="1"/>
         <v>202.09463589649619</v>
       </c>
-      <c r="G50" s="8">
+      <c r="I50" s="8">
         <v>22.786382754136174</v>
       </c>
-      <c r="H50" s="16">
+      <c r="J50" s="16">
         <v>96.760719811172379</v>
       </c>
-      <c r="I50" s="16">
+      <c r="K50" s="16">
         <v>31.335867652805902</v>
       </c>
-      <c r="J50" s="18">
+      <c r="L50" s="18">
         <v>1.564366262724275E-2</v>
       </c>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="5">
         <v>40848</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6">
         <v>2.9357504688746867</v>
       </c>
-      <c r="D51" s="17">
+      <c r="F51" s="17">
         <f t="shared" si="0"/>
         <v>235.83124781757931</v>
       </c>
-      <c r="E51" s="17">
+      <c r="G51" s="17">
         <v>54.137879960553377</v>
       </c>
-      <c r="F51" s="7">
+      <c r="H51" s="7">
         <f t="shared" si="1"/>
         <v>289.9691277781327</v>
       </c>
-      <c r="G51" s="8">
+      <c r="I51" s="8">
         <v>32.321170109272103</v>
       </c>
-      <c r="H51" s="16">
+      <c r="J51" s="16">
         <v>168.05112405109648</v>
       </c>
-      <c r="I51" s="16">
+      <c r="K51" s="16">
         <v>35.458953657210714</v>
       </c>
-      <c r="J51" s="18">
+      <c r="L51" s="18">
         <v>1.5603151369307901E-2</v>
       </c>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="5">
         <v>40855</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="17">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="17">
         <f t="shared" si="0"/>
         <v>320.16894259941478</v>
       </c>
-      <c r="E52" s="17">
+      <c r="G52" s="17">
         <v>55.478518894038892</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <f t="shared" si="1"/>
         <v>375.64746149345365</v>
       </c>
-      <c r="G52" s="8">
+      <c r="I52" s="8">
         <v>39.407696643430356</v>
       </c>
-      <c r="H52" s="16">
+      <c r="J52" s="16">
         <v>240.84392094603558</v>
       </c>
-      <c r="I52" s="16">
+      <c r="K52" s="16">
         <v>39.917325009948861</v>
       </c>
-      <c r="J52" s="18"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L52" s="18"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="5">
         <v>40869</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="18"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="18"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
       <c r="B54" s="5">
         <v>40883</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6">
         <v>1.2777706735851757</v>
       </c>
-      <c r="D54" s="17">
+      <c r="F54" s="17">
         <f t="shared" si="0"/>
         <v>213.86303095404526</v>
       </c>
-      <c r="E54" s="17">
+      <c r="G54" s="17">
         <v>87.446823532517044</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <f t="shared" si="1"/>
         <v>301.30985448656224</v>
       </c>
-      <c r="G54" s="8">
+      <c r="I54" s="8">
         <v>47.49292566917218</v>
       </c>
-      <c r="H54" s="16">
+      <c r="J54" s="16">
         <v>86.415960087278705</v>
       </c>
-      <c r="I54" s="16">
+      <c r="K54" s="16">
         <v>79.954145197594343</v>
       </c>
-      <c r="J54" s="18">
+      <c r="L54" s="18">
         <v>1.4786281056122596E-2</v>
       </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N54" s="8"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="5">
         <v>40890</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6">
         <v>2.50054452533093</v>
       </c>
-      <c r="D55" s="17">
+      <c r="F55" s="17">
         <f t="shared" si="0"/>
         <v>289.83642149198471</v>
       </c>
-      <c r="E55" s="17">
+      <c r="G55" s="17">
         <v>105.70154794153912</v>
       </c>
-      <c r="F55" s="7">
+      <c r="H55" s="7">
         <f t="shared" si="1"/>
         <v>395.53796943352381</v>
       </c>
-      <c r="G55" s="8">
+      <c r="I55" s="8">
         <v>61.073490617572659</v>
       </c>
-      <c r="H55" s="16">
+      <c r="J55" s="16">
         <v>137.16202154060713</v>
       </c>
-      <c r="I55" s="16">
+      <c r="K55" s="16">
         <v>91.600909333804921</v>
       </c>
-      <c r="J55" s="18">
+      <c r="L55" s="18">
         <v>1.8230589613981725E-2</v>
       </c>
-      <c r="L55" s="8"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N55" s="8"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="5">
         <v>40897</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6">
         <v>3.5122812357977438</v>
       </c>
-      <c r="D56" s="17">
+      <c r="F56" s="17">
         <f t="shared" si="0"/>
         <v>380.15984918302991</v>
       </c>
-      <c r="E56" s="17">
+      <c r="G56" s="17">
         <v>118.05098732820473</v>
       </c>
-      <c r="F56" s="7">
+      <c r="H56" s="7">
         <f t="shared" si="1"/>
         <v>498.21083651123467</v>
       </c>
-      <c r="G56" s="8">
+      <c r="I56" s="8">
         <v>62.129269254745473</v>
       </c>
-      <c r="H56" s="16">
+      <c r="J56" s="16">
         <v>214.70082086936935</v>
       </c>
-      <c r="I56" s="16">
+      <c r="K56" s="16">
         <v>103.32975905891512</v>
       </c>
-      <c r="J56" s="18">
+      <c r="L56" s="18">
         <v>1.6358955785896714E-2</v>
       </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N56" s="8"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="5">
         <v>40911</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6">
         <v>6.2400375653439077</v>
       </c>
-      <c r="D57" s="17">
+      <c r="F57" s="17">
         <f t="shared" si="0"/>
         <v>694.95921410312837</v>
       </c>
-      <c r="E57" s="17">
+      <c r="G57" s="17">
         <v>151.35629251700681</v>
       </c>
-      <c r="F57" s="7">
+      <c r="H57" s="7">
         <f t="shared" si="1"/>
         <v>846.31550662013524</v>
       </c>
-      <c r="G57" s="8">
+      <c r="I57" s="8">
         <v>166.08020360049238</v>
       </c>
-      <c r="H57" s="16">
+      <c r="J57" s="16">
         <v>401.84529522680208</v>
       </c>
-      <c r="I57" s="16">
+      <c r="K57" s="16">
         <v>127.03371527583396</v>
       </c>
-      <c r="J57" s="18">
+      <c r="L57" s="18">
         <v>1.5528457442364783E-2</v>
       </c>
-      <c r="L57" s="8"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N57" s="8"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="5">
         <v>40918</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6">
         <v>1.76026111849907</v>
       </c>
-      <c r="D58" s="17">
+      <c r="F58" s="17">
         <f t="shared" si="0"/>
         <v>293.2022254838588</v>
       </c>
-      <c r="E58" s="17">
+      <c r="G58" s="17">
         <v>167.82920836786303</v>
       </c>
-      <c r="F58" s="7">
+      <c r="H58" s="7">
         <f t="shared" si="1"/>
         <v>461.03143385172183</v>
       </c>
-      <c r="G58" s="8">
+      <c r="I58" s="8">
         <v>69.439518948942265</v>
       </c>
-      <c r="H58" s="16">
+      <c r="J58" s="16">
         <v>90.363963006810494</v>
       </c>
-      <c r="I58" s="16">
+      <c r="K58" s="16">
         <v>133.39874352810602</v>
       </c>
-      <c r="J58" s="18">
+      <c r="L58" s="18">
         <v>1.9479680393902198E-2</v>
       </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N58" s="8"/>
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="5">
         <v>40925</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6">
         <v>3.0353302143379719</v>
       </c>
-      <c r="D59" s="17">
+      <c r="F59" s="17">
         <f t="shared" si="0"/>
         <v>378.0196648854631</v>
       </c>
-      <c r="E59" s="17">
+      <c r="G59" s="17">
         <v>172.24948433873621</v>
       </c>
-      <c r="F59" s="7">
+      <c r="H59" s="7">
         <f t="shared" si="1"/>
         <v>550.26914922419928</v>
       </c>
-      <c r="G59" s="8">
+      <c r="I59" s="8">
         <v>89.908351037263813</v>
       </c>
-      <c r="H59" s="16">
+      <c r="J59" s="16">
         <v>149.20820385559188</v>
       </c>
-      <c r="I59" s="16">
+      <c r="K59" s="16">
         <v>138.90310999260743</v>
       </c>
-      <c r="J59" s="18">
+      <c r="L59" s="18">
         <v>2.0342917721036666E-2</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="17"/>
-    </row>
-    <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N59" s="8"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="5">
         <v>40939</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6">
         <v>4.0616250477659346</v>
       </c>
-      <c r="D60" s="17">
+      <c r="F60" s="17">
         <f t="shared" si="0"/>
         <v>559.40741325839133</v>
       </c>
-      <c r="E60" s="17">
+      <c r="G60" s="17">
         <v>186.26242261122471</v>
       </c>
-      <c r="F60" s="7">
+      <c r="H60" s="7">
         <f t="shared" si="1"/>
         <v>745.66983586961612</v>
       </c>
-      <c r="G60" s="8">
+      <c r="I60" s="8">
         <v>161.92731464334025</v>
       </c>
-      <c r="H60" s="16">
+      <c r="J60" s="16">
         <v>247.34698678392633</v>
       </c>
-      <c r="I60" s="16">
+      <c r="K60" s="16">
         <v>150.13311183112481</v>
       </c>
-      <c r="J60" s="18">
+      <c r="L60" s="18">
         <v>1.6420758144565669E-2</v>
       </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N60" s="8"/>
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="5">
         <v>40953</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6">
         <v>2.423532310337797</v>
       </c>
-      <c r="D61" s="17">
+      <c r="F61" s="17">
         <f t="shared" si="0"/>
         <v>678.22927836688154</v>
       </c>
-      <c r="E61" s="17">
+      <c r="G61" s="17">
         <v>196.28826208772409</v>
       </c>
-      <c r="F61" s="7">
+      <c r="H61" s="7">
         <f t="shared" si="1"/>
         <v>874.51754045460552</v>
       </c>
-      <c r="G61" s="8">
+      <c r="I61" s="8">
         <v>215.41101377732548</v>
       </c>
-      <c r="H61" s="16">
+      <c r="J61" s="16">
         <v>301.16012570722768</v>
       </c>
-      <c r="I61" s="16">
+      <c r="K61" s="16">
         <v>161.65813888232836</v>
       </c>
-      <c r="J61" s="18"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="17"/>
-    </row>
-    <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L61" s="18"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="5">
         <v>40967</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6">
         <v>1.4654190436972745</v>
       </c>
-      <c r="D62" s="17">
+      <c r="F62" s="17">
         <f t="shared" si="0"/>
         <v>389.87175859073125</v>
       </c>
-      <c r="E62" s="17">
+      <c r="G62" s="17">
         <v>202.94703702995821</v>
       </c>
-      <c r="F62" s="7">
+      <c r="H62" s="7">
         <f t="shared" si="1"/>
         <v>592.81879562068934</v>
       </c>
-      <c r="G62" s="8">
+      <c r="I62" s="8">
         <v>129.93917900576278</v>
       </c>
-      <c r="H62" s="16">
+      <c r="J62" s="16">
         <v>103.9354901503024</v>
       </c>
-      <c r="I62" s="16">
+      <c r="K62" s="16">
         <v>155.99708943466604</v>
       </c>
-      <c r="J62" s="18">
+      <c r="L62" s="18">
         <v>1.4099313348867784E-2</v>
       </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="17"/>
-    </row>
-    <row r="63" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N62" s="8"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="5">
         <v>40981</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6">
         <v>2.9215959912831231</v>
       </c>
-      <c r="D63" s="17">
+      <c r="F63" s="17">
         <f t="shared" si="0"/>
         <v>550.40287678009895</v>
       </c>
-      <c r="E63" s="17">
+      <c r="G63" s="17">
         <v>223.03613279192655</v>
       </c>
-      <c r="F63" s="7">
+      <c r="H63" s="7">
         <f t="shared" si="1"/>
         <v>773.4390095720255</v>
       </c>
-      <c r="G63" s="8">
+      <c r="I63" s="8">
         <v>187.39511653997602</v>
       </c>
-      <c r="H63" s="16">
+      <c r="J63" s="16">
         <v>213.89638777008946</v>
       </c>
-      <c r="I63" s="16">
+      <c r="K63" s="16">
         <v>149.11137247003347</v>
       </c>
-      <c r="J63" s="18">
+      <c r="L63" s="18">
         <v>1.3658930951295238E-2</v>
       </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="17"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N63" s="8"/>
+      <c r="O63" s="17"/>
+    </row>
+    <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="5">
         <v>40988</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6">
         <v>5.1874223858942248</v>
       </c>
-      <c r="D64" s="17">
+      <c r="F64" s="17">
         <f t="shared" si="0"/>
         <v>734.77932373517399</v>
       </c>
-      <c r="E64" s="17">
+      <c r="G64" s="17">
         <v>229.48042647340088</v>
       </c>
-      <c r="F64" s="7">
+      <c r="H64" s="7">
         <f t="shared" si="1"/>
         <v>964.25975020857493</v>
       </c>
-      <c r="G64" s="8">
+      <c r="I64" s="8">
         <v>242.51763252837591</v>
       </c>
-      <c r="H64" s="16">
+      <c r="J64" s="16">
         <v>346.55059544132303</v>
       </c>
-      <c r="I64" s="16">
+      <c r="K64" s="16">
         <v>145.71109576547508</v>
       </c>
-      <c r="J64" s="18">
+      <c r="L64" s="18">
         <v>1.4968730263724351E-2</v>
       </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="17"/>
-    </row>
-    <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N64" s="8"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="5">
         <v>40995</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6">
         <v>4.0837125410831252</v>
       </c>
-      <c r="D65" s="17">
+      <c r="F65" s="17">
         <f t="shared" si="0"/>
         <v>771.08853016702949</v>
       </c>
-      <c r="E65" s="17">
+      <c r="G65" s="17">
         <v>209.24298751272914</v>
       </c>
-      <c r="F65" s="7">
+      <c r="H65" s="7">
         <f t="shared" si="1"/>
         <v>980.33151767975869</v>
       </c>
-      <c r="G65" s="8">
+      <c r="I65" s="8">
         <v>263.74736752874799</v>
       </c>
-      <c r="H65" s="16">
+      <c r="J65" s="16">
         <v>365.00195572552633</v>
       </c>
-      <c r="I65" s="16">
+      <c r="K65" s="16">
         <v>142.33920691275523</v>
       </c>
-      <c r="J65" s="18">
+      <c r="L65" s="18">
         <v>1.1188193589170765E-2</v>
       </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="17"/>
-    </row>
-    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N65" s="8"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="5">
         <v>41009</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6">
         <v>1.3350681908928519</v>
       </c>
-      <c r="D66" s="17">
+      <c r="F66" s="17">
         <f t="shared" si="0"/>
         <v>342.12519232810121</v>
       </c>
-      <c r="E66" s="17">
+      <c r="G66" s="17">
         <v>214.01714705953856</v>
       </c>
-      <c r="F66" s="7">
+      <c r="H66" s="7">
         <f t="shared" si="1"/>
         <v>556.14233938763982</v>
       </c>
-      <c r="G66" s="8">
+      <c r="I66" s="8">
         <v>115.85631467962678</v>
       </c>
-      <c r="H66" s="16">
+      <c r="J66" s="16">
         <v>95.121990828814276</v>
       </c>
-      <c r="I66" s="16">
+      <c r="K66" s="16">
         <v>131.14688681966015</v>
       </c>
-      <c r="J66" s="18">
+      <c r="L66" s="18">
         <v>1.4035326418845665E-2</v>
       </c>
-      <c r="L66" s="8"/>
-      <c r="M66" s="17"/>
-    </row>
-    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N66" s="8"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="5">
         <v>41023</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6">
         <v>1.9535133389340009</v>
       </c>
-      <c r="D67" s="17">
-        <f t="shared" ref="D67:D73" si="2">G67+H67+I67</f>
+      <c r="F67" s="17">
+        <f t="shared" ref="F67:F73" si="2">I67+J67+K67</f>
         <v>460.99560525978569</v>
       </c>
-      <c r="E67" s="17">
+      <c r="G67" s="17">
         <v>204.84619646072369</v>
       </c>
-      <c r="F67" s="7">
-        <f t="shared" ref="F67:F72" si="3">E67+G67+H67+I67</f>
+      <c r="H67" s="7">
+        <f t="shared" ref="H67:H72" si="3">G67+I67+J67+K67</f>
         <v>665.84180172050935</v>
       </c>
-      <c r="G67" s="8">
+      <c r="I67" s="8">
         <v>166.67326440586095</v>
       </c>
-      <c r="H67" s="16">
+      <c r="J67" s="16">
         <v>174.36966175953876</v>
       </c>
-      <c r="I67" s="16">
+      <c r="K67" s="16">
         <v>119.95267909438599</v>
       </c>
-      <c r="J67" s="18">
+      <c r="L67" s="18">
         <v>1.1203286851745788E-2</v>
       </c>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="5">
         <v>41037</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6">
         <v>3.7370049551820728</v>
       </c>
-      <c r="D68" s="17">
+      <c r="F68" s="17">
         <f t="shared" si="2"/>
         <v>415.81811731238281</v>
       </c>
-      <c r="E68" s="17">
+      <c r="G68" s="17">
         <v>198.77836781126604</v>
       </c>
-      <c r="F68" s="7">
+      <c r="H68" s="7">
         <f t="shared" si="3"/>
         <v>614.59648512364879</v>
       </c>
-      <c r="G68" s="8">
+      <c r="I68" s="8">
         <v>112.08231665991494</v>
       </c>
-      <c r="H68" s="16">
+      <c r="J68" s="16">
         <v>194.62182928335602</v>
       </c>
-      <c r="I68" s="16">
+      <c r="K68" s="16">
         <v>109.11397136911182</v>
       </c>
-      <c r="J68" s="18">
+      <c r="L68" s="18">
         <v>1.9201365894784855E-2</v>
       </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>18</v>
       </c>
       <c r="B69" s="5">
         <v>41051</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6">
         <v>3.7214351336979701</v>
       </c>
-      <c r="D69" s="17">
+      <c r="F69" s="17">
         <f t="shared" si="2"/>
         <v>512.42039857972611</v>
       </c>
-      <c r="E69" s="17">
+      <c r="G69" s="17">
         <v>189.25146683673472</v>
       </c>
-      <c r="F69" s="7">
+      <c r="H69" s="7">
         <f t="shared" si="3"/>
         <v>701.67186541646072</v>
       </c>
-      <c r="G69" s="8">
+      <c r="I69" s="8">
         <v>181.52553461484709</v>
       </c>
-      <c r="H69" s="16">
+      <c r="J69" s="16">
         <v>232.26410032104133</v>
       </c>
-      <c r="I69" s="16">
+      <c r="K69" s="16">
         <v>98.630763643837639</v>
       </c>
-      <c r="J69" s="18">
+      <c r="L69" s="18">
         <v>1.6022429331756859E-2</v>
       </c>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
       <c r="B70" s="3">
         <v>41065</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="6">
         <v>1.508351325558432</v>
       </c>
-      <c r="D70" s="17">
+      <c r="F70" s="17">
         <f t="shared" si="2"/>
         <v>261.50301513009822</v>
       </c>
-      <c r="E70" s="17">
+      <c r="G70" s="17">
         <v>183.86798469387756</v>
       </c>
-      <c r="F70" s="7">
+      <c r="H70" s="7">
         <f t="shared" si="3"/>
         <v>445.37099982397581</v>
       </c>
-      <c r="G70" s="8">
+      <c r="I70" s="8">
         <v>87.441718729281277</v>
       </c>
-      <c r="H70" s="16">
+      <c r="J70" s="16">
         <v>79.372394335315107</v>
       </c>
-      <c r="I70" s="16">
+      <c r="K70" s="16">
         <v>94.68890206550185</v>
       </c>
-      <c r="J70" s="18">
+      <c r="L70" s="18">
         <v>1.9003475177859441E-2</v>
       </c>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
       <c r="B71" s="3">
         <v>41079</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="6">
         <v>2.4455929239980505</v>
       </c>
-      <c r="D71" s="17">
+      <c r="F71" s="17">
         <f t="shared" si="2"/>
         <v>360.27734869222979</v>
       </c>
-      <c r="E71" s="17">
+      <c r="G71" s="17">
         <v>189.4922742604592</v>
       </c>
-      <c r="F71" s="7">
+      <c r="H71" s="7">
         <f t="shared" si="3"/>
         <v>549.76962295268902</v>
       </c>
-      <c r="G71" s="8">
+      <c r="I71" s="8">
         <v>104.17467686277537</v>
       </c>
-      <c r="H71" s="16">
+      <c r="J71" s="16">
         <v>164.83826845186456</v>
       </c>
-      <c r="I71" s="16">
+      <c r="K71" s="16">
         <v>91.264403377589872</v>
       </c>
-      <c r="J71" s="18">
+      <c r="L71" s="18">
         <v>1.4836317725044552E-2</v>
       </c>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
       <c r="B72" s="3">
         <v>41093</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="17">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="17">
         <f t="shared" si="2"/>
         <v>319.56811318212328</v>
       </c>
-      <c r="E72" s="17">
+      <c r="G72" s="17">
         <v>172.96084183673469</v>
       </c>
-      <c r="F72" s="7">
+      <c r="H72" s="7">
         <f t="shared" si="3"/>
         <v>492.52895501885791</v>
       </c>
-      <c r="G72" s="8">
+      <c r="I72" s="8">
         <v>91.049518557646337</v>
       </c>
-      <c r="H72" s="16">
+      <c r="J72" s="16">
         <v>140.64878993479905</v>
       </c>
-      <c r="I72" s="16">
+      <c r="K72" s="16">
         <v>87.869804689677864</v>
       </c>
-      <c r="J72" s="18"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="18"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="3">
         <v>41107</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="6">
         <v>3.0857272316323492</v>
       </c>
-      <c r="D73" s="17">
+      <c r="F73" s="17">
         <f t="shared" si="2"/>
         <v>347.02171255568589</v>
       </c>
-      <c r="E73" s="17">
+      <c r="G73" s="17">
         <v>173.62594289637812</v>
       </c>
-      <c r="F73" s="7">
-        <f>E73+G73+H73+I73</f>
+      <c r="H73" s="7">
+        <f>G73+I73+J73+K73</f>
         <v>520.6476554520641</v>
       </c>
-      <c r="G73" s="8">
+      <c r="I73" s="8">
         <v>106.50712316560491</v>
       </c>
-      <c r="H73" s="16">
+      <c r="J73" s="16">
         <v>156.00948338831509</v>
       </c>
-      <c r="I73" s="16">
+      <c r="K73" s="16">
         <v>84.50510600176591</v>
       </c>
-      <c r="J73" s="18">
+      <c r="L73" s="18">
         <v>1.9779100376557408E-2</v>
       </c>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="25">
         <v>34981</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="15">
         <v>1E-3</v>
-      </c>
-      <c r="D74">
-        <v>279.125</v>
       </c>
       <c r="F74">
         <v>279.125</v>
       </c>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>279.125</v>
+      </c>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="26">
         <v>35034</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="15">
         <v>1E-3</v>
-      </c>
-      <c r="D75">
-        <v>185.61249928706056</v>
       </c>
       <c r="F75">
         <v>185.61249928706056</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>185.61249928706056</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="26">
         <v>35094</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="15">
         <v>3.3249177714992393</v>
-      </c>
-      <c r="D76">
-        <v>712.52166750351591</v>
       </c>
       <c r="F76">
         <v>712.52166750351591</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>712.52166750351591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="26">
         <v>35123</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="15">
         <v>1.2627875536134012</v>
-      </c>
-      <c r="D77">
-        <v>151.56833452341459</v>
       </c>
       <c r="F77">
         <v>151.56833452341459</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>151.56833452341459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="26">
         <v>35185</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="15">
         <v>0.31340395115999525</v>
-      </c>
-      <c r="D78">
-        <v>40.299999261980915</v>
       </c>
       <c r="F78">
         <v>40.299999261980915</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>40.299999261980915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="26">
         <v>35255</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="15">
         <v>8.8065756201301679E-2</v>
-      </c>
-      <c r="D79">
-        <v>15.432499986495822</v>
       </c>
       <c r="F79">
         <v>15.432499986495822</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>15.432499986495822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="26">
         <v>35396</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="15">
         <v>0.57960046249025299</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>136.28931378275743</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>6.1240188652617249</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>142.41333264801915</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="26">
         <v>35444</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="15">
         <v>0.57009565131179574</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>177.42210032563258</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>0.66373235670370012</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>178.08583268233627</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="B82" s="26">
         <v>35493</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="15">
         <v>1.5124537228643689</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>329.13026413832915</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>10.941399430176659</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>340.07166356850581</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="26">
         <v>35556</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="15">
         <v>0.10746124806404091</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>16.490000153183935</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>29.074999332427979</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>45.564999485611914</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="26">
         <v>35663</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="15">
         <v>1.5132167418472628E-2</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>6.2916667083154127</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>8.0599998633066807</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>14.351666571622093</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
       <c r="B85" s="26">
         <v>35716</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="15">
         <v>0.32047536606106819</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>84.761927836414628</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>19.108071797314146</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>103.86999963372878</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
       <c r="B86" s="26">
         <v>35731</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="15">
         <v>0.2590842874680685</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>118.47101497811904</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>24.658985344673077</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>143.13000032279211</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
       <c r="B87" s="26">
         <v>35751</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="15">
         <v>0.17122318279367721</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>50.102148368189866</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>74.467853818319611</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>124.57000218650947</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
       <c r="B88" s="26">
         <v>35857</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="15">
         <v>0.80027162282084241</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>244.47250160864451</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>2.1212500482797623</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>246.59375165692427</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
       <c r="B89" s="26">
         <v>35892</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="15">
         <v>0.37404237919985944</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>199.01274884178898</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>49.037254804040437</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>248.05000364582941</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
       <c r="B90" s="26">
         <v>36010</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="15">
         <v>0.19451453056528648</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>36.216536341575328</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>21.177214834610062</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>57.39375117618539</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91" s="26">
         <v>36130</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="15">
         <v>1.0155370907728429</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>236.27841363119259</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>204.00491913476645</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>440.28333276595902</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="26">
         <v>36146</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="15">
         <v>0.98371092557540329</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>240.71245033418776</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>197.84838697295254</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>438.56083730714033</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93" s="26">
         <v>36207</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="15">
         <v>0.33889408063711235</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>125.17417928321069</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>3.0274881593108156</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>128.20166744252151</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94" s="26">
         <v>36313</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="15">
         <v>0.11445418789261647</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>37.128939286441607</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>4.8335609651402951</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>41.962500251581901</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95" s="26">
         <v>36432</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="15">
         <v>5.0831970620829184E-2</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>30.976594078917667</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>7.1575723895608361</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>38.134166468478504</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="26">
         <v>36517</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="15">
         <v>0.7135315869484552</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>206.500970973036</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>41.824031630279173</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>248.32500260331517</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97" s="26">
         <v>36558</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="15">
         <v>0.63824968684533889</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>245.12098822777088</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>16.632345868226842</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>261.75333409599773</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" s="27">
         <v>36677</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="15">
         <v>0.40217986485286511</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>77.135333689482806</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>16.621333578605345</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>93.756667268088151</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
       <c r="B99" s="28">
         <v>30026</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="31">
         <v>0.83</v>
-      </c>
-      <c r="D99">
-        <v>142</v>
       </c>
       <c r="F99">
         <v>142</v>
       </c>
-      <c r="K99">
+      <c r="H99">
+        <v>142</v>
+      </c>
+      <c r="M99">
         <v>283.68413333333342</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>4.7491999999999993E-2</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>2.3890666666666664E-2</v>
       </c>
-      <c r="N99">
+      <c r="P99">
         <v>1.8785249999999996E-2</v>
       </c>
-      <c r="O99">
+      <c r="Q99">
         <v>1.31328E-2</v>
       </c>
-      <c r="P99">
+      <c r="R99">
         <v>8.7538500000000005E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
       <c r="B100" s="29">
         <v>30074</v>
       </c>
-      <c r="C100" s="32">
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="32">
         <v>2.2166666666666668</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>466.71951621166158</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>11.603817121671733</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>478.32333333333332</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>325.64938287832825</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>503.96834782608704</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>4.9755000000000001E-2</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>5.3909000000000006E-2</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <v>3.6463625E-2</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>2.7734399999999999E-2</v>
       </c>
-      <c r="P100">
+      <c r="R100">
         <v>2.0572650000000001E-2</v>
       </c>
-      <c r="Q100">
+      <c r="S100">
         <v>1.5187200000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
       <c r="B101" s="29">
         <v>30297</v>
       </c>
-      <c r="C101" s="32">
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="32">
         <v>2.7666666666666671</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>521.1224519959319</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>1.500881337401476</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>522.62333333333333</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>256.47388532926522</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>305.9854978723402</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>7.3387333333333332E-2</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>4.6686000000000005E-2</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <v>1.981833333333333E-2</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>1.3715999999999999E-2</v>
       </c>
-      <c r="P101">
+      <c r="R101">
         <v>1.24803E-2</v>
       </c>
-      <c r="Q101">
+      <c r="S101">
         <v>1.059072E-2</v>
       </c>
-      <c r="R101">
+      <c r="T101">
         <v>5.2354666666666674E-3</v>
       </c>
-      <c r="S101">
+      <c r="U101">
         <v>3.6287333333333339E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
       <c r="B102" s="29">
         <v>30340</v>
       </c>
-      <c r="C102" s="32">
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="32">
         <v>4.8666666666666671</v>
-      </c>
-      <c r="D102">
-        <v>1377.3233333333335</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
       </c>
       <c r="F102">
         <v>1377.3233333333335</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1377.3233333333335</v>
+      </c>
+      <c r="I102">
         <v>1056.3668500881834</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>371.77533617021265</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>7.925666666666667E-2</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>5.5572666666666673E-2</v>
       </c>
-      <c r="N102">
+      <c r="P102">
         <v>3.0887083333333332E-2</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <v>1.8295200000000001E-2</v>
       </c>
-      <c r="P102">
+      <c r="R102">
         <v>1.2899249999999999E-2</v>
       </c>
-      <c r="Q102">
+      <c r="S102">
         <v>1.2311040000000002E-2</v>
       </c>
-      <c r="R102">
+      <c r="T102">
         <v>5.4611333333333331E-3</v>
       </c>
-      <c r="S102">
+      <c r="U102">
         <v>5.7875999999999995E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
       <c r="B103" s="29">
         <v>30381</v>
       </c>
-      <c r="C103" s="32">
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="32">
         <v>3.2526666666666668</v>
-      </c>
-      <c r="D103">
-        <v>1331.3133333333333</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
       </c>
       <c r="F103">
         <v>1331.3133333333333</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1331.3133333333333</v>
+      </c>
+      <c r="I103">
         <v>1044.5434370976257</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>380.51250000000016</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>7.3883333333333329E-2</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>5.6130666666666655E-2</v>
       </c>
-      <c r="N103">
+      <c r="P103">
         <v>2.8631166666666666E-2</v>
       </c>
-      <c r="O103">
+      <c r="Q103">
         <v>2.2852799999999996E-2</v>
       </c>
-      <c r="P103">
+      <c r="R103">
         <v>1.7287199999999999E-2</v>
       </c>
-      <c r="Q103">
+      <c r="S103">
         <v>8.8927999999999993E-3</v>
       </c>
-      <c r="R103">
+      <c r="T103">
         <v>7.9208999999999998E-3</v>
       </c>
-      <c r="S103">
+      <c r="U103">
         <v>4.6851999999999996E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
       <c r="B104" s="29">
         <v>30699</v>
       </c>
-      <c r="C104" s="32">
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="32">
         <v>2.9866666666666668</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>628.24340948408053</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>51.623257182586137</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>679.86666666666667</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>443.97882281741386</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="29">
         <v>30747</v>
       </c>
-      <c r="C105" s="32">
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="32">
         <v>2.3826666666666667</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>1272.6904468005271</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>186.29621986613958</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>1458.9866666666667</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>1010.8336461338604</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>638.59671666666668</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>0.113832</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>8.1819333333333327E-2</v>
       </c>
-      <c r="N105">
+      <c r="P105">
         <v>5.698824999999999E-2</v>
       </c>
-      <c r="O105">
+      <c r="Q105">
         <v>3.2572799999999999E-2</v>
       </c>
-      <c r="P105">
+      <c r="R105">
         <v>2.5864649999999999E-2</v>
       </c>
-      <c r="Q105">
+      <c r="S105">
         <v>2.0339200000000002E-2</v>
       </c>
-      <c r="R105">
+      <c r="T105">
         <v>1.4442666666666668E-2</v>
       </c>
-      <c r="S105">
+      <c r="U105">
         <v>1.2333100000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
       <c r="B106" s="30">
         <v>30801</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="33">
         <v>1.9056666666666666</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>1319.4442994547924</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>269.8690338785409</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>1589.3133333333333</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>1072.7916081214591</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
       <c r="B107" s="28">
         <v>30026</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="34">
         <v>0.97</v>
-      </c>
-      <c r="D107">
-        <v>151</v>
       </c>
       <c r="F107">
         <v>151</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="29">
         <v>30074</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="35">
         <v>3.3233333333333337</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>440.56733812636168</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>7.4326618736383336</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>448</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>252.21640479302832</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>496.00931111111106</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>5.4580666666666666E-2</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>4.2676666666666668E-2</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <v>3.2552666666666667E-2</v>
       </c>
-      <c r="O108">
+      <c r="Q108">
         <v>2.7712800000000003E-2</v>
       </c>
-      <c r="P108">
+      <c r="R108">
         <v>2.5600049999999999E-2</v>
       </c>
-      <c r="Q108">
+      <c r="S108">
         <v>1.5321600000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="29">
         <v>30297</v>
       </c>
-      <c r="C109" s="35">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="35">
         <v>1.6866666666666665</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>305.99320803822985</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>0.28012529510349776</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>306.27333333333337</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>114.55912803822982</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>212.56201666666669</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>4.3544666666666669E-2</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>2.2609333333333335E-2</v>
       </c>
-      <c r="N109">
+      <c r="P109">
         <v>1.2439166666666663E-2</v>
       </c>
-      <c r="O109">
+      <c r="Q109">
         <v>1.0692000000000002E-2</v>
       </c>
-      <c r="P109">
+      <c r="R109">
         <v>1.0870649999999999E-2</v>
       </c>
-      <c r="Q109">
+      <c r="S109">
         <v>7.9520000000000007E-3</v>
       </c>
-      <c r="R109">
+      <c r="T109">
         <v>5.8222000000000005E-3</v>
       </c>
-      <c r="S109">
+      <c r="U109">
         <v>4.1799333333333325E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
       <c r="B110" s="29">
         <v>30340</v>
       </c>
-      <c r="C110" s="35">
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="35">
         <v>3.3766666666666665</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>710.29188095238089</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>5.5181190476190904</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>715.81</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>489.70804761904759</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>355.83449090909096</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>8.0000666666666664E-2</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>4.1064666666666666E-2</v>
       </c>
-      <c r="N110">
+      <c r="P110">
         <v>2.196883333333333E-2</v>
       </c>
-      <c r="O110">
+      <c r="Q110">
         <v>1.5811200000000004E-2</v>
       </c>
-      <c r="P110">
+      <c r="R110">
         <v>1.1929049999999998E-2</v>
       </c>
-      <c r="Q110">
+      <c r="S110">
         <v>1.27904E-2</v>
       </c>
-      <c r="R110">
+      <c r="T110">
         <v>1.181365E-2</v>
       </c>
-      <c r="S110">
+      <c r="U110">
         <v>4.823E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>21</v>
       </c>
       <c r="B111" s="29">
         <v>30381</v>
       </c>
-      <c r="C111" s="35">
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="35">
         <v>2.670666666666667</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>900.05856178144063</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>0.88810488522603726</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>900.94666666666672</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>615.80326844810736</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>378.62602790697679</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>7.6693999999999998E-2</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>4.5838666666666666E-2</v>
       </c>
-      <c r="N111">
+      <c r="P111">
         <v>2.3191666666666663E-2</v>
       </c>
-      <c r="O111">
+      <c r="Q111">
         <v>1.6286399999999999E-2</v>
       </c>
-      <c r="P111">
+      <c r="R111">
         <v>1.844262E-2</v>
       </c>
-      <c r="Q111">
+      <c r="S111">
         <v>1.365504E-2</v>
       </c>
-      <c r="R111">
+      <c r="T111">
         <v>8.9364000000000006E-3</v>
       </c>
-      <c r="S111">
+      <c r="U111">
         <v>5.7186999999999984E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>21</v>
       </c>
       <c r="B112" s="29">
         <v>30699</v>
       </c>
-      <c r="C112" s="35">
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="35">
         <v>2.1933333333333334</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>572.1915509807435</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>46.541782352589848</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>618.73333333333335</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>431.21551098074343</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
       <c r="B113" s="29">
         <v>30747</v>
       </c>
-      <c r="C113" s="35">
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="35">
         <v>2.242</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>1175.9610661686129</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>67.81393383138726</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>1243.7750000000001</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>952.09588616861265</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>566.45474999999999</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>0.10558599999999999</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>7.3387333333333332E-2</v>
       </c>
-      <c r="N113">
+      <c r="P113">
         <v>4.3178666666666664E-2</v>
       </c>
-      <c r="O113">
+      <c r="Q113">
         <v>2.9527199999999997E-2</v>
       </c>
-      <c r="P113">
+      <c r="R113">
         <v>2.5511850000000003E-2</v>
       </c>
-      <c r="Q113">
+      <c r="S113">
         <v>1.79648E-2</v>
       </c>
-      <c r="R113">
+      <c r="T113">
         <v>1.3449733333333335E-2</v>
       </c>
-      <c r="S113">
+      <c r="U113">
         <v>1.0266099999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
       <c r="B114" s="30">
         <v>30801</v>
       </c>
-      <c r="C114" s="36">
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="36">
         <v>1.6146666666666667</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>962.2619211770832</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>183.18141215625019</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>1145.4433333333334</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>816.90446117708314</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>50</v>
       </c>
       <c r="B115" s="37">
         <v>23406.861783035809</v>
       </c>
-      <c r="F115">
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="H115">
         <v>242.05322247204501</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>50</v>
       </c>
       <c r="B116" s="37">
         <v>23433.405302630188</v>
       </c>
-      <c r="F116">
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="H116">
         <v>404.01809292429391</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>50</v>
       </c>
       <c r="B117" s="37">
         <v>23463.046424421675</v>
       </c>
-      <c r="F117">
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="H117">
         <v>103.97961339389406</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="37">
         <v>23490.90899968311</v>
       </c>
-      <c r="F118">
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="H118">
         <v>247.47996800917497</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>50</v>
       </c>
       <c r="B119" s="37">
         <v>23520.083500580964</v>
       </c>
-      <c r="F119">
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="H119">
         <v>67.463670796291922</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>50</v>
       </c>
       <c r="B120" s="37">
         <v>23547.427960283087</v>
       </c>
-      <c r="F120">
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="H120">
         <v>41.399447705570083</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>50</v>
       </c>
       <c r="B121" s="37">
         <v>23700.508450406676</v>
       </c>
-      <c r="F121">
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="H121">
         <v>578.57935082768699</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>50</v>
       </c>
       <c r="B122" s="37">
         <v>23726.941058413435</v>
       </c>
-      <c r="F122">
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="H122">
         <v>38.802079403641983</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>50</v>
       </c>
       <c r="B123" s="37">
         <v>23756.225678673287</v>
       </c>
-      <c r="F123">
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="H123">
         <v>430.07099850608097</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>50</v>
       </c>
       <c r="B124" s="37">
         <v>23784.116774057253</v>
       </c>
-      <c r="F124">
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="H124">
         <v>341.39265720020012</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>50</v>
       </c>
       <c r="B125" s="37">
         <v>23814.203126650471</v>
       </c>
-      <c r="F125">
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="H125">
         <v>70.061039098219908</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>50</v>
       </c>
       <c r="B126" s="37">
         <v>23841.14434350903</v>
       </c>
-      <c r="F126">
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="H126">
         <v>213.57836997691993</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>50</v>
       </c>
       <c r="B127" s="37">
         <v>24117.871289743318</v>
       </c>
-      <c r="F127">
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="H127">
         <v>273.35745220238698</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>50</v>
       </c>
       <c r="B128" s="37">
         <v>24145.229217281081</v>
       </c>
-      <c r="F128">
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="H128">
         <v>85.747106490214037</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>50</v>
       </c>
       <c r="B129" s="37">
         <v>24174.491655223406</v>
       </c>
-      <c r="F129">
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="H129">
         <v>357.02779580195897</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>50</v>
       </c>
       <c r="B130" s="37">
         <v>24201.388507446922</v>
       </c>
-      <c r="F130">
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="H130">
         <v>67.491964568651042</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>50</v>
       </c>
       <c r="B131" s="37">
         <v>24231.908207457484</v>
       </c>
-      <c r="F131">
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="H131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>50</v>
       </c>
       <c r="B132" s="37">
         <v>24258.328932079858</v>
       </c>
-      <c r="F132">
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="H132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
       <c r="B133" s="37">
         <v>24447.452413647407</v>
       </c>
-      <c r="F133">
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="H133">
         <v>101.20116494892</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
       <c r="B134" s="37">
         <v>24475.696841660505</v>
       </c>
-      <c r="F134">
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="H134">
         <v>4.8665288445580046</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
       <c r="B135" s="37">
         <v>24503.520597866271</v>
       </c>
-      <c r="F135">
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="H135">
         <v>119.654363276947</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>50</v>
       </c>
       <c r="B136" s="37">
         <v>24530.52915390303</v>
       </c>
-      <c r="F136">
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="H136">
         <v>435.31666390016403</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>50</v>
       </c>
       <c r="B137" s="37">
         <v>24561.586775113552</v>
       </c>
-      <c r="F137">
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="H137">
         <v>268.30984321477695</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>50</v>
       </c>
       <c r="B138" s="37">
         <v>24798.795236083235</v>
       </c>
-      <c r="F138">
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="H138">
         <v>22.923614359654898</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="37">
         <v>24827.573624168162</v>
       </c>
-      <c r="F139">
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
+      <c r="H139">
         <v>263.12076536540513</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>50</v>
       </c>
       <c r="B140" s="37">
         <v>24854.99017640224</v>
       </c>
-      <c r="F140">
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="H140">
         <v>278.78985649398601</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>50</v>
       </c>
       <c r="B141" s="37">
         <v>24882.375831836907</v>
       </c>
-      <c r="F141">
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
+      <c r="H141">
         <v>177.05110987037699</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
       <c r="B142" s="37">
         <v>24912.477236717015</v>
       </c>
-      <c r="F142">
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="H142">
         <v>119.62606950459497</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="37">
         <v>24939.378842294285</v>
       </c>
-      <c r="F143">
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="H143">
         <v>83.144079433822981</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
       <c r="B144" s="37">
         <v>24968.541459807751</v>
       </c>
-      <c r="F144">
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="H144">
         <v>28.333383633373046</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" s="37">
+        <v>27120</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D145" s="1">
+        <f>C145*1000/10</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="37">
+        <v>27120</v>
+      </c>
+      <c r="C146">
+        <v>7.4</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" ref="D146:D174" si="4">C146*1000/10</f>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" s="37">
+        <v>27120</v>
+      </c>
+      <c r="C147">
+        <v>9.9</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="4"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" s="37">
+        <v>27120</v>
+      </c>
+      <c r="C148">
+        <v>14.3</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="4"/>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" s="37">
+        <v>27120</v>
+      </c>
+      <c r="C149">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="4"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" s="37">
+        <v>27485</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1">
+        <f>C150*1000/10+D145</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="37">
+        <v>27485</v>
+      </c>
+      <c r="C151">
+        <v>6.3</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" ref="D151:D174" si="5">C151*1000/10+D146</f>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" s="37">
+        <v>27485</v>
+      </c>
+      <c r="C152">
+        <v>7.5</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="5"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="37">
+        <v>27485</v>
+      </c>
+      <c r="C153">
+        <v>12.7</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="5"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="37">
+        <v>27485</v>
+      </c>
+      <c r="C154">
+        <v>14.4</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="5"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="37">
+        <v>27851</v>
+      </c>
+      <c r="C155">
+        <v>2.8</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="5"/>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="37">
+        <v>27851</v>
+      </c>
+      <c r="C156">
+        <v>5.8</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" s="37">
+        <v>27851</v>
+      </c>
+      <c r="C157">
+        <v>7.7</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="5"/>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="37">
+        <v>27851</v>
+      </c>
+      <c r="C158">
+        <v>13.2</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="5"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="37">
+        <v>27851</v>
+      </c>
+      <c r="C159">
+        <v>12.6</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="5"/>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" s="37">
+        <v>28216</v>
+      </c>
+      <c r="C160">
+        <v>2.4</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="5"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" s="37">
+        <v>28216</v>
+      </c>
+      <c r="C161">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="5"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" s="37">
+        <v>28216</v>
+      </c>
+      <c r="C162">
+        <v>6.3</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="5"/>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="37">
+        <v>28216</v>
+      </c>
+      <c r="C163">
+        <v>10.8</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="5"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164" s="37">
+        <v>28216</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="5"/>
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" s="37">
+        <v>28581</v>
+      </c>
+      <c r="C165">
+        <v>2.7</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="5"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="37">
+        <v>28581</v>
+      </c>
+      <c r="C166">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="5"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167" s="37">
+        <v>28581</v>
+      </c>
+      <c r="C167">
+        <v>6.6</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="5"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" s="37">
+        <v>28581</v>
+      </c>
+      <c r="C168">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="5"/>
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="37">
+        <v>28581</v>
+      </c>
+      <c r="C169">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="5"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="37">
+        <v>28946</v>
+      </c>
+      <c r="C170">
+        <v>1.7</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="5"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" s="37">
+        <v>28946</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>58</v>
+      </c>
+      <c r="B172" s="37">
+        <v>28946</v>
+      </c>
+      <c r="C172">
+        <v>5.6</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="5"/>
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" s="37">
+        <v>28946</v>
+      </c>
+      <c r="C173">
+        <v>10.5</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="5"/>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" s="37">
+        <v>28946</v>
+      </c>
+      <c r="C174">
+        <v>12.3</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="5"/>
+        <v>7710</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +5557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B32"/>
     </sheetView>
   </sheetViews>

--- a/Prototypes/TropicalPasture/Observed.xlsx
+++ b/Prototypes/TropicalPasture/Observed.xlsx
@@ -26,7 +26,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="63">
   <si>
     <t>SimulationName</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>ForageRemoval</t>
+  </si>
+  <si>
+    <t>ForageNRemoval</t>
   </si>
 </sst>
 </file>
@@ -771,29 +774,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U174"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="528" topLeftCell="A125" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150:D174"/>
+      <pane ySplit="528" topLeftCell="A131" activePane="bottomLeft"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,58 +810,61 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -867,35 +873,36 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="6">
+      <c r="E2" s="3"/>
+      <c r="F2" s="6">
         <v>1.1627452700682317</v>
       </c>
-      <c r="F2" s="17">
-        <f>I2+J2+K2</f>
+      <c r="G2" s="17">
+        <f>J2+K2+L2</f>
         <v>115.59568987995223</v>
       </c>
-      <c r="G2" s="19">
+      <c r="H2" s="19">
         <v>16.541713240407468</v>
       </c>
-      <c r="H2" s="7">
-        <f>G2+I2+J2+K2</f>
+      <c r="I2" s="7">
+        <f>H2+J2+K2+L2</f>
         <v>132.13740312035969</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>22.658315540738414</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>70.792532233950652</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>22.144842105263159</v>
       </c>
-      <c r="L2" s="18">
+      <c r="M2" s="18">
         <v>1.6424688217475614E-2</v>
       </c>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -904,35 +911,36 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="6">
+      <c r="E3" s="3"/>
+      <c r="F3" s="6">
         <v>1.5364602997788863</v>
       </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F66" si="0">I3+J3+K3</f>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G66" si="0">J3+K3+L3</f>
         <v>141.14109560586013</v>
       </c>
-      <c r="G3" s="17">
+      <c r="H3" s="17">
         <v>19.358541010033999</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H66" si="1">G3+I3+J3+K3</f>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I66" si="1">H3+J3+K3+L3</f>
         <v>160.49963661589413</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>26.570985664399711</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>90.910320467776216</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>23.659789473684214</v>
       </c>
-      <c r="L3" s="18">
+      <c r="M3" s="18">
         <v>1.690083471131856E-2</v>
       </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -941,35 +949,36 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="6">
+      <c r="E4" s="3"/>
+      <c r="F4" s="6">
         <v>2.9722509834421227</v>
       </c>
-      <c r="F4" s="17">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>218.54215217478955</v>
       </c>
-      <c r="G4" s="17">
+      <c r="H4" s="17">
         <v>23.433844920761867</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>241.97599709555141</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>29.886670020468614</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>161.96579794379463</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>26.68968421052632</v>
       </c>
-      <c r="L4" s="18">
+      <c r="M4" s="18">
         <v>1.8351102647446303E-2</v>
       </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -978,35 +987,36 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6">
         <v>4.1953809744252428</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>294.50629113571944</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="17">
         <v>31.700529983099194</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>326.20682111881865</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>38.687406414014518</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>226.09930577433653</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>29.719578947368426</v>
       </c>
-      <c r="L5" s="18">
+      <c r="M5" s="18">
         <v>1.8555479239783852E-2</v>
       </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1015,35 +1025,36 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6">
         <v>2.2713681238171484</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>190.33130731241826</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H6" s="17">
         <v>41.042890250573009</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>231.37419756299127</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>33.617531445506323</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>123.49811961691194</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>33.215656250000002</v>
       </c>
-      <c r="L6" s="18">
+      <c r="M6" s="18">
         <v>1.8391924758554015E-2</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1052,35 +1063,36 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6">
         <v>2.3136982508515511</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>226.17487314460681</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17">
         <v>44.249108766495375</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>270.42398191110215</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>35.318900426856914</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>156.56207271774988</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>34.293900000000001</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M7" s="18">
         <v>1.4778152912057356E-2</v>
       </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1089,35 +1101,36 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6">
         <v>3.7657057193080954</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>299.77086112026819</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="17">
         <v>50.814559150480022</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>350.58542027074822</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>52.566966375035875</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>210.92740686257926</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>36.276487882653058</v>
       </c>
-      <c r="L8" s="18">
+      <c r="M8" s="18">
         <v>1.7853088772676565E-2</v>
       </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1126,35 +1139,36 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
         <v>4.0107868022480995</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>384.38116636198583</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <v>60.643617767807669</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>445.02478412979349</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>62.690593702757795</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>283.30787049086069</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>38.382702168367352</v>
       </c>
-      <c r="L9" s="18">
+      <c r="M9" s="18">
         <v>1.4156990398109975E-2</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1163,35 +1177,36 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6">
         <v>1.7153619250894492</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>218.60929467419101</v>
       </c>
-      <c r="G10" s="21">
+      <c r="H10" s="21">
         <v>72.072382975997556</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>290.68167765018859</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>58.292408385428757</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>119.01265319823156</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>41.304233090530701</v>
       </c>
-      <c r="L10" s="18">
+      <c r="M10" s="18">
         <v>1.441327353850589E-2</v>
       </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1200,35 +1215,36 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6">
         <v>2.3756037035194133</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>261.93328194753809</v>
       </c>
-      <c r="G11" s="21">
+      <c r="H11" s="21">
         <v>74.366725669914146</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>336.3000076174522</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>56.592957718965579</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>161.01992880713649</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>44.320395421436004</v>
       </c>
-      <c r="L11" s="18">
+      <c r="M11" s="18">
         <v>1.4753476300221325E-2</v>
       </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1237,35 +1253,36 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6">
         <v>2.9422360931405427</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>334.92139987761828</v>
       </c>
-      <c r="G12" s="21">
+      <c r="H12" s="21">
         <v>81.499315413244076</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>416.4207152908624</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>71.632508805523315</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>215.92051646231351</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>47.368374609781483</v>
       </c>
-      <c r="L12" s="18">
+      <c r="M12" s="18">
         <v>1.3626477656439272E-2</v>
       </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1274,35 +1291,36 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6">
+      <c r="E13" s="5"/>
+      <c r="F13" s="6">
         <v>4.1741277432368804</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>490.11068810823514</v>
       </c>
-      <c r="G13" s="21">
+      <c r="H13" s="21">
         <v>89.095560550244926</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>579.20624865848004</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>120.82791879477227</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>318.8345986578957</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>50.448170655567125</v>
       </c>
-      <c r="L13" s="18">
+      <c r="M13" s="18">
         <v>1.3091828053816866E-2</v>
       </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1311,36 +1329,37 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6">
         <v>1.0158140665615429</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
         <v>207.0263219734334</v>
       </c>
-      <c r="G14" s="21">
+      <c r="H14" s="21">
         <v>108.76123133208191</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>315.78755330551525</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>64.127868024728031</v>
       </c>
-      <c r="J14" s="8">
+      <c r="K14" s="8">
         <v>82.222768180844596</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>60.675685767860749</v>
       </c>
-      <c r="L14" s="18">
+      <c r="M14" s="18">
         <v>1.2354413370361278E-2</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O14" s="8"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1349,36 +1368,37 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6">
         <v>1.9294352215430886</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>268.44045919348298</v>
       </c>
-      <c r="G15" s="21">
+      <c r="H15" s="21">
         <v>131.02690175991313</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>399.46736095339611</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>78.137341365200129</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>120.6</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>69.703117828282871</v>
       </c>
-      <c r="L15" s="18">
+      <c r="M15" s="18">
         <v>1.5994258510749513E-2</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O15" s="8"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1387,36 +1407,37 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="6">
+      <c r="E16" s="5"/>
+      <c r="F16" s="6">
         <v>2.5781379249700831</v>
       </c>
-      <c r="F16" s="17">
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>322.90822127042827</v>
       </c>
-      <c r="G16" s="21">
+      <c r="H16" s="21">
         <v>146.62131215407294</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>469.52953342450121</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>99.625925089161896</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>144.19999999999999</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>79.082296181266344</v>
       </c>
-      <c r="L16" s="18">
+      <c r="M16" s="18">
         <v>1.7875208766302744E-2</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O16" s="8"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1425,36 +1446,37 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="6">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6">
         <v>4.9685559487575954</v>
       </c>
-      <c r="F17" s="17">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>489.21057834538328</v>
       </c>
-      <c r="G17" s="21">
+      <c r="H17" s="21">
         <v>178.16499787384464</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>667.37557621922792</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>136.71468658046578</v>
       </c>
-      <c r="J17" s="8">
+      <c r="K17" s="8">
         <v>253.6</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>98.895891764917479</v>
       </c>
-      <c r="L17" s="18">
+      <c r="M17" s="18">
         <v>1.9593940124732721E-2</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O17" s="8"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1463,35 +1485,36 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6">
+      <c r="E18" s="5"/>
+      <c r="F18" s="6">
         <v>1.9688180266778259</v>
       </c>
-      <c r="F18" s="17">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>370.30061441220795</v>
       </c>
-      <c r="G18" s="21">
+      <c r="H18" s="21">
         <v>224.04245389884014</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>594.343068311048</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>124.46588531643863</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>124.05781505380665</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>121.77691404196267</v>
       </c>
-      <c r="L18" s="18">
+      <c r="M18" s="18">
         <v>1.5870165259833938E-2</v>
       </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1500,35 +1523,36 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6">
         <v>3.9775398514548348</v>
       </c>
-      <c r="F19" s="17">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>442.83304674573395</v>
       </c>
-      <c r="G19" s="21">
+      <c r="H19" s="21">
         <v>248.68497084518157</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
         <v>691.51801759091541</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>142.44403702579163</v>
       </c>
-      <c r="J19" s="8">
+      <c r="K19" s="8">
         <v>166.96533154176905</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>133.42367817817325</v>
       </c>
-      <c r="L19" s="18">
+      <c r="M19" s="18">
         <v>2.3822549356360186E-2</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1537,35 +1561,36 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="6">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6">
         <v>3.8370021673895156</v>
       </c>
-      <c r="F20" s="17">
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>513.81949582612629</v>
       </c>
-      <c r="G20" s="21">
+      <c r="H20" s="21">
         <v>274.85846441779802</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
         <v>788.67796024392442</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>154.93249581127822</v>
       </c>
-      <c r="J20" s="8">
+      <c r="K20" s="8">
         <v>213.73447211156471</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>145.15252790328344</v>
       </c>
-      <c r="L20" s="18">
+      <c r="M20" s="18">
         <v>1.7952191471419191E-2</v>
       </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1574,35 +1599,36 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
         <v>6.3134857200135484</v>
       </c>
-      <c r="F21" s="17">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>854.18447363946154</v>
       </c>
-      <c r="G21" s="21">
+      <c r="H21" s="21">
         <v>329.66801923001685</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>1183.8524928694785</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>318.02851329297647</v>
       </c>
-      <c r="J21" s="8">
+      <c r="K21" s="8">
         <v>367.29947622628282</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>168.85648412020228</v>
       </c>
-      <c r="L21" s="18">
+      <c r="M21" s="18">
         <v>1.7188931998705026E-2</v>
       </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1611,35 +1637,36 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="6">
+      <c r="E22" s="5"/>
+      <c r="F22" s="6">
         <v>1.6265667264279706</v>
       </c>
-      <c r="F22" s="17">
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>440.55367038265581</v>
       </c>
-      <c r="G22" s="21">
+      <c r="H22" s="21">
         <v>333.24371521034976</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <f t="shared" si="1"/>
         <v>773.79738559300563</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>179.70081827899847</v>
       </c>
-      <c r="J22" s="8">
+      <c r="K22" s="8">
         <v>85.631339731183061</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <v>175.22151237247434</v>
       </c>
-      <c r="L22" s="18">
+      <c r="M22" s="18">
         <v>1.8994993322936981E-2</v>
       </c>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1648,35 +1675,36 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="6">
+      <c r="E23" s="5"/>
+      <c r="F23" s="6">
         <v>2.1841161131224629</v>
       </c>
-      <c r="F23" s="17">
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>477.7838468129836</v>
       </c>
-      <c r="G23" s="21">
+      <c r="H23" s="21">
         <v>328.75996665612973</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>806.54381346911339</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>187.88576031491482</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>109.17220766109308</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>180.72587883697574</v>
       </c>
-      <c r="L23" s="18">
+      <c r="M23" s="18">
         <v>2.0006155045455224E-2</v>
       </c>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1685,35 +1713,36 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6">
+      <c r="E24" s="5"/>
+      <c r="F24" s="6">
         <v>3.3844655203474279</v>
       </c>
-      <c r="F24" s="17">
+      <c r="G24" s="17">
         <f t="shared" si="0"/>
         <v>629.93031116691168</v>
       </c>
-      <c r="G24" s="21">
+      <c r="H24" s="21">
         <v>321.75985729273208</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <f t="shared" si="1"/>
         <v>951.6901684596437</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>221.15182003450499</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>216.82261045691362</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <v>191.95588067549312</v>
       </c>
-      <c r="L24" s="18">
+      <c r="M24" s="18">
         <v>1.5609375393162605E-2</v>
       </c>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1722,35 +1751,36 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="6">
+      <c r="E25" s="5"/>
+      <c r="F25" s="6">
         <v>4.6213064699052584</v>
       </c>
-      <c r="F25" s="17">
+      <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>752.63506132500879</v>
       </c>
-      <c r="G25" s="21">
+      <c r="H25" s="21">
         <v>314.84419606931488</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>1067.4792573943237</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>266.46552628464951</v>
       </c>
-      <c r="J25" s="8">
+      <c r="K25" s="8">
         <v>282.68862731366266</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <v>203.48090772669667</v>
       </c>
-      <c r="L25" s="18">
+      <c r="M25" s="18">
         <v>1.6347691500081456E-2</v>
       </c>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1759,35 +1789,36 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6">
+      <c r="E26" s="5"/>
+      <c r="F26" s="6">
         <v>1.6164953874831245</v>
       </c>
-      <c r="F26" s="17">
+      <c r="G26" s="17">
         <f t="shared" si="0"/>
         <v>509.11691744938508</v>
       </c>
-      <c r="G26" s="21">
+      <c r="H26" s="21">
         <v>317.61049143401834</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <f t="shared" si="1"/>
         <v>826.72740888340331</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>202.99622600821004</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>108.30083316214068</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <v>197.81985827903435</v>
       </c>
-      <c r="L26" s="18">
+      <c r="M26" s="18">
         <v>1.4925973700156277E-2</v>
       </c>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1796,35 +1827,36 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6">
+      <c r="E27" s="5"/>
+      <c r="F27" s="6">
         <v>4.6206402408410963</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <f t="shared" si="0"/>
         <v>694.94925051230859</v>
       </c>
-      <c r="G27" s="21">
+      <c r="H27" s="21">
         <v>315.64366754168566</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>1010.5929180539943</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>203.69035078173943</v>
       </c>
-      <c r="J27" s="8">
+      <c r="K27" s="8">
         <v>300.32475841616736</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <v>190.93414131440178</v>
       </c>
-      <c r="L27" s="18">
+      <c r="M27" s="18">
         <v>1.538547892357966E-2</v>
       </c>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1833,35 +1865,36 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="6">
+      <c r="E28" s="5"/>
+      <c r="F28" s="6">
         <v>5.1736769186997265</v>
       </c>
-      <c r="F28" s="17">
+      <c r="G28" s="17">
         <f t="shared" si="0"/>
         <v>903.45008547654709</v>
       </c>
-      <c r="G28" s="21">
+      <c r="H28" s="21">
         <v>338.86266150138283</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>1242.3127469779301</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>322.63178893799505</v>
       </c>
-      <c r="J28" s="8">
+      <c r="K28" s="8">
         <v>393.28443192870873</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>187.53386460984339</v>
       </c>
-      <c r="L28" s="18">
+      <c r="M28" s="18">
         <v>1.315505140472371E-2</v>
       </c>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1870,35 +1903,36 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="6">
+      <c r="E29" s="5"/>
+      <c r="F29" s="6">
         <v>4.8660778494127257</v>
       </c>
-      <c r="F29" s="17">
+      <c r="G29" s="17">
         <f t="shared" si="0"/>
         <v>954.00712181951258</v>
       </c>
-      <c r="G29" s="21">
+      <c r="H29" s="21">
         <v>314.53638193855289</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>1268.5435037580655</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>341.96503554417831</v>
       </c>
-      <c r="J29" s="8">
+      <c r="K29" s="8">
         <v>427.88011051821076</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L29" s="8">
         <v>184.16197575712354</v>
       </c>
-      <c r="L29" s="18">
+      <c r="M29" s="18">
         <v>1.1372526391842238E-2</v>
       </c>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1907,35 +1941,36 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="6">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6">
         <v>1.5269045829939558</v>
       </c>
-      <c r="F30" s="17">
+      <c r="G30" s="17">
         <f t="shared" si="0"/>
         <v>432.99552052935121</v>
       </c>
-      <c r="G30" s="21">
+      <c r="H30" s="21">
         <v>305.77046749911631</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <f t="shared" si="1"/>
         <v>738.76598802846752</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>176.35294711064623</v>
       </c>
-      <c r="J30" s="8">
+      <c r="K30" s="8">
         <v>83.672917754676547</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>172.96965566402847</v>
       </c>
-      <c r="L30" s="18">
+      <c r="M30" s="18">
         <v>1.8248492152152969E-2</v>
       </c>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1944,35 +1979,36 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6">
+      <c r="E31" s="5"/>
+      <c r="F31" s="6">
         <v>2.3541959632505227</v>
       </c>
-      <c r="F31" s="17">
+      <c r="G31" s="17">
         <f t="shared" si="0"/>
         <v>522.07147332135185</v>
       </c>
-      <c r="G31" s="21">
+      <c r="H31" s="21">
         <v>304.81182757100231</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>826.88330089235421</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>186.38726446003045</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>173.90876092256715</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>161.7754479387543</v>
       </c>
-      <c r="L31" s="18">
+      <c r="M31" s="18">
         <v>1.3536960132208222E-2</v>
       </c>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1981,35 +2017,36 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6">
+      <c r="E32" s="5"/>
+      <c r="F32" s="6">
         <v>3.2806938722467627</v>
       </c>
-      <c r="F32" s="17">
+      <c r="G32" s="17">
         <f t="shared" si="0"/>
         <v>574.66387638742617</v>
       </c>
-      <c r="G32" s="21">
+      <c r="H32" s="21">
         <v>287.91401312397937</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <f t="shared" si="1"/>
         <v>862.5778895114056</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>187.04453869966989</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>236.68259747427618</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>150.93674021348014</v>
       </c>
-      <c r="L32" s="18">
+      <c r="M32" s="18">
         <v>1.3861153744534701E-2</v>
       </c>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2018,35 +2055,36 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6">
+      <c r="E33" s="5"/>
+      <c r="F33" s="6">
         <v>5.6753507578708451</v>
       </c>
-      <c r="F33" s="17">
+      <c r="G33" s="17">
         <f t="shared" si="0"/>
         <v>602.95650647257639</v>
       </c>
-      <c r="G33" s="21">
+      <c r="H33" s="21">
         <v>280.01706239430843</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>882.97356886688476</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>190.28145342214151</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>272.22152056222887</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>140.45353248820595</v>
       </c>
-      <c r="L33" s="18">
+      <c r="M33" s="18">
         <v>2.084828101080818E-2</v>
       </c>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2055,35 +2093,36 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="6">
+      <c r="E34" s="3"/>
+      <c r="F34" s="6">
         <v>1.6221081161985409</v>
       </c>
-      <c r="F34" s="17">
+      <c r="G34" s="17">
         <f t="shared" si="0"/>
         <v>359.37086797838663</v>
       </c>
-      <c r="G34" s="21">
+      <c r="H34" s="21">
         <v>274.43909907688294</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
         <f t="shared" si="1"/>
         <v>633.80996705526957</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>137.30272107976216</v>
       </c>
-      <c r="J34" s="8">
+      <c r="K34" s="8">
         <v>85.556475988754272</v>
       </c>
-      <c r="K34" s="8">
+      <c r="L34" s="8">
         <v>136.51167090987016</v>
       </c>
-      <c r="L34" s="18">
+      <c r="M34" s="18">
         <v>1.8959501282074246E-2</v>
       </c>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2092,35 +2131,36 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="6">
+      <c r="E35" s="3"/>
+      <c r="F35" s="6">
         <v>2.4650546855418862</v>
       </c>
-      <c r="F35" s="17">
+      <c r="G35" s="17">
         <f t="shared" si="0"/>
         <v>478.20865729074592</v>
       </c>
-      <c r="G35" s="21">
+      <c r="H35" s="21">
         <v>272.03205068351315</v>
       </c>
-      <c r="H35" s="7">
+      <c r="I35" s="7">
         <f t="shared" si="1"/>
         <v>750.24070797425907</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>137.98972739031973</v>
       </c>
-      <c r="J35" s="8">
+      <c r="K35" s="8">
         <v>207.13175767846798</v>
       </c>
-      <c r="K35" s="8">
+      <c r="L35" s="8">
         <v>133.08717222195818</v>
       </c>
-      <c r="L35" s="18">
+      <c r="M35" s="18">
         <v>1.1900901692575832E-2</v>
       </c>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2129,31 +2169,32 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="17">
+      <c r="E36" s="3"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="17">
         <f t="shared" si="0"/>
         <v>445.30601702717439</v>
       </c>
-      <c r="G36" s="21">
+      <c r="H36" s="21">
         <v>276.16697801802286</v>
       </c>
-      <c r="H36" s="7">
+      <c r="I36" s="7">
         <f t="shared" si="1"/>
         <v>721.47299504519719</v>
       </c>
-      <c r="I36" s="8">
+      <c r="J36" s="8">
         <v>145.26464180313843</v>
       </c>
-      <c r="J36" s="8">
+      <c r="K36" s="8">
         <v>170.34880168998976</v>
       </c>
-      <c r="K36" s="8">
+      <c r="L36" s="8">
         <v>129.69257353404618</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="18"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2162,35 +2203,36 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="6">
+      <c r="E37" s="3"/>
+      <c r="F37" s="6">
         <v>4.1349515993871195</v>
       </c>
-      <c r="F37" s="17">
+      <c r="G37" s="17">
         <f t="shared" si="0"/>
         <v>539.39382604528066</v>
       </c>
-      <c r="G37" s="21">
+      <c r="H37" s="21">
         <v>260.78141416136225</v>
       </c>
-      <c r="H37" s="7">
+      <c r="I37" s="7">
         <f t="shared" si="1"/>
         <v>800.17524020664291</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>166.8961992406133</v>
       </c>
-      <c r="J37" s="8">
+      <c r="K37" s="8">
         <v>246.16975195853311</v>
       </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>126.32787484613422</v>
       </c>
-      <c r="L37" s="18">
+      <c r="M37" s="18">
         <v>1.6797155485145245E-2</v>
       </c>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2199,35 +2241,36 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="6">
+      <c r="E38" s="3"/>
+      <c r="F38" s="6">
         <v>1.0255086747934585</v>
       </c>
-      <c r="F38" s="17">
+      <c r="G38" s="17">
         <f t="shared" si="0"/>
         <v>103.74158340469441</v>
       </c>
-      <c r="G38" s="22">
+      <c r="H38" s="22">
         <v>9.3326650017171833</v>
       </c>
-      <c r="H38" s="7">
+      <c r="I38" s="7">
         <f t="shared" si="1"/>
         <v>113.07424840641158</v>
       </c>
-      <c r="I38" s="8">
+      <c r="J38" s="8">
         <v>19.01248599103544</v>
       </c>
-      <c r="J38" s="16">
+      <c r="K38" s="16">
         <v>65.584255308395768</v>
       </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>19.144842105263201</v>
       </c>
-      <c r="L38" s="18">
+      <c r="M38" s="18">
         <v>1.5636507115484134E-2</v>
       </c>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2236,35 +2279,36 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="6">
+      <c r="E39" s="3"/>
+      <c r="F39" s="6">
         <v>1.0900231626160473</v>
       </c>
-      <c r="F39" s="17">
+      <c r="G39" s="17">
         <f t="shared" si="0"/>
         <v>107.1778487268371</v>
       </c>
-      <c r="G39" s="23">
+      <c r="H39" s="23">
         <v>10.708837621900109</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
         <f t="shared" si="1"/>
         <v>117.88668634873721</v>
       </c>
-      <c r="I39" s="8">
+      <c r="J39" s="8">
         <v>20.036082575114854</v>
       </c>
-      <c r="J39" s="16">
+      <c r="K39" s="16">
         <v>66.481976678038052</v>
       </c>
-      <c r="K39" s="8">
+      <c r="L39" s="8">
         <v>20.659789473684199</v>
       </c>
-      <c r="L39" s="18">
+      <c r="M39" s="18">
         <v>1.6395769456357491E-2</v>
       </c>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2273,35 +2317,36 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="6">
+      <c r="E40" s="3"/>
+      <c r="F40" s="6">
         <v>1.9654968524484016</v>
       </c>
-      <c r="F40" s="17">
+      <c r="G40" s="17">
         <f t="shared" si="0"/>
         <v>168.43109521541061</v>
       </c>
-      <c r="G40" s="23">
+      <c r="H40" s="23">
         <v>10.947297591283128</v>
       </c>
-      <c r="H40" s="7">
+      <c r="I40" s="7">
         <f t="shared" si="1"/>
         <v>179.37839280669374</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="8">
         <v>21.959779954729875</v>
       </c>
-      <c r="J40" s="16">
+      <c r="K40" s="16">
         <v>122.78163105015442</v>
       </c>
-      <c r="K40" s="8">
+      <c r="L40" s="8">
         <v>23.689684210526298</v>
       </c>
-      <c r="L40" s="18">
+      <c r="M40" s="18">
         <v>1.6008069249752239E-2</v>
       </c>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2310,35 +2355,36 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="6">
+      <c r="E41" s="3"/>
+      <c r="F41" s="6">
         <v>2.9203287185509645</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <f t="shared" si="0"/>
         <v>217.92712753108589</v>
       </c>
-      <c r="G41" s="23">
+      <c r="H41" s="23">
         <v>14.675593893635476</v>
       </c>
-      <c r="H41" s="7">
+      <c r="I41" s="7">
         <f t="shared" si="1"/>
         <v>232.60272142472135</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>23.678586525135007</v>
       </c>
-      <c r="J41" s="16">
+      <c r="K41" s="16">
         <v>167.52896205858247</v>
       </c>
-      <c r="K41" s="8">
+      <c r="L41" s="8">
         <v>26.719578947368401</v>
       </c>
-      <c r="L41" s="18">
+      <c r="M41" s="18">
         <v>1.7431784228029584E-2</v>
       </c>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2347,35 +2393,36 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="6">
+      <c r="E42" s="4"/>
+      <c r="F42" s="6">
         <v>1.4700151669209438</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <f t="shared" si="0"/>
         <v>159.28831617038344</v>
       </c>
-      <c r="G42" s="23">
+      <c r="H42" s="23">
         <v>27.989645148379658</v>
       </c>
-      <c r="H42" s="7">
+      <c r="I42" s="7">
         <f t="shared" si="1"/>
         <v>187.27796131876309</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>22.344630757410716</v>
       </c>
-      <c r="J42" s="16">
+      <c r="K42" s="16">
         <v>106.72802916297272</v>
       </c>
-      <c r="K42" s="8">
+      <c r="L42" s="8">
         <v>30.215656249999999</v>
       </c>
-      <c r="L42" s="18">
+      <c r="M42" s="18">
         <v>1.3773468679687173E-2</v>
       </c>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2384,35 +2431,36 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="6">
+      <c r="E43" s="5"/>
+      <c r="F43" s="6">
         <v>1.5165829869043563</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <f t="shared" si="0"/>
         <v>170.31866030311608</v>
       </c>
-      <c r="G43" s="23">
+      <c r="H43" s="23">
         <v>29.222613669577264</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I43" s="7">
         <f t="shared" si="1"/>
         <v>199.54127397269332</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>21.611842105263158</v>
       </c>
-      <c r="J43" s="16">
+      <c r="K43" s="16">
         <v>115.49497609258974</v>
       </c>
-      <c r="K43" s="16">
+      <c r="L43" s="16">
         <v>33.211842105263159</v>
       </c>
-      <c r="L43" s="18">
+      <c r="M43" s="18">
         <v>1.3131159797708828E-2</v>
       </c>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2421,35 +2469,36 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="6">
+      <c r="E44" s="5"/>
+      <c r="F44" s="6">
         <v>2.3225324703238881</v>
       </c>
-      <c r="F44" s="17">
+      <c r="G44" s="17">
         <f t="shared" si="0"/>
         <v>200.3931537339281</v>
       </c>
-      <c r="G44" s="23">
+      <c r="H44" s="23">
         <v>27.419220055841702</v>
       </c>
-      <c r="H44" s="7">
+      <c r="I44" s="7">
         <f t="shared" si="1"/>
         <v>227.81237378976982</v>
       </c>
-      <c r="I44" s="8">
+      <c r="J44" s="8">
         <v>23.255054067909519</v>
       </c>
-      <c r="J44" s="16">
+      <c r="K44" s="16">
         <v>143.94491189749013</v>
       </c>
-      <c r="K44" s="16">
+      <c r="L44" s="16">
         <v>33.19318776852846</v>
       </c>
-      <c r="L44" s="18">
+      <c r="M44" s="18">
         <v>1.6134870206304143E-2</v>
       </c>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2458,35 +2507,36 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="6">
+      <c r="E45" s="5"/>
+      <c r="F45" s="6">
         <v>1.5086009932166378</v>
       </c>
-      <c r="F45" s="17">
+      <c r="G45" s="17">
         <f t="shared" si="0"/>
         <v>196.07556747147555</v>
       </c>
-      <c r="G45" s="24">
+      <c r="H45" s="24">
         <v>28.851443438476242</v>
       </c>
-      <c r="H45" s="7">
+      <c r="I45" s="7">
         <f t="shared" si="1"/>
         <v>224.92701090995178</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>25.857525125588921</v>
       </c>
-      <c r="J45" s="16">
+      <c r="K45" s="16">
         <v>137.06207262247094</v>
       </c>
-      <c r="K45" s="16">
+      <c r="L45" s="16">
         <v>33.15596972341568</v>
       </c>
-      <c r="L45" s="18">
+      <c r="M45" s="18">
         <v>1.100669911341547E-2</v>
       </c>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2495,35 +2545,36 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="6">
+      <c r="E46" s="5"/>
+      <c r="F46" s="6">
         <v>0.95522759005326863</v>
       </c>
-      <c r="F46" s="17">
+      <c r="G46" s="17">
         <f t="shared" si="0"/>
         <v>166.49970621336197</v>
       </c>
-      <c r="G46" s="17">
+      <c r="H46" s="17">
         <v>43.771512250889103</v>
       </c>
-      <c r="H46" s="7">
+      <c r="I46" s="7">
         <f t="shared" si="1"/>
         <v>210.27121846425106</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>33.50983946094798</v>
       </c>
-      <c r="J46" s="16">
+      <c r="K46" s="16">
         <v>100.81529023298346</v>
       </c>
-      <c r="K46" s="16">
+      <c r="L46" s="16">
         <v>32.174576519430524</v>
       </c>
-      <c r="L46" s="18">
+      <c r="M46" s="18">
         <v>9.4750269313885246E-3</v>
       </c>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2532,35 +2583,36 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="6">
+      <c r="E47" s="5"/>
+      <c r="F47" s="6">
         <v>1.1416792162434337</v>
       </c>
-      <c r="F47" s="17">
+      <c r="G47" s="17">
         <f t="shared" si="0"/>
         <v>154.93930756292406</v>
       </c>
-      <c r="G47" s="17">
+      <c r="H47" s="17">
         <v>46.989373423226809</v>
       </c>
-      <c r="H47" s="7">
+      <c r="I47" s="7">
         <f t="shared" si="1"/>
         <v>201.92868098615088</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>21.339083473741976</v>
       </c>
-      <c r="J47" s="16">
+      <c r="K47" s="16">
         <v>102.59589544977203</v>
       </c>
-      <c r="K47" s="16">
+      <c r="L47" s="16">
         <v>31.004328639410062</v>
       </c>
-      <c r="L47" s="18">
+      <c r="M47" s="18">
         <v>1.1127922917758116E-2</v>
       </c>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2569,35 +2621,36 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="6">
+      <c r="E48" s="5"/>
+      <c r="F48" s="6">
         <v>0.6800982795639734</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <f t="shared" si="0"/>
         <v>167.00076922899595</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H48" s="17">
         <v>55.305786912370039</v>
       </c>
-      <c r="H48" s="7">
+      <c r="I48" s="7">
         <f t="shared" si="1"/>
         <v>222.306556141366</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>29.341317216388017</v>
       </c>
-      <c r="J48" s="16">
+      <c r="K48" s="16">
         <v>107.94666084010393</v>
       </c>
-      <c r="K48" s="16">
+      <c r="L48" s="16">
         <v>29.712791172504012</v>
       </c>
-      <c r="L48" s="18">
+      <c r="M48" s="18">
         <v>6.3003179002578827E-3</v>
       </c>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2606,35 +2659,36 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="6">
+      <c r="E49" s="5"/>
+      <c r="F49" s="6">
         <v>1.1575579496061055</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <f t="shared" si="0"/>
         <v>180.27527183114259</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H49" s="17">
         <v>51.517829008800547</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I49" s="7">
         <f t="shared" si="1"/>
         <v>231.79310083994315</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>19.747910871328411</v>
       </c>
-      <c r="J49" s="16">
+      <c r="K49" s="16">
         <v>132.22739684110184</v>
       </c>
-      <c r="K49" s="16">
+      <c r="L49" s="16">
         <v>28.29996411871236</v>
       </c>
-      <c r="L49" s="18">
+      <c r="M49" s="18">
         <v>8.7542973488100011E-3</v>
       </c>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2643,35 +2697,36 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="6">
+      <c r="E50" s="5"/>
+      <c r="F50" s="6">
         <v>1.8281296751027236</v>
       </c>
-      <c r="F50" s="17">
+      <c r="G50" s="17">
         <f t="shared" si="0"/>
         <v>150.88297021811445</v>
       </c>
-      <c r="G50" s="17">
+      <c r="H50" s="17">
         <v>51.211665678381735</v>
       </c>
-      <c r="H50" s="7">
+      <c r="I50" s="7">
         <f t="shared" si="1"/>
         <v>202.09463589649619</v>
       </c>
-      <c r="I50" s="8">
+      <c r="J50" s="8">
         <v>22.786382754136174</v>
       </c>
-      <c r="J50" s="16">
+      <c r="K50" s="16">
         <v>96.760719811172379</v>
       </c>
-      <c r="K50" s="16">
+      <c r="L50" s="16">
         <v>31.335867652805902</v>
       </c>
-      <c r="L50" s="18">
+      <c r="M50" s="18">
         <v>1.564366262724275E-2</v>
       </c>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2680,35 +2735,36 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="6">
+      <c r="E51" s="5"/>
+      <c r="F51" s="6">
         <v>2.9357504688746867</v>
       </c>
-      <c r="F51" s="17">
+      <c r="G51" s="17">
         <f t="shared" si="0"/>
         <v>235.83124781757931</v>
       </c>
-      <c r="G51" s="17">
+      <c r="H51" s="17">
         <v>54.137879960553377</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I51" s="7">
         <f t="shared" si="1"/>
         <v>289.9691277781327</v>
       </c>
-      <c r="I51" s="8">
+      <c r="J51" s="8">
         <v>32.321170109272103</v>
       </c>
-      <c r="J51" s="16">
+      <c r="K51" s="16">
         <v>168.05112405109648</v>
       </c>
-      <c r="K51" s="16">
+      <c r="L51" s="16">
         <v>35.458953657210714</v>
       </c>
-      <c r="L51" s="18">
+      <c r="M51" s="18">
         <v>1.5603151369307901E-2</v>
       </c>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2717,31 +2773,32 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="17">
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="17">
         <f t="shared" si="0"/>
         <v>320.16894259941478</v>
       </c>
-      <c r="G52" s="17">
+      <c r="H52" s="17">
         <v>55.478518894038892</v>
       </c>
-      <c r="H52" s="7">
+      <c r="I52" s="7">
         <f t="shared" si="1"/>
         <v>375.64746149345365</v>
       </c>
-      <c r="I52" s="8">
+      <c r="J52" s="8">
         <v>39.407696643430356</v>
       </c>
-      <c r="J52" s="16">
+      <c r="K52" s="16">
         <v>240.84392094603558</v>
       </c>
-      <c r="K52" s="16">
+      <c r="L52" s="16">
         <v>39.917325009948861</v>
       </c>
-      <c r="L52" s="18"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M52" s="18"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2750,17 +2807,18 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="16"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
       <c r="K53" s="16"/>
-      <c r="L53" s="18"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L53" s="16"/>
+      <c r="M53" s="18"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2769,36 +2827,37 @@
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="6">
+      <c r="E54" s="5"/>
+      <c r="F54" s="6">
         <v>1.2777706735851757</v>
       </c>
-      <c r="F54" s="17">
+      <c r="G54" s="17">
         <f t="shared" si="0"/>
         <v>213.86303095404526</v>
       </c>
-      <c r="G54" s="17">
+      <c r="H54" s="17">
         <v>87.446823532517044</v>
       </c>
-      <c r="H54" s="7">
+      <c r="I54" s="7">
         <f t="shared" si="1"/>
         <v>301.30985448656224</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>47.49292566917218</v>
       </c>
-      <c r="J54" s="16">
+      <c r="K54" s="16">
         <v>86.415960087278705</v>
       </c>
-      <c r="K54" s="16">
+      <c r="L54" s="16">
         <v>79.954145197594343</v>
       </c>
-      <c r="L54" s="18">
+      <c r="M54" s="18">
         <v>1.4786281056122596E-2</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O54" s="8"/>
+      <c r="P54" s="17"/>
+    </row>
+    <row r="55" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -2807,36 +2866,37 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="6">
+      <c r="E55" s="5"/>
+      <c r="F55" s="6">
         <v>2.50054452533093</v>
       </c>
-      <c r="F55" s="17">
+      <c r="G55" s="17">
         <f t="shared" si="0"/>
         <v>289.83642149198471</v>
       </c>
-      <c r="G55" s="17">
+      <c r="H55" s="17">
         <v>105.70154794153912</v>
       </c>
-      <c r="H55" s="7">
+      <c r="I55" s="7">
         <f t="shared" si="1"/>
         <v>395.53796943352381</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>61.073490617572659</v>
       </c>
-      <c r="J55" s="16">
+      <c r="K55" s="16">
         <v>137.16202154060713</v>
       </c>
-      <c r="K55" s="16">
+      <c r="L55" s="16">
         <v>91.600909333804921</v>
       </c>
-      <c r="L55" s="18">
+      <c r="M55" s="18">
         <v>1.8230589613981725E-2</v>
       </c>
-      <c r="N55" s="8"/>
-      <c r="O55" s="17"/>
-    </row>
-    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O55" s="8"/>
+      <c r="P55" s="17"/>
+    </row>
+    <row r="56" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2845,36 +2905,37 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="6">
+      <c r="E56" s="5"/>
+      <c r="F56" s="6">
         <v>3.5122812357977438</v>
       </c>
-      <c r="F56" s="17">
+      <c r="G56" s="17">
         <f t="shared" si="0"/>
         <v>380.15984918302991</v>
       </c>
-      <c r="G56" s="17">
+      <c r="H56" s="17">
         <v>118.05098732820473</v>
       </c>
-      <c r="H56" s="7">
+      <c r="I56" s="7">
         <f t="shared" si="1"/>
         <v>498.21083651123467</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>62.129269254745473</v>
       </c>
-      <c r="J56" s="16">
+      <c r="K56" s="16">
         <v>214.70082086936935</v>
       </c>
-      <c r="K56" s="16">
+      <c r="L56" s="16">
         <v>103.32975905891512</v>
       </c>
-      <c r="L56" s="18">
+      <c r="M56" s="18">
         <v>1.6358955785896714E-2</v>
       </c>
-      <c r="N56" s="8"/>
-      <c r="O56" s="17"/>
-    </row>
-    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O56" s="8"/>
+      <c r="P56" s="17"/>
+    </row>
+    <row r="57" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -2883,36 +2944,37 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="6">
+      <c r="E57" s="5"/>
+      <c r="F57" s="6">
         <v>6.2400375653439077</v>
       </c>
-      <c r="F57" s="17">
+      <c r="G57" s="17">
         <f t="shared" si="0"/>
         <v>694.95921410312837</v>
       </c>
-      <c r="G57" s="17">
+      <c r="H57" s="17">
         <v>151.35629251700681</v>
       </c>
-      <c r="H57" s="7">
+      <c r="I57" s="7">
         <f t="shared" si="1"/>
         <v>846.31550662013524</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>166.08020360049238</v>
       </c>
-      <c r="J57" s="16">
+      <c r="K57" s="16">
         <v>401.84529522680208</v>
       </c>
-      <c r="K57" s="16">
+      <c r="L57" s="16">
         <v>127.03371527583396</v>
       </c>
-      <c r="L57" s="18">
+      <c r="M57" s="18">
         <v>1.5528457442364783E-2</v>
       </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="17"/>
-    </row>
-    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O57" s="8"/>
+      <c r="P57" s="17"/>
+    </row>
+    <row r="58" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -2921,36 +2983,37 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="6">
+      <c r="E58" s="5"/>
+      <c r="F58" s="6">
         <v>1.76026111849907</v>
       </c>
-      <c r="F58" s="17">
+      <c r="G58" s="17">
         <f t="shared" si="0"/>
         <v>293.2022254838588</v>
       </c>
-      <c r="G58" s="17">
+      <c r="H58" s="17">
         <v>167.82920836786303</v>
       </c>
-      <c r="H58" s="7">
+      <c r="I58" s="7">
         <f t="shared" si="1"/>
         <v>461.03143385172183</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>69.439518948942265</v>
       </c>
-      <c r="J58" s="16">
+      <c r="K58" s="16">
         <v>90.363963006810494</v>
       </c>
-      <c r="K58" s="16">
+      <c r="L58" s="16">
         <v>133.39874352810602</v>
       </c>
-      <c r="L58" s="18">
+      <c r="M58" s="18">
         <v>1.9479680393902198E-2</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="17"/>
-    </row>
-    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O58" s="8"/>
+      <c r="P58" s="17"/>
+    </row>
+    <row r="59" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2959,36 +3022,37 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="6">
+      <c r="E59" s="5"/>
+      <c r="F59" s="6">
         <v>3.0353302143379719</v>
       </c>
-      <c r="F59" s="17">
+      <c r="G59" s="17">
         <f t="shared" si="0"/>
         <v>378.0196648854631</v>
       </c>
-      <c r="G59" s="17">
+      <c r="H59" s="17">
         <v>172.24948433873621</v>
       </c>
-      <c r="H59" s="7">
+      <c r="I59" s="7">
         <f t="shared" si="1"/>
         <v>550.26914922419928</v>
       </c>
-      <c r="I59" s="8">
+      <c r="J59" s="8">
         <v>89.908351037263813</v>
       </c>
-      <c r="J59" s="16">
+      <c r="K59" s="16">
         <v>149.20820385559188</v>
       </c>
-      <c r="K59" s="16">
+      <c r="L59" s="16">
         <v>138.90310999260743</v>
       </c>
-      <c r="L59" s="18">
+      <c r="M59" s="18">
         <v>2.0342917721036666E-2</v>
       </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="17"/>
-    </row>
-    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O59" s="8"/>
+      <c r="P59" s="17"/>
+    </row>
+    <row r="60" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -2997,36 +3061,37 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="6">
+      <c r="E60" s="5"/>
+      <c r="F60" s="6">
         <v>4.0616250477659346</v>
       </c>
-      <c r="F60" s="17">
+      <c r="G60" s="17">
         <f t="shared" si="0"/>
         <v>559.40741325839133</v>
       </c>
-      <c r="G60" s="17">
+      <c r="H60" s="17">
         <v>186.26242261122471</v>
       </c>
-      <c r="H60" s="7">
+      <c r="I60" s="7">
         <f t="shared" si="1"/>
         <v>745.66983586961612</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="8">
         <v>161.92731464334025</v>
       </c>
-      <c r="J60" s="16">
+      <c r="K60" s="16">
         <v>247.34698678392633</v>
       </c>
-      <c r="K60" s="16">
+      <c r="L60" s="16">
         <v>150.13311183112481</v>
       </c>
-      <c r="L60" s="18">
+      <c r="M60" s="18">
         <v>1.6420758144565669E-2</v>
       </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="17"/>
-    </row>
-    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O60" s="8"/>
+      <c r="P60" s="17"/>
+    </row>
+    <row r="61" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -3035,34 +3100,35 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="6">
+      <c r="E61" s="5"/>
+      <c r="F61" s="6">
         <v>2.423532310337797</v>
       </c>
-      <c r="F61" s="17">
+      <c r="G61" s="17">
         <f t="shared" si="0"/>
         <v>678.22927836688154</v>
       </c>
-      <c r="G61" s="17">
+      <c r="H61" s="17">
         <v>196.28826208772409</v>
       </c>
-      <c r="H61" s="7">
+      <c r="I61" s="7">
         <f t="shared" si="1"/>
         <v>874.51754045460552</v>
       </c>
-      <c r="I61" s="8">
+      <c r="J61" s="8">
         <v>215.41101377732548</v>
       </c>
-      <c r="J61" s="16">
+      <c r="K61" s="16">
         <v>301.16012570722768</v>
       </c>
-      <c r="K61" s="16">
+      <c r="L61" s="16">
         <v>161.65813888232836</v>
       </c>
-      <c r="L61" s="18"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="17"/>
-    </row>
-    <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="M61" s="18"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="17"/>
+    </row>
+    <row r="62" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -3071,36 +3137,37 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="6">
+      <c r="E62" s="5"/>
+      <c r="F62" s="6">
         <v>1.4654190436972745</v>
       </c>
-      <c r="F62" s="17">
+      <c r="G62" s="17">
         <f t="shared" si="0"/>
         <v>389.87175859073125</v>
       </c>
-      <c r="G62" s="17">
+      <c r="H62" s="17">
         <v>202.94703702995821</v>
       </c>
-      <c r="H62" s="7">
+      <c r="I62" s="7">
         <f t="shared" si="1"/>
         <v>592.81879562068934</v>
       </c>
-      <c r="I62" s="8">
+      <c r="J62" s="8">
         <v>129.93917900576278</v>
       </c>
-      <c r="J62" s="16">
+      <c r="K62" s="16">
         <v>103.9354901503024</v>
       </c>
-      <c r="K62" s="16">
+      <c r="L62" s="16">
         <v>155.99708943466604</v>
       </c>
-      <c r="L62" s="18">
+      <c r="M62" s="18">
         <v>1.4099313348867784E-2</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="17"/>
-    </row>
-    <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O62" s="8"/>
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3109,36 +3176,37 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="6">
+      <c r="E63" s="5"/>
+      <c r="F63" s="6">
         <v>2.9215959912831231</v>
       </c>
-      <c r="F63" s="17">
+      <c r="G63" s="17">
         <f t="shared" si="0"/>
         <v>550.40287678009895</v>
       </c>
-      <c r="G63" s="17">
+      <c r="H63" s="17">
         <v>223.03613279192655</v>
       </c>
-      <c r="H63" s="7">
+      <c r="I63" s="7">
         <f t="shared" si="1"/>
         <v>773.4390095720255</v>
       </c>
-      <c r="I63" s="8">
+      <c r="J63" s="8">
         <v>187.39511653997602</v>
       </c>
-      <c r="J63" s="16">
+      <c r="K63" s="16">
         <v>213.89638777008946</v>
       </c>
-      <c r="K63" s="16">
+      <c r="L63" s="16">
         <v>149.11137247003347</v>
       </c>
-      <c r="L63" s="18">
+      <c r="M63" s="18">
         <v>1.3658930951295238E-2</v>
       </c>
-      <c r="N63" s="8"/>
-      <c r="O63" s="17"/>
-    </row>
-    <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O63" s="8"/>
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3147,36 +3215,37 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="6">
+      <c r="E64" s="5"/>
+      <c r="F64" s="6">
         <v>5.1874223858942248</v>
       </c>
-      <c r="F64" s="17">
+      <c r="G64" s="17">
         <f t="shared" si="0"/>
         <v>734.77932373517399</v>
       </c>
-      <c r="G64" s="17">
+      <c r="H64" s="17">
         <v>229.48042647340088</v>
       </c>
-      <c r="H64" s="7">
+      <c r="I64" s="7">
         <f t="shared" si="1"/>
         <v>964.25975020857493</v>
       </c>
-      <c r="I64" s="8">
+      <c r="J64" s="8">
         <v>242.51763252837591</v>
       </c>
-      <c r="J64" s="16">
+      <c r="K64" s="16">
         <v>346.55059544132303</v>
       </c>
-      <c r="K64" s="16">
+      <c r="L64" s="16">
         <v>145.71109576547508</v>
       </c>
-      <c r="L64" s="18">
+      <c r="M64" s="18">
         <v>1.4968730263724351E-2</v>
       </c>
-      <c r="N64" s="8"/>
-      <c r="O64" s="17"/>
-    </row>
-    <row r="65" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O64" s="8"/>
+      <c r="P64" s="17"/>
+    </row>
+    <row r="65" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3185,36 +3254,37 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="6">
+      <c r="E65" s="5"/>
+      <c r="F65" s="6">
         <v>4.0837125410831252</v>
       </c>
-      <c r="F65" s="17">
+      <c r="G65" s="17">
         <f t="shared" si="0"/>
         <v>771.08853016702949</v>
       </c>
-      <c r="G65" s="17">
+      <c r="H65" s="17">
         <v>209.24298751272914</v>
       </c>
-      <c r="H65" s="7">
+      <c r="I65" s="7">
         <f t="shared" si="1"/>
         <v>980.33151767975869</v>
       </c>
-      <c r="I65" s="8">
+      <c r="J65" s="8">
         <v>263.74736752874799</v>
       </c>
-      <c r="J65" s="16">
+      <c r="K65" s="16">
         <v>365.00195572552633</v>
       </c>
-      <c r="K65" s="16">
+      <c r="L65" s="16">
         <v>142.33920691275523</v>
       </c>
-      <c r="L65" s="18">
+      <c r="M65" s="18">
         <v>1.1188193589170765E-2</v>
       </c>
-      <c r="N65" s="8"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O65" s="8"/>
+      <c r="P65" s="17"/>
+    </row>
+    <row r="66" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3223,36 +3293,37 @@
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="6">
+      <c r="E66" s="5"/>
+      <c r="F66" s="6">
         <v>1.3350681908928519</v>
       </c>
-      <c r="F66" s="17">
+      <c r="G66" s="17">
         <f t="shared" si="0"/>
         <v>342.12519232810121</v>
       </c>
-      <c r="G66" s="17">
+      <c r="H66" s="17">
         <v>214.01714705953856</v>
       </c>
-      <c r="H66" s="7">
+      <c r="I66" s="7">
         <f t="shared" si="1"/>
         <v>556.14233938763982</v>
       </c>
-      <c r="I66" s="8">
+      <c r="J66" s="8">
         <v>115.85631467962678</v>
       </c>
-      <c r="J66" s="16">
+      <c r="K66" s="16">
         <v>95.121990828814276</v>
       </c>
-      <c r="K66" s="16">
+      <c r="L66" s="16">
         <v>131.14688681966015</v>
       </c>
-      <c r="L66" s="18">
+      <c r="M66" s="18">
         <v>1.4035326418845665E-2</v>
       </c>
-      <c r="N66" s="8"/>
-      <c r="O66" s="17"/>
-    </row>
-    <row r="67" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O66" s="8"/>
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -3261,35 +3332,36 @@
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="6">
+      <c r="E67" s="5"/>
+      <c r="F67" s="6">
         <v>1.9535133389340009</v>
       </c>
-      <c r="F67" s="17">
-        <f t="shared" ref="F67:F73" si="2">I67+J67+K67</f>
+      <c r="G67" s="17">
+        <f t="shared" ref="G67:G73" si="2">J67+K67+L67</f>
         <v>460.99560525978569</v>
       </c>
-      <c r="G67" s="17">
+      <c r="H67" s="17">
         <v>204.84619646072369</v>
       </c>
-      <c r="H67" s="7">
-        <f t="shared" ref="H67:H72" si="3">G67+I67+J67+K67</f>
+      <c r="I67" s="7">
+        <f t="shared" ref="I67:I72" si="3">H67+J67+K67+L67</f>
         <v>665.84180172050935</v>
       </c>
-      <c r="I67" s="8">
+      <c r="J67" s="8">
         <v>166.67326440586095</v>
       </c>
-      <c r="J67" s="16">
+      <c r="K67" s="16">
         <v>174.36966175953876</v>
       </c>
-      <c r="K67" s="16">
+      <c r="L67" s="16">
         <v>119.95267909438599</v>
       </c>
-      <c r="L67" s="18">
+      <c r="M67" s="18">
         <v>1.1203286851745788E-2</v>
       </c>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O67" s="8"/>
+    </row>
+    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3298,35 +3370,36 @@
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="6">
+      <c r="E68" s="5"/>
+      <c r="F68" s="6">
         <v>3.7370049551820728</v>
       </c>
-      <c r="F68" s="17">
+      <c r="G68" s="17">
         <f t="shared" si="2"/>
         <v>415.81811731238281</v>
       </c>
-      <c r="G68" s="17">
+      <c r="H68" s="17">
         <v>198.77836781126604</v>
       </c>
-      <c r="H68" s="7">
+      <c r="I68" s="7">
         <f t="shared" si="3"/>
         <v>614.59648512364879</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>112.08231665991494</v>
       </c>
-      <c r="J68" s="16">
+      <c r="K68" s="16">
         <v>194.62182928335602</v>
       </c>
-      <c r="K68" s="16">
+      <c r="L68" s="16">
         <v>109.11397136911182</v>
       </c>
-      <c r="L68" s="18">
+      <c r="M68" s="18">
         <v>1.9201365894784855E-2</v>
       </c>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3335,35 +3408,36 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="6">
+      <c r="E69" s="5"/>
+      <c r="F69" s="6">
         <v>3.7214351336979701</v>
       </c>
-      <c r="F69" s="17">
+      <c r="G69" s="17">
         <f t="shared" si="2"/>
         <v>512.42039857972611</v>
       </c>
-      <c r="G69" s="17">
+      <c r="H69" s="17">
         <v>189.25146683673472</v>
       </c>
-      <c r="H69" s="7">
+      <c r="I69" s="7">
         <f t="shared" si="3"/>
         <v>701.67186541646072</v>
       </c>
-      <c r="I69" s="8">
+      <c r="J69" s="8">
         <v>181.52553461484709</v>
       </c>
-      <c r="J69" s="16">
+      <c r="K69" s="16">
         <v>232.26410032104133</v>
       </c>
-      <c r="K69" s="16">
+      <c r="L69" s="16">
         <v>98.630763643837639</v>
       </c>
-      <c r="L69" s="18">
+      <c r="M69" s="18">
         <v>1.6022429331756859E-2</v>
       </c>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3372,35 +3446,36 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="6">
+      <c r="E70" s="3"/>
+      <c r="F70" s="6">
         <v>1.508351325558432</v>
       </c>
-      <c r="F70" s="17">
+      <c r="G70" s="17">
         <f t="shared" si="2"/>
         <v>261.50301513009822</v>
       </c>
-      <c r="G70" s="17">
+      <c r="H70" s="17">
         <v>183.86798469387756</v>
       </c>
-      <c r="H70" s="7">
+      <c r="I70" s="7">
         <f t="shared" si="3"/>
         <v>445.37099982397581</v>
       </c>
-      <c r="I70" s="8">
+      <c r="J70" s="8">
         <v>87.441718729281277</v>
       </c>
-      <c r="J70" s="16">
+      <c r="K70" s="16">
         <v>79.372394335315107</v>
       </c>
-      <c r="K70" s="16">
+      <c r="L70" s="16">
         <v>94.68890206550185</v>
       </c>
-      <c r="L70" s="18">
+      <c r="M70" s="18">
         <v>1.9003475177859441E-2</v>
       </c>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -3409,35 +3484,36 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="6">
+      <c r="E71" s="3"/>
+      <c r="F71" s="6">
         <v>2.4455929239980505</v>
       </c>
-      <c r="F71" s="17">
+      <c r="G71" s="17">
         <f t="shared" si="2"/>
         <v>360.27734869222979</v>
       </c>
-      <c r="G71" s="17">
+      <c r="H71" s="17">
         <v>189.4922742604592</v>
       </c>
-      <c r="H71" s="7">
+      <c r="I71" s="7">
         <f t="shared" si="3"/>
         <v>549.76962295268902</v>
       </c>
-      <c r="I71" s="8">
+      <c r="J71" s="8">
         <v>104.17467686277537</v>
       </c>
-      <c r="J71" s="16">
+      <c r="K71" s="16">
         <v>164.83826845186456</v>
       </c>
-      <c r="K71" s="16">
+      <c r="L71" s="16">
         <v>91.264403377589872</v>
       </c>
-      <c r="L71" s="18">
+      <c r="M71" s="18">
         <v>1.4836317725044552E-2</v>
       </c>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3446,31 +3522,32 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="17">
+      <c r="E72" s="3"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="17">
         <f t="shared" si="2"/>
         <v>319.56811318212328</v>
       </c>
-      <c r="G72" s="17">
+      <c r="H72" s="17">
         <v>172.96084183673469</v>
       </c>
-      <c r="H72" s="7">
+      <c r="I72" s="7">
         <f t="shared" si="3"/>
         <v>492.52895501885791</v>
       </c>
-      <c r="I72" s="8">
+      <c r="J72" s="8">
         <v>91.049518557646337</v>
       </c>
-      <c r="J72" s="16">
+      <c r="K72" s="16">
         <v>140.64878993479905</v>
       </c>
-      <c r="K72" s="16">
+      <c r="L72" s="16">
         <v>87.869804689677864</v>
       </c>
-      <c r="L72" s="18"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M72" s="18"/>
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3479,35 +3556,36 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="6">
+      <c r="E73" s="3"/>
+      <c r="F73" s="6">
         <v>3.0857272316323492</v>
       </c>
-      <c r="F73" s="17">
+      <c r="G73" s="17">
         <f t="shared" si="2"/>
         <v>347.02171255568589</v>
       </c>
-      <c r="G73" s="17">
+      <c r="H73" s="17">
         <v>173.62594289637812</v>
       </c>
-      <c r="H73" s="7">
-        <f>G73+I73+J73+K73</f>
+      <c r="I73" s="7">
+        <f>H73+J73+K73+L73</f>
         <v>520.6476554520641</v>
       </c>
-      <c r="I73" s="8">
+      <c r="J73" s="8">
         <v>106.50712316560491</v>
       </c>
-      <c r="J73" s="16">
+      <c r="K73" s="16">
         <v>156.00948338831509</v>
       </c>
-      <c r="K73" s="16">
+      <c r="L73" s="16">
         <v>84.50510600176591</v>
       </c>
-      <c r="L73" s="18">
+      <c r="M73" s="18">
         <v>1.9779100376557408E-2</v>
       </c>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3516,18 +3594,19 @@
       </c>
       <c r="C74" s="54"/>
       <c r="D74" s="54"/>
-      <c r="E74" s="15">
+      <c r="E74" s="54"/>
+      <c r="F74" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>279.125</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>279.125</v>
       </c>
-      <c r="N74" s="17"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="17"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -3536,17 +3615,18 @@
       </c>
       <c r="C75" s="54"/>
       <c r="D75" s="54"/>
-      <c r="E75" s="15">
+      <c r="E75" s="54"/>
+      <c r="F75" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>185.61249928706056</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>185.61249928706056</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -3555,17 +3635,18 @@
       </c>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
-      <c r="E76" s="15">
+      <c r="E76" s="54"/>
+      <c r="F76" s="15">
         <v>3.3249177714992393</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>712.52166750351591</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>712.52166750351591</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -3574,17 +3655,18 @@
       </c>
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
-      <c r="E77" s="15">
+      <c r="E77" s="54"/>
+      <c r="F77" s="15">
         <v>1.2627875536134012</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>151.56833452341459</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>151.56833452341459</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -3593,17 +3675,18 @@
       </c>
       <c r="C78" s="54"/>
       <c r="D78" s="54"/>
-      <c r="E78" s="15">
+      <c r="E78" s="54"/>
+      <c r="F78" s="15">
         <v>0.31340395115999525</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>40.299999261980915</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>40.299999261980915</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -3612,17 +3695,18 @@
       </c>
       <c r="C79" s="54"/>
       <c r="D79" s="54"/>
-      <c r="E79" s="15">
+      <c r="E79" s="54"/>
+      <c r="F79" s="15">
         <v>8.8065756201301679E-2</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>15.432499986495822</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>15.432499986495822</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -3631,20 +3715,21 @@
       </c>
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
-      <c r="E80" s="15">
+      <c r="E80" s="54"/>
+      <c r="F80" s="15">
         <v>0.57960046249025299</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>136.28931378275743</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>6.1240188652617249</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>142.41333264801915</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -3653,20 +3738,21 @@
       </c>
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
-      <c r="E81" s="15">
+      <c r="E81" s="54"/>
+      <c r="F81" s="15">
         <v>0.57009565131179574</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>177.42210032563258</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.66373235670370012</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>178.08583268233627</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -3675,20 +3761,21 @@
       </c>
       <c r="C82" s="54"/>
       <c r="D82" s="54"/>
-      <c r="E82" s="15">
+      <c r="E82" s="54"/>
+      <c r="F82" s="15">
         <v>1.5124537228643689</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>329.13026413832915</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>10.941399430176659</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>340.07166356850581</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -3697,20 +3784,21 @@
       </c>
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
-      <c r="E83" s="15">
+      <c r="E83" s="54"/>
+      <c r="F83" s="15">
         <v>0.10746124806404091</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>16.490000153183935</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>29.074999332427979</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>45.564999485611914</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -3719,20 +3807,21 @@
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
-      <c r="E84" s="15">
+      <c r="E84" s="54"/>
+      <c r="F84" s="15">
         <v>1.5132167418472628E-2</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>6.2916667083154127</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>8.0599998633066807</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>14.351666571622093</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3741,20 +3830,21 @@
       </c>
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
-      <c r="E85" s="15">
+      <c r="E85" s="54"/>
+      <c r="F85" s="15">
         <v>0.32047536606106819</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>84.761927836414628</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>19.108071797314146</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>103.86999963372878</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -3763,20 +3853,21 @@
       </c>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
-      <c r="E86" s="15">
+      <c r="E86" s="54"/>
+      <c r="F86" s="15">
         <v>0.2590842874680685</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>118.47101497811904</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>24.658985344673077</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>143.13000032279211</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -3785,20 +3876,21 @@
       </c>
       <c r="C87" s="54"/>
       <c r="D87" s="54"/>
-      <c r="E87" s="15">
+      <c r="E87" s="54"/>
+      <c r="F87" s="15">
         <v>0.17122318279367721</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>50.102148368189866</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>74.467853818319611</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>124.57000218650947</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -3807,20 +3899,21 @@
       </c>
       <c r="C88" s="54"/>
       <c r="D88" s="54"/>
-      <c r="E88" s="15">
+      <c r="E88" s="54"/>
+      <c r="F88" s="15">
         <v>0.80027162282084241</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>244.47250160864451</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>2.1212500482797623</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>246.59375165692427</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -3829,20 +3922,21 @@
       </c>
       <c r="C89" s="54"/>
       <c r="D89" s="54"/>
-      <c r="E89" s="15">
+      <c r="E89" s="54"/>
+      <c r="F89" s="15">
         <v>0.37404237919985944</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>199.01274884178898</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>49.037254804040437</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>248.05000364582941</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -3851,20 +3945,21 @@
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
-      <c r="E90" s="15">
+      <c r="E90" s="54"/>
+      <c r="F90" s="15">
         <v>0.19451453056528648</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>36.216536341575328</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>21.177214834610062</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>57.39375117618539</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -3873,20 +3968,21 @@
       </c>
       <c r="C91" s="54"/>
       <c r="D91" s="54"/>
-      <c r="E91" s="15">
+      <c r="E91" s="54"/>
+      <c r="F91" s="15">
         <v>1.0155370907728429</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>236.27841363119259</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>204.00491913476645</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>440.28333276595902</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -3895,20 +3991,21 @@
       </c>
       <c r="C92" s="54"/>
       <c r="D92" s="54"/>
-      <c r="E92" s="15">
+      <c r="E92" s="54"/>
+      <c r="F92" s="15">
         <v>0.98371092557540329</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>240.71245033418776</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>197.84838697295254</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>438.56083730714033</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -3917,20 +4014,21 @@
       </c>
       <c r="C93" s="54"/>
       <c r="D93" s="54"/>
-      <c r="E93" s="15">
+      <c r="E93" s="54"/>
+      <c r="F93" s="15">
         <v>0.33889408063711235</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>125.17417928321069</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>3.0274881593108156</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>128.20166744252151</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -3939,20 +4037,21 @@
       </c>
       <c r="C94" s="54"/>
       <c r="D94" s="54"/>
-      <c r="E94" s="15">
+      <c r="E94" s="54"/>
+      <c r="F94" s="15">
         <v>0.11445418789261647</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>37.128939286441607</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>4.8335609651402951</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>41.962500251581901</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -3961,20 +4060,21 @@
       </c>
       <c r="C95" s="54"/>
       <c r="D95" s="54"/>
-      <c r="E95" s="15">
+      <c r="E95" s="54"/>
+      <c r="F95" s="15">
         <v>5.0831970620829184E-2</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>30.976594078917667</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>7.1575723895608361</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>38.134166468478504</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -3983,20 +4083,21 @@
       </c>
       <c r="C96" s="54"/>
       <c r="D96" s="54"/>
-      <c r="E96" s="15">
+      <c r="E96" s="54"/>
+      <c r="F96" s="15">
         <v>0.7135315869484552</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>206.500970973036</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>41.824031630279173</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>248.32500260331517</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -4005,20 +4106,21 @@
       </c>
       <c r="C97" s="54"/>
       <c r="D97" s="54"/>
-      <c r="E97" s="15">
+      <c r="E97" s="54"/>
+      <c r="F97" s="15">
         <v>0.63824968684533889</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>245.12098822777088</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>16.632345868226842</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>261.75333409599773</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -4027,20 +4129,21 @@
       </c>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
-      <c r="E98" s="15">
+      <c r="E98" s="54"/>
+      <c r="F98" s="15">
         <v>0.40217986485286511</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>77.135333689482806</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>16.621333578605345</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>93.756667268088151</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4049,35 +4152,36 @@
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="55"/>
-      <c r="E99" s="31">
+      <c r="E99" s="55"/>
+      <c r="F99" s="31">
         <v>0.83</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>142</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>142</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>283.68413333333342</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>4.7491999999999993E-2</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>2.3890666666666664E-2</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>1.8785249999999996E-2</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>1.31328E-2</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>8.7538500000000005E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4086,44 +4190,45 @@
       </c>
       <c r="C100" s="56"/>
       <c r="D100" s="56"/>
-      <c r="E100" s="32">
+      <c r="E100" s="56"/>
+      <c r="F100" s="32">
         <v>2.2166666666666668</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>466.71951621166158</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>11.603817121671733</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>478.32333333333332</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>325.64938287832825</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>503.96834782608704</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>4.9755000000000001E-2</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>5.3909000000000006E-2</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>3.6463625E-2</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>2.7734399999999999E-2</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>2.0572650000000001E-2</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <v>1.5187200000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4132,50 +4237,51 @@
       </c>
       <c r="C101" s="56"/>
       <c r="D101" s="56"/>
-      <c r="E101" s="32">
+      <c r="E101" s="56"/>
+      <c r="F101" s="32">
         <v>2.7666666666666671</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>521.1224519959319</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>1.500881337401476</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>522.62333333333333</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>256.47388532926522</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>305.9854978723402</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>7.3387333333333332E-2</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>4.6686000000000005E-2</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <v>1.981833333333333E-2</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>1.3715999999999999E-2</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <v>1.24803E-2</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <v>1.059072E-2</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>5.2354666666666674E-3</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>3.6287333333333339E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4184,50 +4290,51 @@
       </c>
       <c r="C102" s="56"/>
       <c r="D102" s="56"/>
-      <c r="E102" s="32">
+      <c r="E102" s="56"/>
+      <c r="F102" s="32">
         <v>4.8666666666666671</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1377.3233333333335</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>1377.3233333333335</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1056.3668500881834</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>371.77533617021265</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>7.925666666666667E-2</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>5.5572666666666673E-2</v>
       </c>
-      <c r="P102">
+      <c r="Q102">
         <v>3.0887083333333332E-2</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>1.8295200000000001E-2</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <v>1.2899249999999999E-2</v>
       </c>
-      <c r="S102">
+      <c r="T102">
         <v>1.2311040000000002E-2</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>5.4611333333333331E-3</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>5.7875999999999995E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4236,50 +4343,51 @@
       </c>
       <c r="C103" s="56"/>
       <c r="D103" s="56"/>
-      <c r="E103" s="32">
+      <c r="E103" s="56"/>
+      <c r="F103" s="32">
         <v>3.2526666666666668</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>1331.3133333333333</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>1331.3133333333333</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1044.5434370976257</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>380.51250000000016</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>7.3883333333333329E-2</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>5.6130666666666655E-2</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <v>2.8631166666666666E-2</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>2.2852799999999996E-2</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <v>1.7287199999999999E-2</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <v>8.8927999999999993E-3</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>7.9208999999999998E-3</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>4.6851999999999996E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4288,23 +4396,24 @@
       </c>
       <c r="C104" s="56"/>
       <c r="D104" s="56"/>
-      <c r="E104" s="32">
+      <c r="E104" s="56"/>
+      <c r="F104" s="32">
         <v>2.9866666666666668</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>628.24340948408053</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>51.623257182586137</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>679.86666666666667</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>443.97882281741386</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4313,50 +4422,51 @@
       </c>
       <c r="C105" s="56"/>
       <c r="D105" s="56"/>
-      <c r="E105" s="32">
+      <c r="E105" s="56"/>
+      <c r="F105" s="32">
         <v>2.3826666666666667</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>1272.6904468005271</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>186.29621986613958</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>1458.9866666666667</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1010.8336461338604</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>638.59671666666668</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>0.113832</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>8.1819333333333327E-2</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>5.698824999999999E-2</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>3.2572799999999999E-2</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <v>2.5864649999999999E-2</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <v>2.0339200000000002E-2</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>1.4442666666666668E-2</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>1.2333100000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4365,23 +4475,24 @@
       </c>
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
-      <c r="E106" s="33">
+      <c r="E106" s="57"/>
+      <c r="F106" s="33">
         <v>1.9056666666666666</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>1319.4442994547924</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>269.8690338785409</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>1589.3133333333333</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>1072.7916081214591</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -4390,17 +4501,18 @@
       </c>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="34">
+      <c r="E107" s="28"/>
+      <c r="F107" s="34">
         <v>0.97</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>151</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -4409,44 +4521,45 @@
       </c>
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
-      <c r="E108" s="35">
+      <c r="E108" s="29"/>
+      <c r="F108" s="35">
         <v>3.3233333333333337</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>440.56733812636168</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>7.4326618736383336</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>448</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>252.21640479302832</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>496.00931111111106</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>5.4580666666666666E-2</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>4.2676666666666668E-2</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>3.2552666666666667E-2</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>2.7712800000000003E-2</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <v>2.5600049999999999E-2</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <v>1.5321600000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -4455,50 +4568,51 @@
       </c>
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
-      <c r="E109" s="35">
+      <c r="E109" s="29"/>
+      <c r="F109" s="35">
         <v>1.6866666666666665</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>305.99320803822985</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.28012529510349776</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>306.27333333333337</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>114.55912803822982</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>212.56201666666669</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>4.3544666666666669E-2</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>2.2609333333333335E-2</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <v>1.2439166666666663E-2</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>1.0692000000000002E-2</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <v>1.0870649999999999E-2</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <v>7.9520000000000007E-3</v>
       </c>
-      <c r="T109">
+      <c r="U109">
         <v>5.8222000000000005E-3</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>4.1799333333333325E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -4507,50 +4621,51 @@
       </c>
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
-      <c r="E110" s="35">
+      <c r="E110" s="29"/>
+      <c r="F110" s="35">
         <v>3.3766666666666665</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>710.29188095238089</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>5.5181190476190904</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>715.81</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>489.70804761904759</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>355.83449090909096</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>8.0000666666666664E-2</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>4.1064666666666666E-2</v>
       </c>
-      <c r="P110">
+      <c r="Q110">
         <v>2.196883333333333E-2</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>1.5811200000000004E-2</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <v>1.1929049999999998E-2</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <v>1.27904E-2</v>
       </c>
-      <c r="T110">
+      <c r="U110">
         <v>1.181365E-2</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>4.823E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -4559,50 +4674,51 @@
       </c>
       <c r="C111" s="29"/>
       <c r="D111" s="29"/>
-      <c r="E111" s="35">
+      <c r="E111" s="29"/>
+      <c r="F111" s="35">
         <v>2.670666666666667</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>900.05856178144063</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.88810488522603726</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>900.94666666666672</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>615.80326844810736</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>378.62602790697679</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>7.6693999999999998E-2</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>4.5838666666666666E-2</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>2.3191666666666663E-2</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>1.6286399999999999E-2</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <v>1.844262E-2</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <v>1.365504E-2</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <v>8.9364000000000006E-3</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>5.7186999999999984E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -4611,23 +4727,24 @@
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
-      <c r="E112" s="35">
+      <c r="E112" s="29"/>
+      <c r="F112" s="35">
         <v>2.1933333333333334</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>572.1915509807435</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>46.541782352589848</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>618.73333333333335</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>431.21551098074343</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -4636,50 +4753,51 @@
       </c>
       <c r="C113" s="29"/>
       <c r="D113" s="29"/>
-      <c r="E113" s="35">
+      <c r="E113" s="29"/>
+      <c r="F113" s="35">
         <v>2.242</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>1175.9610661686129</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>67.81393383138726</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>1243.7750000000001</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>952.09588616861265</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>566.45474999999999</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>0.10558599999999999</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>7.3387333333333332E-2</v>
       </c>
-      <c r="P113">
+      <c r="Q113">
         <v>4.3178666666666664E-2</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>2.9527199999999997E-2</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <v>2.5511850000000003E-2</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <v>1.79648E-2</v>
       </c>
-      <c r="T113">
+      <c r="U113">
         <v>1.3449733333333335E-2</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>1.0266099999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -4688,23 +4806,24 @@
       </c>
       <c r="C114" s="30"/>
       <c r="D114" s="30"/>
-      <c r="E114" s="36">
+      <c r="E114" s="30"/>
+      <c r="F114" s="36">
         <v>1.6146666666666667</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>962.2619211770832</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>183.18141215625019</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>1145.4433333333334</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>816.90446117708314</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -4713,11 +4832,12 @@
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
-      <c r="H115">
+      <c r="E115" s="37"/>
+      <c r="I115">
         <v>242.05322247204501</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -4726,11 +4846,12 @@
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
-      <c r="H116">
+      <c r="E116" s="37"/>
+      <c r="I116">
         <v>404.01809292429391</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -4739,11 +4860,12 @@
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
-      <c r="H117">
+      <c r="E117" s="37"/>
+      <c r="I117">
         <v>103.97961339389406</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -4752,11 +4874,12 @@
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
-      <c r="H118">
+      <c r="E118" s="37"/>
+      <c r="I118">
         <v>247.47996800917497</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -4765,11 +4888,12 @@
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
-      <c r="H119">
+      <c r="E119" s="37"/>
+      <c r="I119">
         <v>67.463670796291922</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -4778,11 +4902,12 @@
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
-      <c r="H120">
+      <c r="E120" s="37"/>
+      <c r="I120">
         <v>41.399447705570083</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>50</v>
       </c>
@@ -4791,11 +4916,12 @@
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
-      <c r="H121">
+      <c r="E121" s="37"/>
+      <c r="I121">
         <v>578.57935082768699</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -4804,11 +4930,12 @@
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
-      <c r="H122">
+      <c r="E122" s="37"/>
+      <c r="I122">
         <v>38.802079403641983</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -4817,11 +4944,12 @@
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
-      <c r="H123">
+      <c r="E123" s="37"/>
+      <c r="I123">
         <v>430.07099850608097</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -4830,11 +4958,12 @@
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
-      <c r="H124">
+      <c r="E124" s="37"/>
+      <c r="I124">
         <v>341.39265720020012</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -4843,11 +4972,12 @@
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
-      <c r="H125">
+      <c r="E125" s="37"/>
+      <c r="I125">
         <v>70.061039098219908</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -4856,11 +4986,12 @@
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
-      <c r="H126">
+      <c r="E126" s="37"/>
+      <c r="I126">
         <v>213.57836997691993</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -4869,11 +5000,12 @@
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
-      <c r="H127">
+      <c r="E127" s="37"/>
+      <c r="I127">
         <v>273.35745220238698</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>50</v>
       </c>
@@ -4882,11 +5014,12 @@
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
-      <c r="H128">
+      <c r="E128" s="37"/>
+      <c r="I128">
         <v>85.747106490214037</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>50</v>
       </c>
@@ -4895,11 +5028,12 @@
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
-      <c r="H129">
+      <c r="E129" s="37"/>
+      <c r="I129">
         <v>357.02779580195897</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>50</v>
       </c>
@@ -4908,11 +5042,12 @@
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
-      <c r="H130">
+      <c r="E130" s="37"/>
+      <c r="I130">
         <v>67.491964568651042</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -4921,11 +5056,12 @@
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
-      <c r="H131">
+      <c r="E131" s="37"/>
+      <c r="I131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>50</v>
       </c>
@@ -4934,11 +5070,12 @@
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
-      <c r="H132">
+      <c r="E132" s="37"/>
+      <c r="I132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -4947,11 +5084,12 @@
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
-      <c r="H133">
+      <c r="E133" s="37"/>
+      <c r="I133">
         <v>101.20116494892</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -4960,11 +5098,12 @@
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
-      <c r="H134">
+      <c r="E134" s="37"/>
+      <c r="I134">
         <v>4.8665288445580046</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -4973,11 +5112,12 @@
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
-      <c r="H135">
+      <c r="E135" s="37"/>
+      <c r="I135">
         <v>119.654363276947</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>50</v>
       </c>
@@ -4986,11 +5126,12 @@
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
-      <c r="H136">
+      <c r="E136" s="37"/>
+      <c r="I136">
         <v>435.31666390016403</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -4999,11 +5140,12 @@
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
-      <c r="H137">
+      <c r="E137" s="37"/>
+      <c r="I137">
         <v>268.30984321477695</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -5012,11 +5154,12 @@
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
-      <c r="H138">
+      <c r="E138" s="37"/>
+      <c r="I138">
         <v>22.923614359654898</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>50</v>
       </c>
@@ -5025,11 +5168,12 @@
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
-      <c r="H139">
+      <c r="E139" s="37"/>
+      <c r="I139">
         <v>263.12076536540513</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -5038,11 +5182,12 @@
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
-      <c r="H140">
+      <c r="E140" s="37"/>
+      <c r="I140">
         <v>278.78985649398601</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -5051,11 +5196,12 @@
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
-      <c r="H141">
+      <c r="E141" s="37"/>
+      <c r="I141">
         <v>177.05110987037699</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>50</v>
       </c>
@@ -5064,11 +5210,12 @@
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
-      <c r="H142">
+      <c r="E142" s="37"/>
+      <c r="I142">
         <v>119.62606950459497</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -5077,11 +5224,12 @@
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
-      <c r="H143">
+      <c r="E143" s="37"/>
+      <c r="I143">
         <v>83.144079433822981</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -5090,11 +5238,12 @@
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
-      <c r="H144">
+      <c r="E144" s="37"/>
+      <c r="I144">
         <v>28.333383633373046</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
@@ -5108,8 +5257,9 @@
         <f>C145*1000/10</f>
         <v>490</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>57</v>
       </c>
@@ -5120,11 +5270,12 @@
         <v>7.4</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" ref="D146:D174" si="4">C146*1000/10</f>
+        <f t="shared" ref="D146:D149" si="4">C146*1000/10</f>
         <v>740</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -5138,8 +5289,9 @@
         <f t="shared" si="4"/>
         <v>990</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>59</v>
       </c>
@@ -5153,8 +5305,9 @@
         <f t="shared" si="4"/>
         <v>1430</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>60</v>
       </c>
@@ -5168,8 +5321,9 @@
         <f t="shared" si="4"/>
         <v>1710</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>55</v>
       </c>
@@ -5183,8 +5337,9 @@
         <f>C150*1000/10+D145</f>
         <v>790</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>57</v>
       </c>
@@ -5198,8 +5353,9 @@
         <f t="shared" ref="D151:D174" si="5">C151*1000/10+D146</f>
         <v>1370</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -5213,8 +5369,9 @@
         <f t="shared" si="5"/>
         <v>1740</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -5228,8 +5385,9 @@
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -5243,8 +5401,9 @@
         <f t="shared" si="5"/>
         <v>3150</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -5258,8 +5417,9 @@
         <f t="shared" si="5"/>
         <v>1070</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>57</v>
       </c>
@@ -5273,8 +5433,9 @@
         <f t="shared" si="5"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -5288,8 +5449,9 @@
         <f t="shared" si="5"/>
         <v>2510</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -5303,8 +5465,9 @@
         <f t="shared" si="5"/>
         <v>4020</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -5318,8 +5481,9 @@
         <f t="shared" si="5"/>
         <v>4410</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>55</v>
       </c>
@@ -5333,8 +5497,9 @@
         <f t="shared" si="5"/>
         <v>1310</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>57</v>
       </c>
@@ -5348,8 +5513,9 @@
         <f t="shared" si="5"/>
         <v>2410</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -5363,8 +5529,9 @@
         <f t="shared" si="5"/>
         <v>3140</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -5378,8 +5545,9 @@
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -5393,8 +5561,9 @@
         <f t="shared" si="5"/>
         <v>5610</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -5408,8 +5577,9 @@
         <f t="shared" si="5"/>
         <v>1580</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>57</v>
       </c>
@@ -5423,8 +5593,9 @@
         <f t="shared" si="5"/>
         <v>2900</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -5438,8 +5609,9 @@
         <f t="shared" si="5"/>
         <v>3800</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>59</v>
       </c>
@@ -5453,8 +5625,9 @@
         <f t="shared" si="5"/>
         <v>5930</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>60</v>
       </c>
@@ -5468,8 +5641,9 @@
         <f t="shared" si="5"/>
         <v>6480</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>55</v>
       </c>
@@ -5483,8 +5657,12 @@
         <f t="shared" si="5"/>
         <v>1750</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1">
+        <f>27*6 / 10</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>57</v>
       </c>
@@ -5498,8 +5676,12 @@
         <f t="shared" si="5"/>
         <v>3300</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1">
+        <f>52*6 / 10</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -5513,8 +5695,12 @@
         <f t="shared" si="5"/>
         <v>4360</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1">
+        <f>73*6 / 10</f>
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>59</v>
       </c>
@@ -5528,8 +5714,12 @@
         <f t="shared" si="5"/>
         <v>6980</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1">
+        <f>141*6  / 10</f>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>60</v>
       </c>
@@ -5542,6 +5732,10 @@
       <c r="D174" s="1">
         <f t="shared" si="5"/>
         <v>7710</v>
+      </c>
+      <c r="E174" s="1">
+        <f>234*6 / 10</f>
+        <v>140.4</v>
       </c>
     </row>
   </sheetData>
